--- a/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
+++ b/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0D02585-AE46-46D3-B66A-CE6BFE08CC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B8ADA6B-81BB-4323-83F0-16A1CFA548BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8205" yWindow="3240" windowWidth="18570" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022 v2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022 v2'!$A$1:$J$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022 v2'!$A$1:$L$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>National Government Cash Operation Report</t>
   </si>
@@ -181,7 +181,13 @@
     <t>Apr</t>
   </si>
   <si>
-    <t xml:space="preserve">Excludes actual disbursement from MDS Trust Accounts amounting to P12,881 Million. </t>
+    <t>May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excludes actual disbursement from MDS Trust Accounts amounting to P17,370 Million. </t>
+  </si>
+  <si>
+    <t>Jun</t>
   </si>
   <si>
     <r>
@@ -235,7 +241,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color indexed="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -245,7 +251,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -257,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,15 +328,28 @@
       <family val="2"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
+      <i/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
-      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -390,7 +409,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -405,7 +424,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -413,7 +431,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -421,10 +451,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -432,11 +463,11 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -724,16 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,12 +771,12 @@
     <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
-    <col min="6" max="10" width="11.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="12" width="10.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,7 +785,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -766,7 +794,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -775,26 +803,26 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="7" t="s">
         <v>4</v>
       </c>
@@ -808,11 +836,17 @@
         <v>46</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
@@ -820,7 +854,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10">
-        <f t="shared" ref="F9:J9" si="0">+F10+F21+F28</f>
+        <f t="shared" ref="F9:L9" si="0">+F10+F21+F28</f>
         <v>278075</v>
       </c>
       <c r="G9" s="10">
@@ -836,36 +870,52 @@
         <v>347948.68</v>
       </c>
       <c r="J9" s="10">
+        <f t="shared" ref="J9:K9" si="2">+J10+J21+J28</f>
+        <v>304915</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="2"/>
+        <v>290268</v>
+      </c>
+      <c r="L9" s="10">
         <f t="shared" si="0"/>
-        <v>1132308.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>1727491.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" ref="F10:J10" si="2">+F11+F16+F19</f>
-        <v>255294</v>
+        <f t="shared" ref="F10:L10" si="3">+F11+F16+F19</f>
+        <v>255670</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" si="2"/>
-        <v>197805</v>
+        <f t="shared" si="3"/>
+        <v>198253</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" ref="H10:I10" si="3">+H11+H16+H19</f>
-        <v>244096</v>
+        <f t="shared" ref="H10:I10" si="4">+H11+H16+H19</f>
+        <v>243812</v>
       </c>
       <c r="I10" s="10">
+        <f t="shared" si="4"/>
+        <v>306970</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" ref="J10:K10" si="5">+J11+J16+J19</f>
+        <v>285558</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="5"/>
+        <v>250887</v>
+      </c>
+      <c r="L10" s="10">
         <f t="shared" si="3"/>
-        <v>306896</v>
-      </c>
-      <c r="J10" s="10">
-        <f t="shared" si="2"/>
-        <v>1004091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1541150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,11 +932,17 @@
         <v>239604</v>
       </c>
       <c r="J11" s="11">
-        <f>SUM(F11:I11)</f>
-        <v>742370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>216618</v>
+      </c>
+      <c r="K11" s="11">
+        <v>173540</v>
+      </c>
+      <c r="L11" s="11">
+        <f>SUM(F11:K11)</f>
+        <v>1132528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
@@ -895,8 +951,10 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,11 +971,17 @@
         <v>5190</v>
       </c>
       <c r="J13" s="11">
-        <f t="shared" ref="J13:J14" si="4">SUM(F13:I13)</f>
-        <v>10973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1792</v>
+      </c>
+      <c r="K13" s="31">
+        <v>1101</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" ref="L13:L14" si="6">SUM(F13:K13)</f>
+        <v>13866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
@@ -934,20 +998,28 @@
         <v>38</v>
       </c>
       <c r="J14" s="11">
-        <f t="shared" si="4"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2622</v>
+      </c>
+      <c r="K14" s="11">
+        <v>678</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="6"/>
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
@@ -964,11 +1036,17 @@
         <v>65669</v>
       </c>
       <c r="J16" s="11">
-        <f>SUM(F16:I16)</f>
-        <v>254226</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+        <v>66288</v>
+      </c>
+      <c r="K16" s="11">
+        <v>76201</v>
+      </c>
+      <c r="L16" s="11">
+        <f>SUM(F16:K16)</f>
+        <v>396715</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E17" s="8" t="s">
         <v>8</v>
       </c>
@@ -977,8 +1055,10 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,64 +1075,86 @@
         <v>384</v>
       </c>
       <c r="J18" s="11">
-        <f t="shared" ref="J18:J19" si="5">SUM(F18:I18)</f>
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K18" s="11">
+        <v>301</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" ref="L18:L19" si="7">SUM(F18:K18)</f>
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="11">
-        <v>1173</v>
+        <v>1549</v>
       </c>
       <c r="G19" s="11">
-        <v>1765</v>
+        <v>2213</v>
       </c>
       <c r="H19" s="11">
-        <v>2934</v>
+        <v>2650</v>
       </c>
       <c r="I19" s="11">
-        <v>1623</v>
+        <v>1697</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" si="5"/>
-        <v>7495</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+        <v>2652</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1146</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="7"/>
+        <v>11907</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" ref="F21:J21" si="6">SUM(F22:F26)</f>
-        <v>22779</v>
+        <f t="shared" ref="F21:L21" si="8">SUM(F22:F26)</f>
+        <v>22403</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" si="6"/>
-        <v>14538</v>
+        <f t="shared" si="8"/>
+        <v>14090</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="6"/>
-        <v>49782</v>
+        <f t="shared" si="8"/>
+        <v>50066</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="6"/>
-        <v>40937.68</v>
+        <f t="shared" si="8"/>
+        <v>40863.68</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="6"/>
-        <v>128036.68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>19014</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="8"/>
+        <v>39300</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="8"/>
+        <v>185736.68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,11 +1171,17 @@
         <v>25695</v>
       </c>
       <c r="J22" s="11">
-        <f t="shared" ref="J22:J26" si="7">SUM(F22:I22)</f>
-        <v>74439</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+        <v>8917</v>
+      </c>
+      <c r="K22" s="11">
+        <v>20755</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" ref="L22:L26" si="9">SUM(F22:K22)</f>
+        <v>104111</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1090,11 +1198,17 @@
         <v>4035.68</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" si="7"/>
-        <v>14825.68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+        <v>6907</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1776</v>
+      </c>
+      <c r="L23" s="11">
+        <f t="shared" si="9"/>
+        <v>23508.68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,11 +1225,17 @@
         <v>12</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="K24" s="11">
+        <v>8</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1132,43 +1252,57 @@
         <v>1551</v>
       </c>
       <c r="J25" s="11">
-        <f t="shared" si="7"/>
-        <v>7311</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+        <v>2255</v>
+      </c>
+      <c r="K25" s="11">
+        <v>2410</v>
+      </c>
+      <c r="L25" s="11">
+        <f t="shared" si="9"/>
+        <v>11976</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="11">
-        <v>8559</v>
+        <v>8183</v>
       </c>
       <c r="G26" s="11">
-        <v>6082</v>
+        <v>5634</v>
       </c>
       <c r="H26" s="11">
-        <v>7156</v>
+        <v>7440</v>
       </c>
       <c r="I26" s="11">
-        <v>9644</v>
+        <v>9570</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" si="7"/>
-        <v>31441</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+        <v>890</v>
+      </c>
+      <c r="K26" s="11">
+        <v>14351</v>
+      </c>
+      <c r="L26" s="11">
+        <f t="shared" si="9"/>
+        <v>46068</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>2</v>
       </c>
       <c r="G28" s="11">
@@ -1181,18 +1315,26 @@
         <v>115</v>
       </c>
       <c r="J28" s="11">
-        <f>SUM(F28:I28)</f>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="K28" s="11">
+        <v>81</v>
+      </c>
+      <c r="L28" s="11">
+        <f>SUM(F28:K28)</f>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>16</v>
       </c>
@@ -1200,34 +1342,44 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="10">
-        <f t="shared" ref="F30:J30" si="8">SUM(F32:F38)</f>
+        <f t="shared" ref="F30:L30" si="10">SUM(F32:F38)</f>
         <v>301457</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>318202</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>481549</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>343013</v>
       </c>
       <c r="J30" s="10">
-        <f t="shared" si="8"/>
-        <v>1444221</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>451700</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="10"/>
+        <v>505791</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="10"/>
+        <v>2401712</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
         <v>17</v>
       </c>
@@ -1244,11 +1396,17 @@
         <v>85507</v>
       </c>
       <c r="J32" s="11">
-        <f t="shared" ref="J32:J38" si="9">SUM(F32:I32)</f>
-        <v>352863</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+        <v>88982</v>
+      </c>
+      <c r="K32" s="11">
+        <v>89478</v>
+      </c>
+      <c r="L32" s="11">
+        <f t="shared" ref="L32:L38" si="11">SUM(F32:K32)</f>
+        <v>531323</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1265,38 +1423,52 @@
         <v>37303</v>
       </c>
       <c r="J33" s="11">
-        <f t="shared" si="9"/>
-        <v>186632</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+        <v>33831</v>
+      </c>
+      <c r="K33" s="11">
+        <v>36752</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="11"/>
+        <v>257215</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="13">
-        <f>F13+F14+F18</f>
+      <c r="F34" s="12">
+        <f t="shared" ref="F34:K34" si="12">F13+F14+F18</f>
         <v>3382</v>
       </c>
-      <c r="G34" s="13">
-        <f>G13+G14+G18</f>
+      <c r="G34" s="12">
+        <f t="shared" si="12"/>
         <v>1936</v>
       </c>
-      <c r="H34" s="13">
-        <f>H13+H14+H18</f>
+      <c r="H34" s="12">
+        <f t="shared" si="12"/>
         <v>1310</v>
       </c>
-      <c r="I34" s="13">
-        <f>I13+I14+I18</f>
+      <c r="I34" s="12">
+        <f t="shared" si="12"/>
         <v>5612</v>
       </c>
-      <c r="J34" s="11">
-        <f t="shared" si="9"/>
-        <v>12240</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="12">
+        <f t="shared" si="12"/>
+        <v>4421</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" si="12"/>
+        <v>2080</v>
+      </c>
+      <c r="L34" s="11">
+        <f t="shared" si="11"/>
+        <v>18741</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F35" s="11">
         <v>2869</v>
@@ -1311,11 +1483,17 @@
         <v>5117</v>
       </c>
       <c r="J35" s="11">
-        <f t="shared" si="9"/>
-        <v>24391</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+        <v>7968</v>
+      </c>
+      <c r="K35" s="11">
+        <v>12328</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="11"/>
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
@@ -1332,11 +1510,17 @@
         <v>47</v>
       </c>
       <c r="J36" s="11">
-        <f t="shared" si="9"/>
-        <v>543</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="K36" s="11">
+        <v>143</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" si="11"/>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
         <v>41</v>
       </c>
@@ -1353,78 +1537,104 @@
         <v>1437</v>
       </c>
       <c r="J37" s="11">
-        <f t="shared" si="9"/>
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>5292</v>
+      </c>
+      <c r="K37" s="11">
+        <v>4100</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" si="11"/>
+        <v>11567</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="13">
+        <v>51</v>
+      </c>
+      <c r="F38" s="12">
         <f>134494+18620-F34</f>
         <v>149732</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <f>172644+18213-G34</f>
         <v>188921</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <f>294173+25871-H34</f>
         <v>318734</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="12">
         <f>193612+19990-I34</f>
         <v>207990</v>
       </c>
-      <c r="J38" s="11">
-        <f t="shared" si="9"/>
-        <v>865377</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="12">
+        <f>286379+29239-J34</f>
+        <v>311197</v>
+      </c>
+      <c r="K38" s="12">
+        <f>342241+20749-K34</f>
+        <v>360910</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" si="11"/>
+        <v>1537484</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="14">
-        <f t="shared" ref="F40:J40" si="10">+F9-F30</f>
+      <c r="F40" s="13">
+        <f t="shared" ref="F40:L40" si="13">+F9-F30</f>
         <v>-23382</v>
       </c>
-      <c r="G40" s="14">
-        <f t="shared" si="10"/>
+      <c r="G40" s="13">
+        <f t="shared" si="13"/>
         <v>-105800</v>
       </c>
-      <c r="H40" s="14">
-        <f t="shared" si="10"/>
+      <c r="H40" s="13">
+        <f t="shared" si="13"/>
         <v>-187666</v>
       </c>
-      <c r="I40" s="14">
-        <f t="shared" si="10"/>
+      <c r="I40" s="13">
+        <f t="shared" si="13"/>
         <v>4935.679999999993</v>
       </c>
-      <c r="J40" s="14">
-        <f t="shared" si="10"/>
-        <v>-311912.32000000007</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="13">
+        <f t="shared" si="13"/>
+        <v>-146785</v>
+      </c>
+      <c r="K40" s="13">
+        <f t="shared" si="13"/>
+        <v>-215523</v>
+      </c>
+      <c r="L40" s="13">
+        <f t="shared" si="13"/>
+        <v>-674220.32000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>22</v>
       </c>
@@ -1432,52 +1642,68 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="10">
-        <f t="shared" ref="F42:J42" si="11">+F43+F47</f>
+        <f t="shared" ref="F42:L42" si="14">+F43+F47</f>
         <v>437212</v>
       </c>
       <c r="G42" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>50928</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" ref="H42:I42" si="12">+H43+H47</f>
+        <f t="shared" ref="H42:I42" si="15">+H43+H47</f>
         <v>581967</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>95588</v>
       </c>
       <c r="J42" s="10">
-        <f t="shared" si="11"/>
-        <v>1165695</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J42:K42" si="16">+J43+J47</f>
+        <v>-282583</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="16"/>
+        <v>138636</v>
+      </c>
+      <c r="L42" s="10">
+        <f t="shared" si="14"/>
+        <v>1021748</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="15">
-        <f t="shared" ref="F43:J43" si="13">+F44-F45</f>
+      <c r="F43" s="14">
+        <f t="shared" ref="F43:L43" si="17">+F44-F45</f>
         <v>91661</v>
       </c>
-      <c r="G43" s="15">
-        <f t="shared" si="13"/>
+      <c r="G43" s="14">
+        <f t="shared" si="17"/>
         <v>6262</v>
       </c>
-      <c r="H43" s="15">
-        <f t="shared" ref="H43:I43" si="14">+H44-H45</f>
+      <c r="H43" s="14">
+        <f t="shared" ref="H43:I43" si="18">+H44-H45</f>
         <v>123793</v>
       </c>
-      <c r="I43" s="15">
-        <f t="shared" si="14"/>
+      <c r="I43" s="14">
+        <f t="shared" si="18"/>
         <v>29211</v>
       </c>
-      <c r="J43" s="15">
-        <f t="shared" si="13"/>
-        <v>250927</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="14">
+        <f t="shared" ref="J43:K43" si="19">+J44-J45</f>
+        <v>-11904</v>
+      </c>
+      <c r="K43" s="14">
+        <f t="shared" si="19"/>
+        <v>42550</v>
+      </c>
+      <c r="L43" s="14">
+        <f t="shared" si="17"/>
+        <v>281573</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
         <v>24</v>
       </c>
@@ -1494,11 +1720,17 @@
         <v>34883</v>
       </c>
       <c r="J44" s="11">
-        <f t="shared" ref="J44:J45" si="15">SUM(F44:I44)</f>
-        <v>267905</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+        <v>11709</v>
+      </c>
+      <c r="K44" s="11">
+        <v>49722</v>
+      </c>
+      <c r="L44" s="11">
+        <f t="shared" ref="L44:L45" si="20">SUM(F44:K44)</f>
+        <v>329336</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
         <v>25</v>
       </c>
@@ -1515,43 +1747,59 @@
         <v>5672</v>
       </c>
       <c r="J45" s="11">
-        <f t="shared" si="15"/>
-        <v>16978</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+        <v>23613</v>
+      </c>
+      <c r="K45" s="11">
+        <v>7172</v>
+      </c>
+      <c r="L45" s="11">
+        <f t="shared" si="20"/>
+        <v>47763</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" ref="F47:J47" si="16">+F48-F49</f>
+        <f t="shared" ref="F47:L47" si="21">+F48-F49</f>
         <v>345551</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>44666</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>458174</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>66377</v>
       </c>
       <c r="J47" s="10">
-        <f t="shared" si="16"/>
-        <v>914768</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="21"/>
+        <v>-270679</v>
+      </c>
+      <c r="K47" s="10">
+        <f t="shared" si="21"/>
+        <v>96086</v>
+      </c>
+      <c r="L47" s="10">
+        <f t="shared" si="21"/>
+        <v>740175</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
@@ -1568,36 +1816,50 @@
         <v>66377</v>
       </c>
       <c r="J48" s="11">
-        <f t="shared" ref="J48:J51" si="17">SUM(F48:I48)</f>
-        <v>915494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-270679</v>
+      </c>
+      <c r="K48" s="11">
+        <v>96448</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" ref="L48:L51" si="22">SUM(F48:K48)</f>
+        <v>741263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="16">
-        <f t="shared" ref="F49:I49" si="18">F50-F51</f>
+      <c r="F49" s="15">
+        <f t="shared" ref="F49:K49" si="23">F50-F51</f>
         <v>0</v>
       </c>
-      <c r="G49" s="16">
-        <f t="shared" si="18"/>
+      <c r="G49" s="15">
+        <f t="shared" si="23"/>
         <v>334</v>
       </c>
-      <c r="H49" s="16">
-        <f t="shared" si="18"/>
+      <c r="H49" s="15">
+        <f t="shared" si="23"/>
         <v>392</v>
       </c>
-      <c r="I49" s="16">
-        <f t="shared" si="18"/>
+      <c r="I49" s="15">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J49" s="11">
-        <f t="shared" si="17"/>
-        <v>726</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J49" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <f t="shared" si="23"/>
+        <v>362</v>
+      </c>
+      <c r="L49" s="11">
+        <f t="shared" si="22"/>
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E50" s="1" t="s">
         <v>29</v>
       </c>
@@ -1614,13 +1876,19 @@
         <v>0</v>
       </c>
       <c r="J50" s="11">
-        <f t="shared" si="17"/>
-        <v>153015</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E51" s="17" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
+        <v>362</v>
+      </c>
+      <c r="L50" s="11">
+        <f t="shared" si="22"/>
+        <v>153377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E51" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="F51" s="11">
         <v>148369</v>
@@ -1635,39 +1903,53 @@
         <v>0</v>
       </c>
       <c r="J51" s="11">
-        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0</v>
+      </c>
+      <c r="L51" s="11">
+        <f t="shared" si="22"/>
         <v>152289</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="1:15" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:17" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="17">
         <v>468678</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="17">
         <v>-139054</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="17">
         <v>320585</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="17">
         <v>801216</v>
       </c>
-      <c r="J53" s="12">
-        <f>SUM(F53:I53)</f>
-        <v>1451425</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="17">
+        <v>-512579</v>
+      </c>
+      <c r="K53" s="17">
+        <v>-96158</v>
+      </c>
+      <c r="L53" s="17">
+        <f>SUM(F53:K53)</f>
+        <v>842688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -1675,74 +1957,82 @@
       <c r="E54" s="18"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:17" s="20" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-    </row>
-    <row r="57" spans="1:15" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="24" t="s">
+      <c r="B55" s="19"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="1:17" s="20" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+    </row>
+    <row r="57" spans="1:17" s="20" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-    </row>
-    <row r="58" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="24" t="s">
+      <c r="B57" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+    </row>
+    <row r="58" spans="1:17" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="25"/>
+    </row>
+    <row r="59" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="35"/>
+    </row>
+    <row r="60" spans="1:17" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="O60" s="22"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-    </row>
-    <row r="62" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="23"/>
+    <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="Q61" s="29"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+    </row>
+    <row r="63" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="30"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="7PkjNMHpI+ULGyEjujYok1hkWrF4rXmjEd3Fa2sQj/fqNu845Q42ZhLq7fb8gymhIs4dofHSZS4plN6paLVNzA==" saltValue="nh8mA6wQupuGwm5t1xmahA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B56:F56"/>
     <mergeCell ref="A7:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.85" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.6" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;C&amp;"-,Bold"&amp;10BUREAU OF THE TREASURY&amp;11
 &amp;"-,Italic"&amp;9 Statistical Data Analysis Division</oddHeader>

--- a/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
+++ b/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Joann\COR 2004-2022\COR 2022\corsep2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B8ADA6B-81BB-4323-83F0-16A1CFA548BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B7B03-DAB0-4AAC-8C8E-15F7E17480E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="3240" windowWidth="18570" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022 v2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022 v2'!$A$1:$L$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022 v2'!$A$1:$O$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>National Government Cash Operation Report</t>
   </si>
@@ -257,6 +258,15 @@
       </rPr>
       <t>while financing includes gross proceeds of liability management transactions such as bond exchange.</t>
     </r>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
 </sst>
 </file>
@@ -409,65 +419,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,13 +759,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -771,12 +775,15 @@
     <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
-    <col min="6" max="12" width="10.85546875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="11" width="10.85546875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -785,7 +792,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -794,7 +801,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -803,1236 +810,1613 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="7" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+    <row r="8" spans="1:15" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <f t="shared" ref="F9:L9" si="0">+F10+F21+F28</f>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
+        <f t="shared" ref="F9:O9" si="0">+F10+F21+F28</f>
         <v>278075</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>212402</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <f t="shared" ref="H9:I9" si="1">+H10+H21+H28</f>
         <v>293883</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <f t="shared" si="1"/>
         <v>347948.68</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="8">
         <f t="shared" ref="J9:K9" si="2">+J10+J21+J28</f>
         <v>304915</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="8">
         <f t="shared" si="2"/>
         <v>290268</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="8">
+        <f t="shared" ref="L9:M9" si="3">+L10+L21+L28</f>
+        <v>308632</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="3"/>
+        <v>332440</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" ref="N9" si="4">+N10+N21+N28</f>
+        <v>288814</v>
+      </c>
+      <c r="O9" s="8">
         <f t="shared" si="0"/>
-        <v>1727491.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>2657377.6800000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="10">
-        <f t="shared" ref="F10:L10" si="3">+F11+F16+F19</f>
-        <v>255670</v>
-      </c>
-      <c r="G10" s="10">
-        <f t="shared" si="3"/>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:O10" si="5">+F11+F16+F19</f>
+        <v>255626</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="5"/>
         <v>198253</v>
       </c>
-      <c r="H10" s="10">
-        <f t="shared" ref="H10:I10" si="4">+H11+H16+H19</f>
+      <c r="H10" s="8">
+        <f t="shared" ref="H10:I10" si="6">+H11+H16+H19</f>
         <v>243812</v>
       </c>
-      <c r="I10" s="10">
-        <f t="shared" si="4"/>
+      <c r="I10" s="8">
+        <f t="shared" si="6"/>
         <v>306970</v>
       </c>
-      <c r="J10" s="10">
-        <f t="shared" ref="J10:K10" si="5">+J11+J16+J19</f>
-        <v>285558</v>
-      </c>
-      <c r="K10" s="10">
+      <c r="J10" s="8">
+        <f t="shared" ref="J10:K10" si="7">+J11+J16+J19</f>
+        <v>284789</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="7"/>
+        <v>251757</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10:M10" si="8">+L11+L16+L19</f>
+        <v>281908</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="8"/>
+        <v>308438</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" ref="N10" si="9">+N11+N16+N19</f>
+        <v>253262</v>
+      </c>
+      <c r="O10" s="8">
         <f t="shared" si="5"/>
-        <v>250887</v>
-      </c>
-      <c r="L10" s="10">
-        <f t="shared" si="3"/>
-        <v>1541150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2384815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>195775</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>136607</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>170384</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <v>239604</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <v>216618</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <v>173540</v>
       </c>
-      <c r="L11" s="11">
-        <f>SUM(F11:K11)</f>
-        <v>1132528</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E12" s="8" t="s">
+      <c r="L11" s="9">
+        <v>197390</v>
+      </c>
+      <c r="M11" s="9">
+        <v>228938</v>
+      </c>
+      <c r="N11" s="9">
+        <v>173629</v>
+      </c>
+      <c r="O11" s="9">
+        <f>SUM(F11:N11)</f>
+        <v>1732485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>3018</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9">
         <v>1583</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>1182</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="9">
         <v>5190</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="9">
         <v>1792</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="26">
         <v>1101</v>
       </c>
-      <c r="L13" s="11">
-        <f t="shared" ref="L13:L14" si="6">SUM(F13:K13)</f>
-        <v>13866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+      <c r="M13" s="26">
+        <v>2802</v>
+      </c>
+      <c r="N13" s="26">
+        <v>1659</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" ref="O13:O16" si="10">SUM(F13:N13)</f>
+        <v>18327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>34</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <v>32</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>35</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <v>38</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <v>2622</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>678</v>
       </c>
-      <c r="L14" s="11">
-        <f t="shared" si="6"/>
-        <v>3439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="9">
+        <v>213</v>
+      </c>
+      <c r="M14" s="9">
+        <v>132</v>
+      </c>
+      <c r="N14" s="9">
+        <v>2619</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="10"/>
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>58346</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>59433</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>70778</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <v>65669</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="9">
         <v>66288</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="9">
         <v>76201</v>
       </c>
-      <c r="L16" s="11">
-        <f>SUM(F16:K16)</f>
-        <v>396715</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E17" s="8" t="s">
+      <c r="L16" s="9">
+        <v>83596</v>
+      </c>
+      <c r="M16" s="9">
+        <v>78884</v>
+      </c>
+      <c r="N16" s="9">
+        <v>79273</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="10"/>
+        <v>638468</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>330</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="9">
         <v>321</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>93</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <v>384</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="9">
         <v>7</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="9">
         <v>301</v>
       </c>
-      <c r="L18" s="11">
-        <f t="shared" ref="L18:L19" si="7">SUM(F18:K18)</f>
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="9">
+        <v>1128</v>
+      </c>
+      <c r="M18" s="9">
+        <v>677</v>
+      </c>
+      <c r="N18" s="9">
+        <v>3</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" ref="O18:O19" si="11">SUM(F18:N18)</f>
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="11">
-        <v>1549</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="F19" s="9">
+        <v>1505</v>
+      </c>
+      <c r="G19" s="9">
         <v>2213</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <v>2650</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="9">
         <v>1697</v>
       </c>
-      <c r="J19" s="11">
-        <v>2652</v>
-      </c>
-      <c r="K19" s="11">
-        <v>1146</v>
-      </c>
-      <c r="L19" s="11">
-        <f t="shared" si="7"/>
-        <v>11907</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="J19" s="9">
+        <v>1883</v>
+      </c>
+      <c r="K19" s="9">
+        <v>2016</v>
+      </c>
+      <c r="L19" s="9">
+        <v>922</v>
+      </c>
+      <c r="M19" s="9">
+        <v>616</v>
+      </c>
+      <c r="N19" s="9">
+        <v>360</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="11"/>
+        <v>13862</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
-        <f t="shared" ref="F21:L21" si="8">SUM(F22:F26)</f>
-        <v>22403</v>
-      </c>
-      <c r="G21" s="10">
-        <f t="shared" si="8"/>
+      <c r="F21" s="8">
+        <f t="shared" ref="F21:O21" si="12">SUM(F22:F26)</f>
+        <v>22447</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="12"/>
         <v>14090</v>
       </c>
-      <c r="H21" s="10">
-        <f t="shared" si="8"/>
+      <c r="H21" s="8">
+        <f t="shared" si="12"/>
         <v>50066</v>
       </c>
-      <c r="I21" s="10">
-        <f t="shared" si="8"/>
+      <c r="I21" s="8">
+        <f t="shared" si="12"/>
         <v>40863.68</v>
       </c>
-      <c r="J21" s="10">
-        <f t="shared" si="8"/>
-        <v>19014</v>
-      </c>
-      <c r="K21" s="10">
-        <f t="shared" si="8"/>
-        <v>39300</v>
-      </c>
-      <c r="L21" s="10">
-        <f t="shared" si="8"/>
-        <v>185736.68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J21" s="8">
+        <f t="shared" si="12"/>
+        <v>19783</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="12"/>
+        <v>38430</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="12"/>
+        <v>26408</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="12"/>
+        <v>23988</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="12"/>
+        <v>35551</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" si="12"/>
+        <v>271626.68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>11117</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="9">
         <v>4224</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="9">
         <v>33403</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="9">
         <v>25695</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="9">
         <v>8917</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="9">
         <v>20755</v>
       </c>
-      <c r="L22" s="11">
-        <f t="shared" ref="L22:L26" si="9">SUM(F22:K22)</f>
-        <v>104111</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="9">
+        <v>13389</v>
+      </c>
+      <c r="M22" s="9">
+        <v>4907</v>
+      </c>
+      <c r="N22" s="9">
+        <v>7304</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" ref="O22:O26" si="13">SUM(F22:N22)</f>
+        <v>129711</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <v>1904</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="9">
         <v>1858</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="9">
         <v>7028</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="9">
         <v>4035.68</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="9">
         <v>6907</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="9">
         <v>1776</v>
       </c>
-      <c r="L23" s="11">
-        <f t="shared" si="9"/>
-        <v>23508.68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="9">
+        <v>1135</v>
+      </c>
+      <c r="M23" s="9">
+        <v>1294</v>
+      </c>
+      <c r="N23" s="9">
+        <v>189</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="13"/>
+        <v>26126.68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <v>0</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="9">
         <v>4</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <v>4</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="9">
         <v>12</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="9">
         <v>45</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="9">
         <v>8</v>
       </c>
-      <c r="L24" s="11">
-        <f t="shared" si="9"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="9">
+        <v>8</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>8</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" si="13"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <v>1199</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="9">
         <v>2370</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="9">
         <v>2191</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="9">
         <v>1551</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="9">
         <v>2255</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="9">
         <v>2410</v>
       </c>
-      <c r="L25" s="11">
-        <f t="shared" si="9"/>
-        <v>11976</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="9">
+        <v>2616</v>
+      </c>
+      <c r="M25" s="9">
+        <v>2347</v>
+      </c>
+      <c r="N25" s="9">
+        <v>2664</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="13"/>
+        <v>19603</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="11">
-        <v>8183</v>
-      </c>
-      <c r="G26" s="11">
+      <c r="F26" s="9">
+        <v>8227</v>
+      </c>
+      <c r="G26" s="9">
         <v>5634</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="9">
         <v>7440</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="9">
         <v>9570</v>
       </c>
-      <c r="J26" s="11">
-        <v>890</v>
-      </c>
-      <c r="K26" s="11">
-        <v>14351</v>
-      </c>
-      <c r="L26" s="11">
-        <f t="shared" si="9"/>
-        <v>46068</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J26" s="9">
+        <v>1659</v>
+      </c>
+      <c r="K26" s="9">
+        <v>13481</v>
+      </c>
+      <c r="L26" s="9">
+        <v>9260</v>
+      </c>
+      <c r="M26" s="9">
+        <v>15440</v>
+      </c>
+      <c r="N26" s="9">
+        <v>25386</v>
+      </c>
+      <c r="O26" s="9">
+        <f t="shared" si="13"/>
+        <v>96097</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="9">
         <v>2</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="9">
         <v>59</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="9">
         <v>5</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="9">
         <v>115</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="9">
         <v>343</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="9">
         <v>81</v>
       </c>
-      <c r="L28" s="11">
-        <f>SUM(F28:K28)</f>
-        <v>605</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="L28" s="9">
+        <v>316</v>
+      </c>
+      <c r="M28" s="9">
+        <v>14</v>
+      </c>
+      <c r="N28" s="9">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9">
+        <f>SUM(F28:N28)</f>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10">
-        <f t="shared" ref="F30:L30" si="10">SUM(F32:F38)</f>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8">
+        <f t="shared" ref="F30:O30" si="14">SUM(F32:F38)</f>
         <v>301457</v>
       </c>
-      <c r="G30" s="10">
-        <f t="shared" si="10"/>
+      <c r="G30" s="8">
+        <f t="shared" si="14"/>
         <v>318202</v>
       </c>
-      <c r="H30" s="10">
-        <f t="shared" si="10"/>
+      <c r="H30" s="8">
+        <f t="shared" si="14"/>
         <v>481549</v>
       </c>
-      <c r="I30" s="10">
-        <f t="shared" si="10"/>
+      <c r="I30" s="8">
+        <f t="shared" si="14"/>
         <v>343013</v>
       </c>
-      <c r="J30" s="10">
-        <f t="shared" si="10"/>
+      <c r="J30" s="8">
+        <f t="shared" si="14"/>
         <v>451700</v>
       </c>
-      <c r="K30" s="10">
-        <f t="shared" si="10"/>
+      <c r="K30" s="8">
+        <f t="shared" si="14"/>
         <v>505791</v>
       </c>
-      <c r="L30" s="10">
-        <f t="shared" si="10"/>
-        <v>2401712</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="8">
+        <f t="shared" si="14"/>
+        <v>395395</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="14"/>
+        <v>404476</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="14"/>
+        <v>468574</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="14"/>
+        <v>3670157</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="9">
         <v>79922</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="9">
         <v>93367</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="9">
         <v>94067</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="9">
         <v>85507</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="9">
         <v>88982</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="9">
         <v>89478</v>
       </c>
-      <c r="L32" s="11">
-        <f t="shared" ref="L32:L38" si="11">SUM(F32:K32)</f>
-        <v>531323</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="9">
+        <v>86406</v>
+      </c>
+      <c r="M32" s="9">
+        <v>109491</v>
+      </c>
+      <c r="N32" s="9">
+        <v>95830</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" ref="O32:O38" si="15">SUM(F32:N32)</f>
+        <v>823050</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="9">
         <v>65551</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="9">
         <v>28230</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="9">
         <v>55548</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="9">
         <v>37303</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="9">
         <v>33831</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="9">
         <v>36752</v>
       </c>
-      <c r="L33" s="11">
-        <f t="shared" si="11"/>
-        <v>257215</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="9">
+        <v>52091</v>
+      </c>
+      <c r="M33" s="9">
+        <v>30773</v>
+      </c>
+      <c r="N33" s="9">
+        <v>59897</v>
+      </c>
+      <c r="O33" s="9">
+        <f t="shared" si="15"/>
+        <v>399976</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="12">
-        <f t="shared" ref="F34:K34" si="12">F13+F14+F18</f>
+      <c r="F34" s="9">
+        <f t="shared" ref="F34:N34" si="16">F13+F14+F18</f>
         <v>3382</v>
       </c>
-      <c r="G34" s="12">
-        <f t="shared" si="12"/>
+      <c r="G34" s="9">
+        <f t="shared" si="16"/>
         <v>1936</v>
       </c>
-      <c r="H34" s="12">
-        <f t="shared" si="12"/>
+      <c r="H34" s="9">
+        <f t="shared" si="16"/>
         <v>1310</v>
       </c>
-      <c r="I34" s="12">
-        <f t="shared" si="12"/>
+      <c r="I34" s="9">
+        <f t="shared" si="16"/>
         <v>5612</v>
       </c>
-      <c r="J34" s="12">
-        <f t="shared" si="12"/>
+      <c r="J34" s="9">
+        <f t="shared" si="16"/>
         <v>4421</v>
       </c>
-      <c r="K34" s="12">
-        <f t="shared" si="12"/>
+      <c r="K34" s="9">
+        <f t="shared" si="16"/>
         <v>2080</v>
       </c>
-      <c r="L34" s="11">
-        <f t="shared" si="11"/>
-        <v>18741</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="9">
+        <f t="shared" si="16"/>
+        <v>1341</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="16"/>
+        <v>3611</v>
+      </c>
+      <c r="N34" s="9">
+        <f t="shared" si="16"/>
+        <v>4281</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" si="15"/>
+        <v>27974</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="9">
         <v>2869</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="9">
         <v>5688</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="9">
         <v>10717</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="9">
         <v>5117</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="9">
         <v>7968</v>
       </c>
-      <c r="K35" s="11">
-        <v>12328</v>
-      </c>
-      <c r="L35" s="11">
-        <f t="shared" si="11"/>
-        <v>44687</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K35" s="9">
+        <v>12386</v>
+      </c>
+      <c r="L35" s="9">
+        <v>30321</v>
+      </c>
+      <c r="M35" s="9">
+        <v>15536</v>
+      </c>
+      <c r="N35" s="9">
+        <v>23652</v>
+      </c>
+      <c r="O35" s="9">
+        <f t="shared" si="15"/>
+        <v>114254</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="9">
         <v>0</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="9">
         <v>47</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="9">
         <v>449</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="9">
         <v>47</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="9">
         <v>9</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="9">
         <v>143</v>
       </c>
-      <c r="L36" s="11">
-        <f t="shared" si="11"/>
-        <v>695</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L36" s="9">
+        <v>40</v>
+      </c>
+      <c r="M36" s="9">
+        <v>106</v>
+      </c>
+      <c r="N36" s="9">
+        <v>81</v>
+      </c>
+      <c r="O36" s="9">
+        <f t="shared" si="15"/>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="9">
         <v>1</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="9">
         <v>13</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="9">
         <v>724</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="9">
         <v>1437</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="9">
         <v>5292</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="9">
         <v>4100</v>
       </c>
-      <c r="L37" s="11">
-        <f t="shared" si="11"/>
-        <v>11567</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L37" s="9">
+        <v>7850</v>
+      </c>
+      <c r="M37" s="9">
+        <v>13</v>
+      </c>
+      <c r="N37" s="9">
+        <v>613</v>
+      </c>
+      <c r="O37" s="9">
+        <f t="shared" si="15"/>
+        <v>20043</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="9">
         <f>134494+18620-F34</f>
         <v>149732</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="9">
         <f>172644+18213-G34</f>
         <v>188921</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="9">
         <f>294173+25871-H34</f>
         <v>318734</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="9">
         <f>193612+19990-I34</f>
         <v>207990</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="9">
         <f>286379+29239-J34</f>
         <v>311197</v>
       </c>
-      <c r="K38" s="12">
-        <f>342241+20749-K34</f>
-        <v>360910</v>
-      </c>
-      <c r="L38" s="11">
-        <f t="shared" si="11"/>
-        <v>1537484</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="K38" s="9">
+        <f>342183+20749-K34</f>
+        <v>360852</v>
+      </c>
+      <c r="L38" s="9">
+        <f>197577+21110-L34</f>
+        <v>217346</v>
+      </c>
+      <c r="M38" s="9">
+        <f>234149+14408-M34</f>
+        <v>244946</v>
+      </c>
+      <c r="N38" s="9">
+        <f>266820+21681-N34</f>
+        <v>284220</v>
+      </c>
+      <c r="O38" s="9">
+        <f t="shared" si="15"/>
+        <v>2283938</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="13">
-        <f t="shared" ref="F40:L40" si="13">+F9-F30</f>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="10">
+        <f t="shared" ref="F40:O40" si="17">+F9-F30</f>
         <v>-23382</v>
       </c>
-      <c r="G40" s="13">
-        <f t="shared" si="13"/>
+      <c r="G40" s="10">
+        <f t="shared" si="17"/>
         <v>-105800</v>
       </c>
-      <c r="H40" s="13">
-        <f t="shared" si="13"/>
+      <c r="H40" s="10">
+        <f t="shared" si="17"/>
         <v>-187666</v>
       </c>
-      <c r="I40" s="13">
-        <f t="shared" si="13"/>
+      <c r="I40" s="10">
+        <f t="shared" si="17"/>
         <v>4935.679999999993</v>
       </c>
-      <c r="J40" s="13">
-        <f t="shared" si="13"/>
+      <c r="J40" s="10">
+        <f t="shared" si="17"/>
         <v>-146785</v>
       </c>
-      <c r="K40" s="13">
-        <f t="shared" si="13"/>
+      <c r="K40" s="10">
+        <f t="shared" si="17"/>
         <v>-215523</v>
       </c>
-      <c r="L40" s="13">
-        <f t="shared" si="13"/>
-        <v>-674220.32000000007</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+      <c r="L40" s="10">
+        <f t="shared" si="17"/>
+        <v>-86763</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="17"/>
+        <v>-72036</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="17"/>
+        <v>-179760</v>
+      </c>
+      <c r="O40" s="10">
+        <f t="shared" si="17"/>
+        <v>-1012779.3199999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10">
-        <f t="shared" ref="F42:L42" si="14">+F43+F47</f>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8">
+        <f t="shared" ref="F42:O42" si="18">+F43+F47</f>
         <v>437212</v>
       </c>
-      <c r="G42" s="10">
-        <f t="shared" si="14"/>
+      <c r="G42" s="8">
+        <f t="shared" si="18"/>
         <v>50928</v>
       </c>
-      <c r="H42" s="10">
-        <f t="shared" ref="H42:I42" si="15">+H43+H47</f>
+      <c r="H42" s="8">
+        <f t="shared" ref="H42:I42" si="19">+H43+H47</f>
         <v>581967</v>
       </c>
-      <c r="I42" s="10">
-        <f t="shared" si="15"/>
+      <c r="I42" s="8">
+        <f t="shared" si="19"/>
         <v>95588</v>
       </c>
-      <c r="J42" s="10">
-        <f t="shared" ref="J42:K42" si="16">+J43+J47</f>
+      <c r="J42" s="8">
+        <f t="shared" ref="J42:K42" si="20">+J43+J47</f>
         <v>-282583</v>
       </c>
-      <c r="K42" s="10">
-        <f t="shared" si="16"/>
+      <c r="K42" s="8">
+        <f t="shared" si="20"/>
         <v>138636</v>
       </c>
-      <c r="L42" s="10">
-        <f t="shared" si="14"/>
-        <v>1021748</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="8">
+        <f t="shared" ref="L42:M42" si="21">+L43+L47</f>
+        <v>174212</v>
+      </c>
+      <c r="M42" s="8">
+        <f t="shared" si="21"/>
+        <v>118368</v>
+      </c>
+      <c r="N42" s="8">
+        <f t="shared" ref="N42" si="22">+N43+N47</f>
+        <v>361354</v>
+      </c>
+      <c r="O42" s="8">
+        <f t="shared" si="18"/>
+        <v>1675682</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="14">
-        <f t="shared" ref="F43:L43" si="17">+F44-F45</f>
+      <c r="F43" s="11">
+        <f t="shared" ref="F43:O43" si="23">+F44-F45</f>
         <v>91661</v>
       </c>
-      <c r="G43" s="14">
-        <f t="shared" si="17"/>
+      <c r="G43" s="11">
+        <f t="shared" si="23"/>
         <v>6262</v>
       </c>
-      <c r="H43" s="14">
-        <f t="shared" ref="H43:I43" si="18">+H44-H45</f>
+      <c r="H43" s="11">
+        <f t="shared" ref="H43:I43" si="24">+H44-H45</f>
         <v>123793</v>
       </c>
-      <c r="I43" s="14">
-        <f t="shared" si="18"/>
+      <c r="I43" s="11">
+        <f t="shared" si="24"/>
         <v>29211</v>
       </c>
-      <c r="J43" s="14">
-        <f t="shared" ref="J43:K43" si="19">+J44-J45</f>
+      <c r="J43" s="11">
+        <f t="shared" ref="J43:K43" si="25">+J44-J45</f>
         <v>-11904</v>
       </c>
-      <c r="K43" s="14">
-        <f t="shared" si="19"/>
+      <c r="K43" s="11">
+        <f t="shared" si="25"/>
         <v>42550</v>
       </c>
-      <c r="L43" s="14">
-        <f t="shared" si="17"/>
-        <v>281573</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="11">
+        <f t="shared" ref="L43:M43" si="26">+L44-L45</f>
+        <v>6494</v>
+      </c>
+      <c r="M43" s="11">
+        <f t="shared" si="26"/>
+        <v>-13432</v>
+      </c>
+      <c r="N43" s="11">
+        <f t="shared" ref="N43" si="27">+N44-N45</f>
+        <v>-10607</v>
+      </c>
+      <c r="O43" s="11">
+        <f t="shared" si="23"/>
+        <v>264028</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="9">
         <v>93579</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="9">
         <v>8121</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="9">
         <v>131322</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="9">
         <v>34883</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="9">
         <v>11709</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="9">
         <v>49722</v>
       </c>
-      <c r="L44" s="11">
-        <f t="shared" ref="L44:L45" si="20">SUM(F44:K44)</f>
-        <v>329336</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="9">
+        <v>7141</v>
+      </c>
+      <c r="M44" s="9">
+        <v>1317</v>
+      </c>
+      <c r="N44" s="9">
+        <v>8165</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" ref="O44:O45" si="28">SUM(F44:N44)</f>
+        <v>345959</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="9">
         <v>1918</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="9">
         <v>1859</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="9">
         <v>7529</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="9">
         <v>5672</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="9">
         <v>23613</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="9">
         <v>7172</v>
       </c>
-      <c r="L45" s="11">
-        <f t="shared" si="20"/>
-        <v>47763</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="L45" s="9">
+        <v>647</v>
+      </c>
+      <c r="M45" s="9">
+        <v>14749</v>
+      </c>
+      <c r="N45" s="9">
+        <v>18772</v>
+      </c>
+      <c r="O45" s="9">
+        <f t="shared" si="28"/>
+        <v>81931</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="10">
-        <f t="shared" ref="F47:L47" si="21">+F48-F49</f>
+      <c r="F47" s="8">
+        <f t="shared" ref="F47:O47" si="29">+F48-F49</f>
         <v>345551</v>
       </c>
-      <c r="G47" s="10">
-        <f t="shared" si="21"/>
+      <c r="G47" s="8">
+        <f t="shared" si="29"/>
         <v>44666</v>
       </c>
-      <c r="H47" s="10">
-        <f t="shared" si="21"/>
+      <c r="H47" s="8">
+        <f t="shared" si="29"/>
         <v>458174</v>
       </c>
-      <c r="I47" s="10">
-        <f t="shared" si="21"/>
+      <c r="I47" s="8">
+        <f t="shared" si="29"/>
         <v>66377</v>
       </c>
-      <c r="J47" s="10">
-        <f t="shared" si="21"/>
+      <c r="J47" s="8">
+        <f t="shared" si="29"/>
         <v>-270679</v>
       </c>
-      <c r="K47" s="10">
-        <f t="shared" si="21"/>
+      <c r="K47" s="8">
+        <f t="shared" si="29"/>
         <v>96086</v>
       </c>
-      <c r="L47" s="10">
-        <f t="shared" si="21"/>
-        <v>740175</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="8">
+        <f t="shared" si="29"/>
+        <v>167718</v>
+      </c>
+      <c r="M47" s="8">
+        <f t="shared" si="29"/>
+        <v>131800</v>
+      </c>
+      <c r="N47" s="8">
+        <f t="shared" si="29"/>
+        <v>371961</v>
+      </c>
+      <c r="O47" s="8">
+        <f t="shared" si="29"/>
+        <v>1411654</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="9">
         <v>345551</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="9">
         <v>45000</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="9">
         <v>458566</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="9">
         <v>66377</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="9">
         <v>-270679</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="9">
         <v>96448</v>
       </c>
-      <c r="L48" s="11">
-        <f t="shared" ref="L48:L51" si="22">SUM(F48:K48)</f>
-        <v>741263</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L48" s="9">
+        <v>167810</v>
+      </c>
+      <c r="M48" s="9">
+        <v>132021</v>
+      </c>
+      <c r="N48" s="9">
+        <v>480478</v>
+      </c>
+      <c r="O48" s="9">
+        <f t="shared" ref="O48:O51" si="30">SUM(F48:N48)</f>
+        <v>1521572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="15">
-        <f t="shared" ref="F49:K49" si="23">F50-F51</f>
+      <c r="F49" s="12">
+        <f t="shared" ref="F49:N49" si="31">F50-F51</f>
         <v>0</v>
       </c>
-      <c r="G49" s="15">
-        <f t="shared" si="23"/>
+      <c r="G49" s="12">
+        <f t="shared" si="31"/>
         <v>334</v>
       </c>
-      <c r="H49" s="15">
-        <f t="shared" si="23"/>
+      <c r="H49" s="12">
+        <f t="shared" si="31"/>
         <v>392</v>
       </c>
-      <c r="I49" s="15">
-        <f t="shared" si="23"/>
+      <c r="I49" s="12">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J49" s="15">
-        <f t="shared" si="23"/>
+      <c r="J49" s="12">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="K49" s="15">
-        <f t="shared" si="23"/>
+      <c r="K49" s="12">
+        <f t="shared" si="31"/>
         <v>362</v>
       </c>
-      <c r="L49" s="11">
-        <f t="shared" si="22"/>
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L49" s="12">
+        <f t="shared" si="31"/>
+        <v>92</v>
+      </c>
+      <c r="M49" s="12">
+        <f t="shared" si="31"/>
+        <v>221</v>
+      </c>
+      <c r="N49" s="12">
+        <f t="shared" si="31"/>
+        <v>108517</v>
+      </c>
+      <c r="O49" s="9">
+        <f t="shared" si="30"/>
+        <v>109918</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="9">
         <v>148369</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="9">
         <v>334</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="9">
         <v>4312</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="9">
         <v>0</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="9">
         <v>0</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="9">
         <v>362</v>
       </c>
-      <c r="L50" s="11">
-        <f t="shared" si="22"/>
-        <v>153377</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E51" s="16" t="s">
+      <c r="L50" s="9">
+        <v>103460</v>
+      </c>
+      <c r="M50" s="9">
+        <v>22775</v>
+      </c>
+      <c r="N50" s="9">
+        <v>128327</v>
+      </c>
+      <c r="O50" s="9">
+        <f t="shared" si="30"/>
+        <v>407939</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E51" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="9">
         <v>148369</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="9">
         <v>0</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="9">
         <v>3920</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="9">
         <v>0</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="9">
         <v>0</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51" s="9">
         <v>0</v>
       </c>
-      <c r="L51" s="11">
-        <f t="shared" si="22"/>
-        <v>152289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="1:17" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
+      <c r="L51" s="9">
+        <v>103368</v>
+      </c>
+      <c r="M51" s="9">
+        <v>22554</v>
+      </c>
+      <c r="N51" s="9">
+        <v>19810</v>
+      </c>
+      <c r="O51" s="9">
+        <f t="shared" si="30"/>
+        <v>298021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="1:20" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="10">
         <v>468678</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="10">
         <v>-139054</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="10">
         <v>320585</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="10">
         <v>801216</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="10">
         <v>-512579</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="10">
         <v>-96158</v>
       </c>
-      <c r="L53" s="17">
-        <f>SUM(F53:K53)</f>
-        <v>842688</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:17" s="20" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="L53" s="10">
+        <v>-88389</v>
+      </c>
+      <c r="M53" s="10">
+        <v>-81546</v>
+      </c>
+      <c r="N53" s="10">
+        <v>45198</v>
+      </c>
+      <c r="O53" s="10">
+        <f>SUM(F53:N53)</f>
+        <v>717951</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="9"/>
+      <c r="K54" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="16" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-    </row>
-    <row r="56" spans="1:17" s="20" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="37" t="s">
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" spans="1:20" s="16" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-    </row>
-    <row r="57" spans="1:17" s="20" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="1:20" s="16" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-    </row>
-    <row r="58" spans="1:17" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="1:20" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="25"/>
-    </row>
-    <row r="59" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="35"/>
-    </row>
-    <row r="60" spans="1:17" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="s">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="29"/>
+    </row>
+    <row r="60" spans="1:20" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="Q61" s="29"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-    </row>
-    <row r="63" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="30"/>
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="T61" s="24"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7PkjNMHpI+ULGyEjujYok1hkWrF4rXmjEd3Fa2sQj/fqNu845Q42ZhLq7fb8gymhIs4dofHSZS4plN6paLVNzA==" saltValue="nh8mA6wQupuGwm5t1xmahA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B56:F56"/>
     <mergeCell ref="A7:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.6" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;C&amp;"-,Bold"&amp;10BUREAU OF THE TREASURY&amp;11
 &amp;"-,Italic"&amp;9 Statistical Data Analysis Division</oddHeader>

--- a/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
+++ b/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Joann\COR 2004-2022\COR 2022\corsep2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Joann\COR 2004-2022\COR 2022\corFY2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B7B03-DAB0-4AAC-8C8E-15F7E17480E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B64B968-ED3A-42C9-9184-89791B29C5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="2022 v2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022 v2'!$A$1:$O$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022 v2'!$A$1:$R$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>National Government Cash Operation Report</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Less: Net Amortization</t>
-  </si>
-  <si>
-    <t>Amortization</t>
   </si>
   <si>
     <t>Change-In-Cash</t>
@@ -203,36 +200,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NG Disbursements </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>of which: Redemption from BSF</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  2/</t>
     </r>
   </si>
   <si>
@@ -268,12 +235,71 @@
   <si>
     <t>Sep</t>
   </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>RTB issuance in September is net of the exchange amounting to 43,769 million (as part of the Liability mnagement exercise of NG) in which maturity is on Feb. 2023.</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amortization    </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>of which: Redemption from BSF</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  1/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NG Disbursements </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,9 +390,18 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -419,7 +454,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -434,7 +469,6 @@
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -460,14 +494,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -476,6 +518,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -759,13 +804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -775,15 +820,20 @@
     <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
-    <col min="6" max="11" width="10.85546875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,16 +842,16 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -810,54 +860,63 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:15" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="6" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:18" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -865,7 +924,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8">
-        <f t="shared" ref="F9:O9" si="0">+F10+F21+F28</f>
+        <f t="shared" ref="F9:R9" si="0">+F10+F21+F28</f>
         <v>278075</v>
       </c>
       <c r="G9" s="8">
@@ -897,60 +956,84 @@
         <v>332440</v>
       </c>
       <c r="N9" s="8">
-        <f t="shared" ref="N9" si="4">+N10+N21+N28</f>
+        <f t="shared" ref="N9:O9" si="4">+N10+N21+N28</f>
         <v>288814</v>
       </c>
       <c r="O9" s="8">
+        <f t="shared" si="4"/>
+        <v>288873</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" ref="P9:Q9" si="5">+P10+P21+P28</f>
+        <v>331061</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="5"/>
+        <v>268193</v>
+      </c>
+      <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>2657377.6800000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>3545504.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:O10" si="5">+F11+F16+F19</f>
+        <f t="shared" ref="F10:R10" si="6">+F11+F16+F19</f>
         <v>255626</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>198253</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" ref="H10:I10" si="6">+H11+H16+H19</f>
-        <v>243812</v>
+        <f t="shared" ref="H10:I10" si="7">+H11+H16+H19</f>
+        <v>243819</v>
       </c>
       <c r="I10" s="8">
+        <f t="shared" si="7"/>
+        <v>307083</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" ref="J10:K10" si="8">+J11+J16+J19</f>
+        <v>284792</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="8"/>
+        <v>251760</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10:M10" si="9">+L11+L16+L19</f>
+        <v>282919</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="9"/>
+        <v>309735</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" ref="N10:O10" si="10">+N11+N16+N19</f>
+        <v>254993</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="10"/>
+        <v>263472</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" ref="P10:Q10" si="11">+P11+P16+P19</f>
+        <v>313974</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="11"/>
+        <v>253889</v>
+      </c>
+      <c r="R10" s="8">
         <f t="shared" si="6"/>
-        <v>306970</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" ref="J10:K10" si="7">+J11+J16+J19</f>
-        <v>284789</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" si="7"/>
-        <v>251757</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" ref="L10:M10" si="8">+L11+L16+L19</f>
-        <v>281908</v>
-      </c>
-      <c r="M10" s="8">
-        <f t="shared" si="8"/>
-        <v>308438</v>
-      </c>
-      <c r="N10" s="8">
-        <f t="shared" ref="N10" si="9">+N11+N16+N19</f>
-        <v>253262</v>
-      </c>
-      <c r="O10" s="8">
-        <f t="shared" si="5"/>
-        <v>2384815</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3220315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
@@ -982,11 +1065,20 @@
         <v>173629</v>
       </c>
       <c r="O11" s="9">
-        <f>SUM(F11:N11)</f>
-        <v>1732485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>186759</v>
+      </c>
+      <c r="P11" s="9">
+        <v>237143</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>179287</v>
+      </c>
+      <c r="R11" s="9">
+        <f>SUM(F11:Q11)</f>
+        <v>2335674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1000,44 +1092,56 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="30">
         <v>3018</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="30">
         <v>1583</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="30">
         <v>1182</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="30">
         <v>5190</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="30">
         <v>1792</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="30">
         <v>1101</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="30">
         <v>0</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="30">
         <v>2802</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="30">
         <v>1659</v>
       </c>
-      <c r="O13" s="9">
-        <f t="shared" ref="O13:O16" si="10">SUM(F13:N13)</f>
-        <v>18327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="30">
+        <v>25</v>
+      </c>
+      <c r="P13" s="30">
+        <v>5774</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>921</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" ref="R13:R14" si="12">SUM(F13:Q13)</f>
+        <v>25047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1069,11 +1173,20 @@
         <v>2619</v>
       </c>
       <c r="O14" s="9">
-        <f t="shared" si="10"/>
-        <v>6403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="P14" s="9">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>272</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="12"/>
+        <v>6902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1083,48 +1196,57 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="31">
         <v>58346</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="31">
         <v>59433</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="31">
         <v>70778</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="31">
         <v>65669</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="31">
         <v>66288</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="31">
         <v>76201</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="31">
         <v>83596</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="31">
         <v>78884</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="31">
         <v>79273</v>
       </c>
-      <c r="O16" s="9">
-        <f t="shared" si="10"/>
-        <v>638468</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O16" s="31">
+        <v>75055</v>
+      </c>
+      <c r="P16" s="31">
+        <v>75724</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>73173</v>
+      </c>
+      <c r="R16" s="9">
+        <f>SUM(F16:Q16)</f>
+        <v>862420</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E17" s="6" t="s">
         <v>8</v>
       </c>
@@ -1138,80 +1260,103 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="30">
         <v>330</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="30">
         <v>321</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="30">
         <v>93</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="30">
         <v>384</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="30">
         <v>7</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="30">
         <v>301</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="30">
         <v>1128</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="30">
         <v>677</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="30">
         <v>3</v>
       </c>
-      <c r="O18" s="9">
-        <f t="shared" ref="O18:O19" si="11">SUM(F18:N18)</f>
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="30">
+        <v>1062</v>
+      </c>
+      <c r="P18" s="30">
+        <v>1274</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>2255</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" ref="R18:R19" si="13">SUM(F18:Q18)</f>
+        <v>7835</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="9">
+        <v>35</v>
+      </c>
+      <c r="F19" s="31">
         <v>1505</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="31">
         <v>2213</v>
       </c>
-      <c r="H19" s="9">
-        <v>2650</v>
-      </c>
-      <c r="I19" s="9">
-        <v>1697</v>
-      </c>
-      <c r="J19" s="9">
-        <v>1883</v>
-      </c>
-      <c r="K19" s="9">
-        <v>2016</v>
-      </c>
-      <c r="L19" s="9">
-        <v>922</v>
-      </c>
-      <c r="M19" s="9">
-        <v>616</v>
-      </c>
-      <c r="N19" s="9">
-        <v>360</v>
-      </c>
-      <c r="O19" s="9">
-        <f t="shared" si="11"/>
-        <v>13862</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H19" s="31">
+        <v>2657</v>
+      </c>
+      <c r="I19" s="31">
+        <v>1810</v>
+      </c>
+      <c r="J19" s="31">
+        <v>1886</v>
+      </c>
+      <c r="K19" s="31">
+        <v>2019</v>
+      </c>
+      <c r="L19" s="31">
+        <v>1933</v>
+      </c>
+      <c r="M19" s="31">
+        <v>1913</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2091</v>
+      </c>
+      <c r="O19" s="31">
+        <v>1658</v>
+      </c>
+      <c r="P19" s="31">
+        <v>1107</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>1429</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="13"/>
+        <v>22221</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1222,53 +1367,68 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" ref="F21:O21" si="12">SUM(F22:F26)</f>
+        <f t="shared" ref="F21:R21" si="14">SUM(F22:F26)</f>
         <v>22447</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14090</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="12"/>
-        <v>50066</v>
+        <f t="shared" si="14"/>
+        <v>50059</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="12"/>
-        <v>40863.68</v>
+        <f t="shared" si="14"/>
+        <v>40750.68</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="12"/>
-        <v>19783</v>
+        <f t="shared" si="14"/>
+        <v>19780</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="12"/>
-        <v>38430</v>
+        <f t="shared" si="14"/>
+        <v>38427</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="12"/>
-        <v>26408</v>
+        <f t="shared" si="14"/>
+        <v>25397</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="12"/>
-        <v>23988</v>
+        <f t="shared" si="14"/>
+        <v>22691</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="12"/>
-        <v>35551</v>
+        <f t="shared" si="14"/>
+        <v>33820</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="12"/>
-        <v>271626.68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>25396</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="14"/>
+        <v>16975</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="14"/>
+        <v>14249</v>
+      </c>
+      <c r="R21" s="8">
+        <f t="shared" si="14"/>
+        <v>324081.68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1300,13 +1460,22 @@
         <v>7304</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" ref="O22:O26" si="13">SUM(F22:N22)</f>
-        <v>129711</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+        <v>13218</v>
+      </c>
+      <c r="P22" s="9">
+        <v>5279</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>6556</v>
+      </c>
+      <c r="R22" s="9">
+        <f t="shared" ref="R22:R26" si="15">SUM(F22:Q22)</f>
+        <v>154764</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="9">
         <v>1904</v>
@@ -1336,11 +1505,20 @@
         <v>189</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" si="13"/>
-        <v>26126.68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="P23" s="9">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <f t="shared" si="15"/>
+        <v>26383.68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1372,24 +1550,33 @@
         <v>8</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" si="13"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="P24" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>1513</v>
+      </c>
+      <c r="R24" s="9">
+        <f t="shared" si="15"/>
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="9">
+        <v>32</v>
+      </c>
+      <c r="F25" s="31">
         <v>1199</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="31">
         <v>2370</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="31">
         <v>2191</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="31">
         <v>1551</v>
       </c>
       <c r="J25" s="9">
@@ -1408,13 +1595,22 @@
         <v>2664</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" si="13"/>
-        <v>19603</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+        <v>1838</v>
+      </c>
+      <c r="P25" s="9">
+        <v>2716</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>1745</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" si="15"/>
+        <v>25902</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="9">
         <v>8227</v>
@@ -1423,32 +1619,41 @@
         <v>5634</v>
       </c>
       <c r="H26" s="9">
-        <v>7440</v>
+        <v>7433</v>
       </c>
       <c r="I26" s="9">
-        <v>9570</v>
+        <v>9457</v>
       </c>
       <c r="J26" s="9">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="K26" s="9">
-        <v>13481</v>
+        <v>13478</v>
       </c>
       <c r="L26" s="9">
-        <v>9260</v>
+        <v>8249</v>
       </c>
       <c r="M26" s="9">
-        <v>15440</v>
+        <v>14143</v>
       </c>
       <c r="N26" s="9">
-        <v>25386</v>
+        <v>23655</v>
       </c>
       <c r="O26" s="9">
-        <f t="shared" si="13"/>
-        <v>96097</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+        <v>10115</v>
+      </c>
+      <c r="P26" s="9">
+        <v>8904</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>4435</v>
+      </c>
+      <c r="R26" s="9">
+        <f t="shared" si="15"/>
+        <v>115386</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1459,8 +1664,11 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1492,11 +1700,20 @@
         <v>1</v>
       </c>
       <c r="O28" s="9">
-        <f>SUM(F28:N28)</f>
-        <v>936</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="P28" s="9">
+        <v>112</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>55</v>
+      </c>
+      <c r="R28" s="9">
+        <f>SUM(F28:Q28)</f>
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1507,8 +1724,11 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
-    </row>
-    <row r="30" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+    </row>
+    <row r="30" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>16</v>
       </c>
@@ -1516,47 +1736,59 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8">
-        <f t="shared" ref="F30:O30" si="14">SUM(F32:F38)</f>
+        <f t="shared" ref="F30:R30" si="16">SUM(F32:F38)</f>
         <v>301457</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="14"/>
-        <v>318202</v>
+        <f t="shared" si="16"/>
+        <v>317202</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>481549</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>343013</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>451700</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="14"/>
-        <v>505791</v>
+        <f t="shared" si="16"/>
+        <v>506791</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>395395</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>404476</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>468574</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="14"/>
-        <v>3670157</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>387934</v>
+      </c>
+      <c r="P30" s="8">
+        <f t="shared" si="16"/>
+        <v>454990</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" si="16"/>
+        <v>646559</v>
+      </c>
+      <c r="R30" s="8">
+        <f t="shared" si="16"/>
+        <v>5159640</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -1567,8 +1799,11 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
         <v>17</v>
       </c>
@@ -1600,11 +1835,20 @@
         <v>95830</v>
       </c>
       <c r="O32" s="9">
-        <f t="shared" ref="O32:O38" si="15">SUM(F32:N32)</f>
-        <v>823050</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+        <v>86490</v>
+      </c>
+      <c r="P32" s="9">
+        <v>86233</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>107511</v>
+      </c>
+      <c r="R32" s="9">
+        <f>SUM(F32:Q32)</f>
+        <v>1103284</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1636,64 +1880,85 @@
         <v>59897</v>
       </c>
       <c r="O33" s="9">
-        <f t="shared" si="15"/>
-        <v>399976</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+        <v>33185</v>
+      </c>
+      <c r="P33" s="9">
+        <v>26092</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>43605</v>
+      </c>
+      <c r="R33" s="9">
+        <f t="shared" ref="R33:R38" si="17">SUM(F33:Q33)</f>
+        <v>502858</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" ref="F34:N34" si="16">F13+F14+F18</f>
+        <f t="shared" ref="F34:Q34" si="18">F13+F14+F18</f>
         <v>3382</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1936</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1310</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5612</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4421</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2080</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1341</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3611</v>
       </c>
       <c r="N34" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4281</v>
       </c>
       <c r="O34" s="9">
-        <f t="shared" si="15"/>
-        <v>27974</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>1277</v>
+      </c>
+      <c r="P34" s="9">
+        <f t="shared" si="18"/>
+        <v>7085</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="18"/>
+        <v>3448</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="17"/>
+        <v>39784</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" s="9">
         <v>2869</v>
       </c>
       <c r="G35" s="9">
-        <v>5688</v>
+        <v>12688</v>
       </c>
       <c r="H35" s="9">
         <v>10717</v>
@@ -1705,7 +1970,7 @@
         <v>7968</v>
       </c>
       <c r="K35" s="9">
-        <v>12386</v>
+        <v>13386</v>
       </c>
       <c r="L35" s="9">
         <v>30321</v>
@@ -1717,11 +1982,20 @@
         <v>23652</v>
       </c>
       <c r="O35" s="9">
-        <f t="shared" si="15"/>
-        <v>114254</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+        <v>39917</v>
+      </c>
+      <c r="P35" s="9">
+        <v>6169</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>32070</v>
+      </c>
+      <c r="R35" s="9">
+        <f t="shared" si="17"/>
+        <v>200410</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,13 +2027,22 @@
         <v>81</v>
       </c>
       <c r="O36" s="9">
-        <f t="shared" si="15"/>
-        <v>922</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="P36" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>10199</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" si="17"/>
+        <v>11158</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
@@ -1789,21 +2072,30 @@
         <v>613</v>
       </c>
       <c r="O37" s="9">
-        <f t="shared" si="15"/>
-        <v>20043</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>6461</v>
+      </c>
+      <c r="P37" s="9">
+        <v>553</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>148</v>
+      </c>
+      <c r="R37" s="9">
+        <f t="shared" si="17"/>
+        <v>27205</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F38" s="9">
         <f>134494+18620-F34</f>
         <v>149732</v>
       </c>
       <c r="G38" s="9">
-        <f>172644+18213-G34</f>
-        <v>188921</v>
+        <f>164644+18213-G34</f>
+        <v>180921</v>
       </c>
       <c r="H38" s="9">
         <f>294173+25871-H34</f>
@@ -1834,11 +2126,23 @@
         <v>284220</v>
       </c>
       <c r="O38" s="9">
-        <f t="shared" si="15"/>
-        <v>2283938</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+        <f>198773+23080-O34</f>
+        <v>220576</v>
+      </c>
+      <c r="P38" s="9">
+        <f>306051+29883-P34</f>
+        <v>328849</v>
+      </c>
+      <c r="Q38" s="9">
+        <f>409770+43256-Q34</f>
+        <v>449578</v>
+      </c>
+      <c r="R38" s="9">
+        <f t="shared" si="17"/>
+        <v>3274941</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -1849,8 +2153,11 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
-    </row>
-    <row r="40" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+    </row>
+    <row r="40" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>21</v>
       </c>
@@ -1858,47 +2165,59 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="10">
-        <f t="shared" ref="F40:O40" si="17">+F9-F30</f>
+        <f t="shared" ref="F40:R40" si="19">+F9-F30</f>
         <v>-23382</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" si="17"/>
-        <v>-105800</v>
+        <f t="shared" si="19"/>
+        <v>-104800</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-187666</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4935.679999999993</v>
       </c>
       <c r="J40" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-146785</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" si="17"/>
-        <v>-215523</v>
+        <f t="shared" si="19"/>
+        <v>-216523</v>
       </c>
       <c r="L40" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-86763</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-72036</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-179760</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" si="17"/>
-        <v>-1012779.3199999998</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="19"/>
+        <v>-99061</v>
+      </c>
+      <c r="P40" s="10">
+        <f t="shared" si="19"/>
+        <v>-123929</v>
+      </c>
+      <c r="Q40" s="10">
+        <f t="shared" si="19"/>
+        <v>-378366</v>
+      </c>
+      <c r="R40" s="10">
+        <f t="shared" si="19"/>
+        <v>-1614135.3199999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -1909,8 +2228,11 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-    </row>
-    <row r="42" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+    </row>
+    <row r="42" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>22</v>
       </c>
@@ -1918,92 +2240,116 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="8">
-        <f t="shared" ref="F42:O42" si="18">+F43+F47</f>
+        <f t="shared" ref="F42:R42" si="20">+F43+F47</f>
         <v>437212</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50928</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" ref="H42:I42" si="19">+H43+H47</f>
+        <f t="shared" ref="H42:I42" si="21">+H43+H47</f>
         <v>581967</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>95588</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" ref="J42:K42" si="20">+J43+J47</f>
+        <f t="shared" ref="J42:K42" si="22">+J43+J47</f>
         <v>-282583</v>
       </c>
       <c r="K42" s="8">
+        <f t="shared" si="22"/>
+        <v>138636</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" ref="L42:M42" si="23">+L43+L47</f>
+        <v>174212</v>
+      </c>
+      <c r="M42" s="8">
+        <f t="shared" si="23"/>
+        <v>118368</v>
+      </c>
+      <c r="N42" s="8">
+        <f t="shared" ref="N42:O42" si="24">+N43+N47</f>
+        <v>361354</v>
+      </c>
+      <c r="O42" s="8">
+        <f t="shared" si="24"/>
+        <v>176557</v>
+      </c>
+      <c r="P42" s="8">
+        <f t="shared" ref="P42:Q42" si="25">+P43+P47</f>
+        <v>62568</v>
+      </c>
+      <c r="Q42" s="8">
+        <f t="shared" si="25"/>
+        <v>51601</v>
+      </c>
+      <c r="R42" s="8">
         <f t="shared" si="20"/>
-        <v>138636</v>
-      </c>
-      <c r="L42" s="8">
-        <f t="shared" ref="L42:M42" si="21">+L43+L47</f>
-        <v>174212</v>
-      </c>
-      <c r="M42" s="8">
-        <f t="shared" si="21"/>
-        <v>118368</v>
-      </c>
-      <c r="N42" s="8">
-        <f t="shared" ref="N42" si="22">+N43+N47</f>
-        <v>361354</v>
-      </c>
-      <c r="O42" s="8">
-        <f t="shared" si="18"/>
-        <v>1675682</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+        <v>1966408</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" ref="F43:O43" si="23">+F44-F45</f>
+        <f t="shared" ref="F43:R43" si="26">+F44-F45</f>
         <v>91661</v>
       </c>
       <c r="G43" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6262</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" ref="H43:I43" si="24">+H44-H45</f>
+        <f t="shared" ref="H43:I43" si="27">+H44-H45</f>
         <v>123793</v>
       </c>
       <c r="I43" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>29211</v>
       </c>
       <c r="J43" s="11">
-        <f t="shared" ref="J43:K43" si="25">+J44-J45</f>
+        <f t="shared" ref="J43:K43" si="28">+J44-J45</f>
         <v>-11904</v>
       </c>
       <c r="K43" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>42550</v>
       </c>
       <c r="L43" s="11">
-        <f t="shared" ref="L43:M43" si="26">+L44-L45</f>
+        <f t="shared" ref="L43:M43" si="29">+L44-L45</f>
         <v>6494</v>
       </c>
       <c r="M43" s="11">
+        <f t="shared" si="29"/>
+        <v>-13432</v>
+      </c>
+      <c r="N43" s="11">
+        <f t="shared" ref="N43:O43" si="30">+N44-N45</f>
+        <v>-10607</v>
+      </c>
+      <c r="O43" s="11">
+        <f t="shared" si="30"/>
+        <v>119958</v>
+      </c>
+      <c r="P43" s="11">
+        <f t="shared" ref="P43:Q43" si="31">+P44-P45</f>
+        <v>-13131</v>
+      </c>
+      <c r="Q43" s="11">
+        <f t="shared" si="31"/>
+        <v>18751</v>
+      </c>
+      <c r="R43" s="11">
         <f t="shared" si="26"/>
-        <v>-13432</v>
-      </c>
-      <c r="N43" s="11">
-        <f t="shared" ref="N43" si="27">+N44-N45</f>
-        <v>-10607</v>
-      </c>
-      <c r="O43" s="11">
-        <f t="shared" si="23"/>
-        <v>264028</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+        <v>389606</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
         <v>24</v>
       </c>
@@ -2035,11 +2381,20 @@
         <v>8165</v>
       </c>
       <c r="O44" s="9">
-        <f t="shared" ref="O44:O45" si="28">SUM(F44:N44)</f>
-        <v>345959</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+        <v>125696</v>
+      </c>
+      <c r="P44" s="9">
+        <v>21958</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>26478</v>
+      </c>
+      <c r="R44" s="9">
+        <f t="shared" ref="R44:R45" si="32">SUM(F44:Q44)</f>
+        <v>520091</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
         <v>25</v>
       </c>
@@ -2071,11 +2426,20 @@
         <v>18772</v>
       </c>
       <c r="O45" s="9">
-        <f t="shared" si="28"/>
-        <v>81931</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+        <v>5738</v>
+      </c>
+      <c r="P45" s="9">
+        <v>35089</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>7727</v>
+      </c>
+      <c r="R45" s="9">
+        <f t="shared" si="32"/>
+        <v>130485</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -2086,53 +2450,68 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
-    </row>
-    <row r="47" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+    </row>
+    <row r="47" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" ref="F47:O47" si="29">+F48-F49</f>
+        <f t="shared" ref="F47:R47" si="33">+F48-F49</f>
         <v>345551</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>44666</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>458174</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>66377</v>
       </c>
       <c r="J47" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-270679</v>
       </c>
       <c r="K47" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>96086</v>
       </c>
       <c r="L47" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>167718</v>
       </c>
       <c r="M47" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>131800</v>
       </c>
       <c r="N47" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>371961</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="29"/>
-        <v>1411654</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="33"/>
+        <v>56599</v>
+      </c>
+      <c r="P47" s="8">
+        <f t="shared" si="33"/>
+        <v>75699</v>
+      </c>
+      <c r="Q47" s="8">
+        <f t="shared" si="33"/>
+        <v>32850</v>
+      </c>
+      <c r="R47" s="8">
+        <f t="shared" si="33"/>
+        <v>1576802</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
@@ -2161,61 +2540,82 @@
         <v>132021</v>
       </c>
       <c r="N48" s="9">
-        <v>480478</v>
+        <v>436709</v>
       </c>
       <c r="O48" s="9">
-        <f t="shared" ref="O48:O51" si="30">SUM(F48:N48)</f>
-        <v>1521572</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+        <v>56733</v>
+      </c>
+      <c r="P48" s="9">
+        <v>75907</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>32956</v>
+      </c>
+      <c r="R48" s="9">
+        <f t="shared" ref="R48" si="34">SUM(F48:Q48)</f>
+        <v>1643399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="12">
-        <f t="shared" ref="F49:N49" si="31">F50-F51</f>
+      <c r="F49" s="29">
+        <f t="shared" ref="F49:R49" si="35">F50-F51</f>
         <v>0</v>
       </c>
-      <c r="G49" s="12">
-        <f t="shared" si="31"/>
+      <c r="G49" s="29">
+        <f t="shared" si="35"/>
         <v>334</v>
       </c>
-      <c r="H49" s="12">
-        <f t="shared" si="31"/>
+      <c r="H49" s="29">
+        <f t="shared" si="35"/>
         <v>392</v>
       </c>
-      <c r="I49" s="12">
-        <f t="shared" si="31"/>
+      <c r="I49" s="29">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J49" s="12">
-        <f t="shared" si="31"/>
+      <c r="J49" s="29">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="K49" s="12">
-        <f t="shared" si="31"/>
+      <c r="K49" s="29">
+        <f t="shared" si="35"/>
         <v>362</v>
       </c>
-      <c r="L49" s="12">
-        <f t="shared" si="31"/>
+      <c r="L49" s="29">
+        <f t="shared" si="35"/>
         <v>92</v>
       </c>
-      <c r="M49" s="12">
-        <f t="shared" si="31"/>
+      <c r="M49" s="29">
+        <f t="shared" si="35"/>
         <v>221</v>
       </c>
-      <c r="N49" s="12">
-        <f t="shared" si="31"/>
-        <v>108517</v>
-      </c>
-      <c r="O49" s="9">
-        <f t="shared" si="30"/>
-        <v>109918</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N49" s="29">
+        <f t="shared" si="35"/>
+        <v>64748</v>
+      </c>
+      <c r="O49" s="29">
+        <f t="shared" si="35"/>
+        <v>134</v>
+      </c>
+      <c r="P49" s="29">
+        <f t="shared" si="35"/>
+        <v>208</v>
+      </c>
+      <c r="Q49" s="29">
+        <f t="shared" si="35"/>
+        <v>106</v>
+      </c>
+      <c r="R49" s="29">
+        <f t="shared" si="35"/>
+        <v>66597</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E50" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F50" s="9">
         <v>148369</v>
@@ -2242,16 +2642,25 @@
         <v>22775</v>
       </c>
       <c r="N50" s="9">
-        <v>128327</v>
+        <v>84558</v>
       </c>
       <c r="O50" s="9">
-        <f t="shared" si="30"/>
-        <v>407939</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E51" s="13" t="s">
-        <v>52</v>
+        <v>894</v>
+      </c>
+      <c r="P50" s="9">
+        <v>208</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>250793</v>
+      </c>
+      <c r="R50" s="9">
+        <f t="shared" ref="R50:R51" si="36">SUM(F50:Q50)</f>
+        <v>616065</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E51" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="F51" s="9">
         <v>148369</v>
@@ -2281,11 +2690,20 @@
         <v>19810</v>
       </c>
       <c r="O51" s="9">
-        <f t="shared" si="30"/>
-        <v>298021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+      <c r="P51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>250687</v>
+      </c>
+      <c r="R51" s="9">
+        <f t="shared" si="36"/>
+        <v>549468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -2296,10 +2714,13 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
-    </row>
-    <row r="53" spans="1:20" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+    </row>
+    <row r="53" spans="1:23" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F53" s="10">
         <v>468678</v>
@@ -2329,94 +2750,128 @@
         <v>45198</v>
       </c>
       <c r="O53" s="10">
-        <f>SUM(F53:N53)</f>
-        <v>717951</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+        <v>-11468</v>
+      </c>
+      <c r="P53" s="10">
+        <v>-160495</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>-665136</v>
+      </c>
+      <c r="R53" s="10">
+        <f>SUM(F53:Q53)</f>
+        <v>-119148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="9"/>
       <c r="K54" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" s="16" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" s="15" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="14"/>
+    </row>
+    <row r="56" spans="1:23" s="15" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+    </row>
+    <row r="57" spans="1:23" s="15" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+    </row>
+    <row r="58" spans="1:23" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="19"/>
+    </row>
+    <row r="59" spans="1:23" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+    </row>
+    <row r="61" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="15"/>
-    </row>
-    <row r="56" spans="1:20" s="16" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-    </row>
-    <row r="57" spans="1:20" s="16" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-    </row>
-    <row r="58" spans="1:20" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-    </row>
-    <row r="59" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="29"/>
-    </row>
-    <row r="60" spans="1:20" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="T61" s="24"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
-    </row>
-    <row r="63" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25"/>
+    </row>
+    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="W62" s="23"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <sheetProtection algorithmName="SHA-512" hashValue="aDcK5LSAByU4LLUoPHjeQ7kBl9b7d6s+uLu+7TYxI5Y3/T4AIdFo3WGvdfM+ZsSEhEdxvuFAy6b7//ujLOLmDg==" saltValue="oHEDD5BGMCw0nJvu95IgFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="4">
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B56:F56"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B59:K59"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0.19685039370078741" footer="0"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;C&amp;"-,Bold"&amp;10BUREAU OF THE TREASURY&amp;11
 &amp;"-,Italic"&amp;9 Statistical Data Analysis Division</oddHeader>

--- a/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
+++ b/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Joann\COR 2004-2022\COR 2022\corFY2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Joann\COR 2004-2022\COR 2022\corsep2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B64B968-ED3A-42C9-9184-89791B29C5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B7B03-DAB0-4AAC-8C8E-15F7E17480E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="2022 v2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022 v2'!$A$1:$R$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022 v2'!$A$1:$O$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>National Government Cash Operation Report</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Less: Net Amortization</t>
+  </si>
+  <si>
+    <t>Amortization</t>
   </si>
   <si>
     <t>Change-In-Cash</t>
@@ -200,6 +203,36 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NG Disbursements </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>of which: Redemption from BSF</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  2/</t>
     </r>
   </si>
   <si>
@@ -235,71 +268,12 @@
   <si>
     <t>Sep</t>
   </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>RTB issuance in September is net of the exchange amounting to 43,769 million (as part of the Liability mnagement exercise of NG) in which maturity is on Feb. 2023.</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Amortization    </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>of which: Redemption from BSF</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  1/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NG Disbursements </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-  </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,18 +364,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <i/>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <vertAlign val="superscript"/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -454,7 +419,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -469,6 +434,7 @@
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -494,22 +460,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -518,9 +476,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -804,13 +759,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -820,20 +775,15 @@
     <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="11" width="10.85546875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,16 +792,16 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -860,63 +810,54 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:18" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+    <row r="6" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -924,7 +865,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8">
-        <f t="shared" ref="F9:R9" si="0">+F10+F21+F28</f>
+        <f t="shared" ref="F9:O9" si="0">+F10+F21+F28</f>
         <v>278075</v>
       </c>
       <c r="G9" s="8">
@@ -956,84 +897,60 @@
         <v>332440</v>
       </c>
       <c r="N9" s="8">
-        <f t="shared" ref="N9:O9" si="4">+N10+N21+N28</f>
+        <f t="shared" ref="N9" si="4">+N10+N21+N28</f>
         <v>288814</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="4"/>
-        <v>288873</v>
-      </c>
-      <c r="P9" s="8">
-        <f t="shared" ref="P9:Q9" si="5">+P10+P21+P28</f>
-        <v>331061</v>
-      </c>
-      <c r="Q9" s="8">
-        <f t="shared" si="5"/>
-        <v>268193</v>
-      </c>
-      <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>3545504.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+        <v>2657377.6800000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:R10" si="6">+F11+F16+F19</f>
+        <f t="shared" ref="F10:O10" si="5">+F11+F16+F19</f>
         <v>255626</v>
       </c>
       <c r="G10" s="8">
+        <f t="shared" si="5"/>
+        <v>198253</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" ref="H10:I10" si="6">+H11+H16+H19</f>
+        <v>243812</v>
+      </c>
+      <c r="I10" s="8">
         <f t="shared" si="6"/>
-        <v>198253</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" ref="H10:I10" si="7">+H11+H16+H19</f>
-        <v>243819</v>
-      </c>
-      <c r="I10" s="8">
+        <v>306970</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" ref="J10:K10" si="7">+J11+J16+J19</f>
+        <v>284789</v>
+      </c>
+      <c r="K10" s="8">
         <f t="shared" si="7"/>
-        <v>307083</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" ref="J10:K10" si="8">+J11+J16+J19</f>
-        <v>284792</v>
-      </c>
-      <c r="K10" s="8">
+        <v>251757</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10:M10" si="8">+L11+L16+L19</f>
+        <v>281908</v>
+      </c>
+      <c r="M10" s="8">
         <f t="shared" si="8"/>
-        <v>251760</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" ref="L10:M10" si="9">+L11+L16+L19</f>
-        <v>282919</v>
-      </c>
-      <c r="M10" s="8">
-        <f t="shared" si="9"/>
-        <v>309735</v>
+        <v>308438</v>
       </c>
       <c r="N10" s="8">
-        <f t="shared" ref="N10:O10" si="10">+N11+N16+N19</f>
-        <v>254993</v>
+        <f t="shared" ref="N10" si="9">+N11+N16+N19</f>
+        <v>253262</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="10"/>
-        <v>263472</v>
-      </c>
-      <c r="P10" s="8">
-        <f t="shared" ref="P10:Q10" si="11">+P11+P16+P19</f>
-        <v>313974</v>
-      </c>
-      <c r="Q10" s="8">
-        <f t="shared" si="11"/>
-        <v>253889</v>
-      </c>
-      <c r="R10" s="8">
-        <f t="shared" si="6"/>
-        <v>3220315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>2384815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1065,20 +982,11 @@
         <v>173629</v>
       </c>
       <c r="O11" s="9">
-        <v>186759</v>
-      </c>
-      <c r="P11" s="9">
-        <v>237143</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>179287</v>
-      </c>
-      <c r="R11" s="9">
-        <f>SUM(F11:Q11)</f>
-        <v>2335674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <f>SUM(F11:N11)</f>
+        <v>1732485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1092,56 +1000,44 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="9">
         <v>3018</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="9">
         <v>1583</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="9">
         <v>1182</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="9">
         <v>5190</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="9">
         <v>1792</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="26">
         <v>1101</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="26">
         <v>0</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="26">
         <v>2802</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="26">
         <v>1659</v>
       </c>
-      <c r="O13" s="30">
-        <v>25</v>
-      </c>
-      <c r="P13" s="30">
-        <v>5774</v>
-      </c>
-      <c r="Q13" s="30">
-        <v>921</v>
-      </c>
-      <c r="R13" s="9">
-        <f t="shared" ref="R13:R14" si="12">SUM(F13:Q13)</f>
-        <v>25047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O13" s="9">
+        <f t="shared" ref="O13:O16" si="10">SUM(F13:N13)</f>
+        <v>18327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,20 +1069,11 @@
         <v>2619</v>
       </c>
       <c r="O14" s="9">
-        <v>190</v>
-      </c>
-      <c r="P14" s="9">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>272</v>
-      </c>
-      <c r="R14" s="9">
-        <f t="shared" si="12"/>
-        <v>6902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1196,57 +1083,48 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O15" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="9">
         <v>58346</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="9">
         <v>59433</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="9">
         <v>70778</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="9">
         <v>65669</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="9">
         <v>66288</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="9">
         <v>76201</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="9">
         <v>83596</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="9">
         <v>78884</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="9">
         <v>79273</v>
       </c>
-      <c r="O16" s="31">
-        <v>75055</v>
-      </c>
-      <c r="P16" s="31">
-        <v>75724</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>73173</v>
-      </c>
-      <c r="R16" s="9">
-        <f>SUM(F16:Q16)</f>
-        <v>862420</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O16" s="9">
+        <f t="shared" si="10"/>
+        <v>638468</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E17" s="6" t="s">
         <v>8</v>
       </c>
@@ -1260,103 +1138,80 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="9">
         <v>330</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="9">
         <v>321</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="9">
         <v>93</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="9">
         <v>384</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="9">
         <v>7</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="9">
         <v>301</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="9">
         <v>1128</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="9">
         <v>677</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="9">
         <v>3</v>
       </c>
-      <c r="O18" s="30">
-        <v>1062</v>
-      </c>
-      <c r="P18" s="30">
-        <v>1274</v>
-      </c>
-      <c r="Q18" s="32">
-        <v>2255</v>
-      </c>
-      <c r="R18" s="9">
-        <f t="shared" ref="R18:R19" si="13">SUM(F18:Q18)</f>
-        <v>7835</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O18" s="9">
+        <f t="shared" ref="O18:O19" si="11">SUM(F18:N18)</f>
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="31">
+        <v>36</v>
+      </c>
+      <c r="F19" s="9">
         <v>1505</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="9">
         <v>2213</v>
       </c>
-      <c r="H19" s="31">
-        <v>2657</v>
-      </c>
-      <c r="I19" s="31">
-        <v>1810</v>
-      </c>
-      <c r="J19" s="31">
-        <v>1886</v>
-      </c>
-      <c r="K19" s="31">
-        <v>2019</v>
-      </c>
-      <c r="L19" s="31">
-        <v>1933</v>
-      </c>
-      <c r="M19" s="31">
-        <v>1913</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2091</v>
-      </c>
-      <c r="O19" s="31">
-        <v>1658</v>
-      </c>
-      <c r="P19" s="31">
-        <v>1107</v>
-      </c>
-      <c r="Q19" s="31">
-        <v>1429</v>
-      </c>
-      <c r="R19" s="9">
-        <f t="shared" si="13"/>
-        <v>22221</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H19" s="9">
+        <v>2650</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1697</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1883</v>
+      </c>
+      <c r="K19" s="9">
+        <v>2016</v>
+      </c>
+      <c r="L19" s="9">
+        <v>922</v>
+      </c>
+      <c r="M19" s="9">
+        <v>616</v>
+      </c>
+      <c r="N19" s="9">
+        <v>360</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="11"/>
+        <v>13862</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1367,68 +1222,53 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-    </row>
-    <row r="21" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" ref="F21:R21" si="14">SUM(F22:F26)</f>
+        <f t="shared" ref="F21:O21" si="12">SUM(F22:F26)</f>
         <v>22447</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>14090</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="14"/>
-        <v>50059</v>
+        <f t="shared" si="12"/>
+        <v>50066</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="14"/>
-        <v>40750.68</v>
+        <f t="shared" si="12"/>
+        <v>40863.68</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="14"/>
-        <v>19780</v>
+        <f t="shared" si="12"/>
+        <v>19783</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="14"/>
-        <v>38427</v>
+        <f t="shared" si="12"/>
+        <v>38430</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="14"/>
-        <v>25397</v>
+        <f t="shared" si="12"/>
+        <v>26408</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="14"/>
-        <v>22691</v>
+        <f t="shared" si="12"/>
+        <v>23988</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="14"/>
-        <v>33820</v>
+        <f t="shared" si="12"/>
+        <v>35551</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="14"/>
-        <v>25396</v>
-      </c>
-      <c r="P21" s="8">
-        <f t="shared" si="14"/>
-        <v>16975</v>
-      </c>
-      <c r="Q21" s="8">
-        <f t="shared" si="14"/>
-        <v>14249</v>
-      </c>
-      <c r="R21" s="8">
-        <f t="shared" si="14"/>
-        <v>324081.68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>271626.68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1460,22 +1300,13 @@
         <v>7304</v>
       </c>
       <c r="O22" s="9">
-        <v>13218</v>
-      </c>
-      <c r="P22" s="9">
-        <v>5279</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>6556</v>
-      </c>
-      <c r="R22" s="9">
-        <f t="shared" ref="R22:R26" si="15">SUM(F22:Q22)</f>
-        <v>154764</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O22:O26" si="13">SUM(F22:N22)</f>
+        <v>129711</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" s="9">
         <v>1904</v>
@@ -1505,20 +1336,11 @@
         <v>189</v>
       </c>
       <c r="O23" s="9">
-        <v>192</v>
-      </c>
-      <c r="P23" s="9">
-        <v>65</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>0</v>
-      </c>
-      <c r="R23" s="9">
-        <f t="shared" si="15"/>
-        <v>26383.68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>26126.68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,33 +1372,24 @@
         <v>8</v>
       </c>
       <c r="O24" s="9">
+        <f t="shared" si="13"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P24" s="9">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>1513</v>
-      </c>
-      <c r="R24" s="9">
-        <f t="shared" si="15"/>
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="31">
+      <c r="F25" s="9">
         <v>1199</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="9">
         <v>2370</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="9">
         <v>2191</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="9">
         <v>1551</v>
       </c>
       <c r="J25" s="9">
@@ -1595,22 +1408,13 @@
         <v>2664</v>
       </c>
       <c r="O25" s="9">
-        <v>1838</v>
-      </c>
-      <c r="P25" s="9">
-        <v>2716</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>1745</v>
-      </c>
-      <c r="R25" s="9">
-        <f t="shared" si="15"/>
-        <v>25902</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>19603</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26" s="9">
         <v>8227</v>
@@ -1619,41 +1423,32 @@
         <v>5634</v>
       </c>
       <c r="H26" s="9">
-        <v>7433</v>
+        <v>7440</v>
       </c>
       <c r="I26" s="9">
-        <v>9457</v>
+        <v>9570</v>
       </c>
       <c r="J26" s="9">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="K26" s="9">
-        <v>13478</v>
+        <v>13481</v>
       </c>
       <c r="L26" s="9">
-        <v>8249</v>
+        <v>9260</v>
       </c>
       <c r="M26" s="9">
-        <v>14143</v>
+        <v>15440</v>
       </c>
       <c r="N26" s="9">
-        <v>23655</v>
+        <v>25386</v>
       </c>
       <c r="O26" s="9">
-        <v>10115</v>
-      </c>
-      <c r="P26" s="9">
-        <v>8904</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>4435</v>
-      </c>
-      <c r="R26" s="9">
-        <f t="shared" si="15"/>
-        <v>115386</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>96097</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1664,11 +1459,8 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1700,20 +1492,11 @@
         <v>1</v>
       </c>
       <c r="O28" s="9">
-        <v>5</v>
-      </c>
-      <c r="P28" s="9">
-        <v>112</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>55</v>
-      </c>
-      <c r="R28" s="9">
-        <f>SUM(F28:Q28)</f>
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+        <f>SUM(F28:N28)</f>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1724,11 +1507,8 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-    </row>
-    <row r="30" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>16</v>
       </c>
@@ -1736,59 +1516,47 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8">
-        <f t="shared" ref="F30:R30" si="16">SUM(F32:F38)</f>
+        <f t="shared" ref="F30:O30" si="14">SUM(F32:F38)</f>
         <v>301457</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="16"/>
-        <v>317202</v>
+        <f t="shared" si="14"/>
+        <v>318202</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>481549</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>343013</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>451700</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="16"/>
-        <v>506791</v>
+        <f t="shared" si="14"/>
+        <v>505791</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>395395</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>404476</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>468574</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="16"/>
-        <v>387934</v>
-      </c>
-      <c r="P30" s="8">
-        <f t="shared" si="16"/>
-        <v>454990</v>
-      </c>
-      <c r="Q30" s="8">
-        <f t="shared" si="16"/>
-        <v>646559</v>
-      </c>
-      <c r="R30" s="8">
-        <f t="shared" si="16"/>
-        <v>5159640</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>3670157</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -1799,11 +1567,8 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
         <v>17</v>
       </c>
@@ -1835,20 +1600,11 @@
         <v>95830</v>
       </c>
       <c r="O32" s="9">
-        <v>86490</v>
-      </c>
-      <c r="P32" s="9">
-        <v>86233</v>
-      </c>
-      <c r="Q32" s="9">
-        <v>107511</v>
-      </c>
-      <c r="R32" s="9">
-        <f>SUM(F32:Q32)</f>
-        <v>1103284</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O32:O38" si="15">SUM(F32:N32)</f>
+        <v>823050</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1880,85 +1636,64 @@
         <v>59897</v>
       </c>
       <c r="O33" s="9">
-        <v>33185</v>
-      </c>
-      <c r="P33" s="9">
-        <v>26092</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>43605</v>
-      </c>
-      <c r="R33" s="9">
-        <f t="shared" ref="R33:R38" si="17">SUM(F33:Q33)</f>
-        <v>502858</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>399976</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" ref="F34:Q34" si="18">F13+F14+F18</f>
+        <f t="shared" ref="F34:N34" si="16">F13+F14+F18</f>
         <v>3382</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1936</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1310</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>5612</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4421</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2080</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1341</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3611</v>
       </c>
       <c r="N34" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4281</v>
       </c>
       <c r="O34" s="9">
-        <f t="shared" si="18"/>
-        <v>1277</v>
-      </c>
-      <c r="P34" s="9">
-        <f t="shared" si="18"/>
-        <v>7085</v>
-      </c>
-      <c r="Q34" s="9">
-        <f t="shared" si="18"/>
-        <v>3448</v>
-      </c>
-      <c r="R34" s="9">
-        <f t="shared" si="17"/>
-        <v>39784</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>27974</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F35" s="9">
         <v>2869</v>
       </c>
       <c r="G35" s="9">
-        <v>12688</v>
+        <v>5688</v>
       </c>
       <c r="H35" s="9">
         <v>10717</v>
@@ -1970,7 +1705,7 @@
         <v>7968</v>
       </c>
       <c r="K35" s="9">
-        <v>13386</v>
+        <v>12386</v>
       </c>
       <c r="L35" s="9">
         <v>30321</v>
@@ -1982,20 +1717,11 @@
         <v>23652</v>
       </c>
       <c r="O35" s="9">
-        <v>39917</v>
-      </c>
-      <c r="P35" s="9">
-        <v>6169</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>32070</v>
-      </c>
-      <c r="R35" s="9">
-        <f t="shared" si="17"/>
-        <v>200410</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>114254</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
@@ -2027,22 +1753,13 @@
         <v>81</v>
       </c>
       <c r="O36" s="9">
-        <v>28</v>
-      </c>
-      <c r="P36" s="9">
-        <v>9</v>
-      </c>
-      <c r="Q36" s="9">
-        <v>10199</v>
-      </c>
-      <c r="R36" s="9">
-        <f t="shared" si="17"/>
-        <v>11158</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
@@ -2072,30 +1789,21 @@
         <v>613</v>
       </c>
       <c r="O37" s="9">
-        <v>6461</v>
-      </c>
-      <c r="P37" s="9">
-        <v>553</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>148</v>
-      </c>
-      <c r="R37" s="9">
-        <f t="shared" si="17"/>
-        <v>27205</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" ht="16.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>20043</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F38" s="9">
         <f>134494+18620-F34</f>
         <v>149732</v>
       </c>
       <c r="G38" s="9">
-        <f>164644+18213-G34</f>
-        <v>180921</v>
+        <f>172644+18213-G34</f>
+        <v>188921</v>
       </c>
       <c r="H38" s="9">
         <f>294173+25871-H34</f>
@@ -2126,23 +1834,11 @@
         <v>284220</v>
       </c>
       <c r="O38" s="9">
-        <f>198773+23080-O34</f>
-        <v>220576</v>
-      </c>
-      <c r="P38" s="9">
-        <f>306051+29883-P34</f>
-        <v>328849</v>
-      </c>
-      <c r="Q38" s="9">
-        <f>409770+43256-Q34</f>
-        <v>449578</v>
-      </c>
-      <c r="R38" s="9">
-        <f t="shared" si="17"/>
-        <v>3274941</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>2283938</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -2153,11 +1849,8 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-    </row>
-    <row r="40" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>21</v>
       </c>
@@ -2165,59 +1858,47 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="10">
-        <f t="shared" ref="F40:R40" si="19">+F9-F30</f>
+        <f t="shared" ref="F40:O40" si="17">+F9-F30</f>
         <v>-23382</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" si="19"/>
-        <v>-104800</v>
+        <f t="shared" si="17"/>
+        <v>-105800</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-187666</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>4935.679999999993</v>
       </c>
       <c r="J40" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-146785</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" si="19"/>
-        <v>-216523</v>
+        <f t="shared" si="17"/>
+        <v>-215523</v>
       </c>
       <c r="L40" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-86763</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-72036</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-179760</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" si="19"/>
-        <v>-99061</v>
-      </c>
-      <c r="P40" s="10">
-        <f t="shared" si="19"/>
-        <v>-123929</v>
-      </c>
-      <c r="Q40" s="10">
-        <f t="shared" si="19"/>
-        <v>-378366</v>
-      </c>
-      <c r="R40" s="10">
-        <f t="shared" si="19"/>
-        <v>-1614135.3199999998</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>-1012779.3199999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -2228,11 +1909,8 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-    </row>
-    <row r="42" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>22</v>
       </c>
@@ -2240,116 +1918,92 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="8">
-        <f t="shared" ref="F42:R42" si="20">+F43+F47</f>
+        <f t="shared" ref="F42:O42" si="18">+F43+F47</f>
         <v>437212</v>
       </c>
       <c r="G42" s="8">
+        <f t="shared" si="18"/>
+        <v>50928</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" ref="H42:I42" si="19">+H43+H47</f>
+        <v>581967</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" si="19"/>
+        <v>95588</v>
+      </c>
+      <c r="J42" s="8">
+        <f t="shared" ref="J42:K42" si="20">+J43+J47</f>
+        <v>-282583</v>
+      </c>
+      <c r="K42" s="8">
         <f t="shared" si="20"/>
-        <v>50928</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" ref="H42:I42" si="21">+H43+H47</f>
-        <v>581967</v>
-      </c>
-      <c r="I42" s="8">
+        <v>138636</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" ref="L42:M42" si="21">+L43+L47</f>
+        <v>174212</v>
+      </c>
+      <c r="M42" s="8">
         <f t="shared" si="21"/>
-        <v>95588</v>
-      </c>
-      <c r="J42" s="8">
-        <f t="shared" ref="J42:K42" si="22">+J43+J47</f>
-        <v>-282583</v>
-      </c>
-      <c r="K42" s="8">
-        <f t="shared" si="22"/>
-        <v>138636</v>
-      </c>
-      <c r="L42" s="8">
-        <f t="shared" ref="L42:M42" si="23">+L43+L47</f>
-        <v>174212</v>
-      </c>
-      <c r="M42" s="8">
-        <f t="shared" si="23"/>
         <v>118368</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" ref="N42:O42" si="24">+N43+N47</f>
+        <f t="shared" ref="N42" si="22">+N43+N47</f>
         <v>361354</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="24"/>
-        <v>176557</v>
-      </c>
-      <c r="P42" s="8">
-        <f t="shared" ref="P42:Q42" si="25">+P43+P47</f>
-        <v>62568</v>
-      </c>
-      <c r="Q42" s="8">
-        <f t="shared" si="25"/>
-        <v>51601</v>
-      </c>
-      <c r="R42" s="8">
-        <f t="shared" si="20"/>
-        <v>1966408</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>1675682</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" ref="F43:R43" si="26">+F44-F45</f>
+        <f t="shared" ref="F43:O43" si="23">+F44-F45</f>
         <v>91661</v>
       </c>
       <c r="G43" s="11">
+        <f t="shared" si="23"/>
+        <v>6262</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" ref="H43:I43" si="24">+H44-H45</f>
+        <v>123793</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="24"/>
+        <v>29211</v>
+      </c>
+      <c r="J43" s="11">
+        <f t="shared" ref="J43:K43" si="25">+J44-J45</f>
+        <v>-11904</v>
+      </c>
+      <c r="K43" s="11">
+        <f t="shared" si="25"/>
+        <v>42550</v>
+      </c>
+      <c r="L43" s="11">
+        <f t="shared" ref="L43:M43" si="26">+L44-L45</f>
+        <v>6494</v>
+      </c>
+      <c r="M43" s="11">
         <f t="shared" si="26"/>
-        <v>6262</v>
-      </c>
-      <c r="H43" s="11">
-        <f t="shared" ref="H43:I43" si="27">+H44-H45</f>
-        <v>123793</v>
-      </c>
-      <c r="I43" s="11">
-        <f t="shared" si="27"/>
-        <v>29211</v>
-      </c>
-      <c r="J43" s="11">
-        <f t="shared" ref="J43:K43" si="28">+J44-J45</f>
-        <v>-11904</v>
-      </c>
-      <c r="K43" s="11">
-        <f t="shared" si="28"/>
-        <v>42550</v>
-      </c>
-      <c r="L43" s="11">
-        <f t="shared" ref="L43:M43" si="29">+L44-L45</f>
-        <v>6494</v>
-      </c>
-      <c r="M43" s="11">
-        <f t="shared" si="29"/>
         <v>-13432</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" ref="N43:O43" si="30">+N44-N45</f>
+        <f t="shared" ref="N43" si="27">+N44-N45</f>
         <v>-10607</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="30"/>
-        <v>119958</v>
-      </c>
-      <c r="P43" s="11">
-        <f t="shared" ref="P43:Q43" si="31">+P44-P45</f>
-        <v>-13131</v>
-      </c>
-      <c r="Q43" s="11">
-        <f t="shared" si="31"/>
-        <v>18751</v>
-      </c>
-      <c r="R43" s="11">
-        <f t="shared" si="26"/>
-        <v>389606</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="23"/>
+        <v>264028</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
         <v>24</v>
       </c>
@@ -2381,20 +2035,11 @@
         <v>8165</v>
       </c>
       <c r="O44" s="9">
-        <v>125696</v>
-      </c>
-      <c r="P44" s="9">
-        <v>21958</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>26478</v>
-      </c>
-      <c r="R44" s="9">
-        <f t="shared" ref="R44:R45" si="32">SUM(F44:Q44)</f>
-        <v>520091</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O44:O45" si="28">SUM(F44:N44)</f>
+        <v>345959</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
         <v>25</v>
       </c>
@@ -2426,20 +2071,11 @@
         <v>18772</v>
       </c>
       <c r="O45" s="9">
-        <v>5738</v>
-      </c>
-      <c r="P45" s="9">
-        <v>35089</v>
-      </c>
-      <c r="Q45" s="9">
-        <v>7727</v>
-      </c>
-      <c r="R45" s="9">
-        <f t="shared" si="32"/>
-        <v>130485</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="28"/>
+        <v>81931</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -2450,68 +2086,53 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-    </row>
-    <row r="47" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" ref="F47:R47" si="33">+F48-F49</f>
+        <f t="shared" ref="F47:O47" si="29">+F48-F49</f>
         <v>345551</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>44666</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>458174</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>66377</v>
       </c>
       <c r="J47" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>-270679</v>
       </c>
       <c r="K47" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>96086</v>
       </c>
       <c r="L47" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>167718</v>
       </c>
       <c r="M47" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>131800</v>
       </c>
       <c r="N47" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>371961</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="33"/>
-        <v>56599</v>
-      </c>
-      <c r="P47" s="8">
-        <f t="shared" si="33"/>
-        <v>75699</v>
-      </c>
-      <c r="Q47" s="8">
-        <f t="shared" si="33"/>
-        <v>32850</v>
-      </c>
-      <c r="R47" s="8">
-        <f t="shared" si="33"/>
-        <v>1576802</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="29"/>
+        <v>1411654</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
@@ -2540,82 +2161,61 @@
         <v>132021</v>
       </c>
       <c r="N48" s="9">
-        <v>436709</v>
+        <v>480478</v>
       </c>
       <c r="O48" s="9">
-        <v>56733</v>
-      </c>
-      <c r="P48" s="9">
-        <v>75907</v>
-      </c>
-      <c r="Q48" s="9">
-        <v>32956</v>
-      </c>
-      <c r="R48" s="9">
-        <f t="shared" ref="R48" si="34">SUM(F48:Q48)</f>
-        <v>1643399</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O48:O51" si="30">SUM(F48:N48)</f>
+        <v>1521572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="29">
-        <f t="shared" ref="F49:R49" si="35">F50-F51</f>
+      <c r="F49" s="12">
+        <f t="shared" ref="F49:N49" si="31">F50-F51</f>
         <v>0</v>
       </c>
-      <c r="G49" s="29">
-        <f t="shared" si="35"/>
+      <c r="G49" s="12">
+        <f t="shared" si="31"/>
         <v>334</v>
       </c>
-      <c r="H49" s="29">
-        <f t="shared" si="35"/>
+      <c r="H49" s="12">
+        <f t="shared" si="31"/>
         <v>392</v>
       </c>
-      <c r="I49" s="29">
-        <f t="shared" si="35"/>
+      <c r="I49" s="12">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J49" s="29">
-        <f t="shared" si="35"/>
+      <c r="J49" s="12">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="K49" s="29">
-        <f t="shared" si="35"/>
+      <c r="K49" s="12">
+        <f t="shared" si="31"/>
         <v>362</v>
       </c>
-      <c r="L49" s="29">
-        <f t="shared" si="35"/>
+      <c r="L49" s="12">
+        <f t="shared" si="31"/>
         <v>92</v>
       </c>
-      <c r="M49" s="29">
-        <f t="shared" si="35"/>
+      <c r="M49" s="12">
+        <f t="shared" si="31"/>
         <v>221</v>
       </c>
-      <c r="N49" s="29">
-        <f t="shared" si="35"/>
-        <v>64748</v>
-      </c>
-      <c r="O49" s="29">
-        <f t="shared" si="35"/>
-        <v>134</v>
-      </c>
-      <c r="P49" s="29">
-        <f t="shared" si="35"/>
-        <v>208</v>
-      </c>
-      <c r="Q49" s="29">
-        <f t="shared" si="35"/>
-        <v>106</v>
-      </c>
-      <c r="R49" s="29">
-        <f t="shared" si="35"/>
-        <v>66597</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N49" s="12">
+        <f t="shared" si="31"/>
+        <v>108517</v>
+      </c>
+      <c r="O49" s="9">
+        <f t="shared" si="30"/>
+        <v>109918</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E50" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="F50" s="9">
         <v>148369</v>
@@ -2642,25 +2242,16 @@
         <v>22775</v>
       </c>
       <c r="N50" s="9">
-        <v>84558</v>
+        <v>128327</v>
       </c>
       <c r="O50" s="9">
-        <v>894</v>
-      </c>
-      <c r="P50" s="9">
-        <v>208</v>
-      </c>
-      <c r="Q50" s="9">
-        <v>250793</v>
-      </c>
-      <c r="R50" s="9">
-        <f t="shared" ref="R50:R51" si="36">SUM(F50:Q50)</f>
-        <v>616065</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E51" s="12" t="s">
-        <v>58</v>
+        <f t="shared" si="30"/>
+        <v>407939</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E51" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="F51" s="9">
         <v>148369</v>
@@ -2690,20 +2281,11 @@
         <v>19810</v>
       </c>
       <c r="O51" s="9">
-        <v>760</v>
-      </c>
-      <c r="P51" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="9">
-        <v>250687</v>
-      </c>
-      <c r="R51" s="9">
-        <f t="shared" si="36"/>
-        <v>549468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="30"/>
+        <v>298021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -2714,13 +2296,10 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-    </row>
-    <row r="53" spans="1:23" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:20" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F53" s="10">
         <v>468678</v>
@@ -2750,128 +2329,94 @@
         <v>45198</v>
       </c>
       <c r="O53" s="10">
-        <v>-11468</v>
-      </c>
-      <c r="P53" s="10">
-        <v>-160495</v>
-      </c>
-      <c r="Q53" s="10">
-        <v>-665136</v>
-      </c>
-      <c r="R53" s="10">
-        <f>SUM(F53:Q53)</f>
-        <v>-119148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
+        <f>SUM(F53:N53)</f>
+        <v>717951</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="9"/>
       <c r="K54" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="16" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" spans="1:20" s="16" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="1:20" s="16" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="1:20" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" s="15" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="14"/>
-    </row>
-    <row r="56" spans="1:23" s="15" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-    </row>
-    <row r="57" spans="1:23" s="15" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-    </row>
-    <row r="58" spans="1:23" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
-    </row>
-    <row r="59" spans="1:23" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-    </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-    </row>
-    <row r="61" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="W62" s="23"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-    </row>
-    <row r="64" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="29"/>
+    </row>
+    <row r="60" spans="1:20" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="T61" s="24"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aDcK5LSAByU4LLUoPHjeQ7kBl9b7d6s+uLu+7TYxI5Y3/T4AIdFo3WGvdfM+ZsSEhEdxvuFAy6b7//ujLOLmDg==" saltValue="oHEDD5BGMCw0nJvu95IgFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B56:F56"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B59:K59"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0.19685039370078741" footer="0"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;C&amp;"-,Bold"&amp;10BUREAU OF THE TREASURY&amp;11
 &amp;"-,Italic"&amp;9 Statistical Data Analysis Division</oddHeader>

--- a/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
+++ b/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Joann\COR 2004-2022\COR 2022\corFY2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R-Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B64B968-ED3A-42C9-9184-89791B29C5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F46BF-5D45-40E6-B16C-4ECDE1C9A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="13110" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022 v2" sheetId="1" r:id="rId1"/>
+    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2022 v2" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022 v2'!$A$1:$R$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2022 v2'!$A$1:$R$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2023'!$A$1:$I$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>National Government Cash Operation Report</t>
   </si>
@@ -291,6 +293,12 @@
   <si>
     <t>Dec</t>
   </si>
+  <si>
+    <t>CY 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amortization    </t>
+  </si>
 </sst>
 </file>
 
@@ -299,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +413,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -449,12 +464,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -522,10 +538,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 11" xfId="3" xr:uid="{BF49F760-2DD8-4DB3-A84F-9281570256C0}"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -803,10 +845,910 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AAED26-1E8C-4704-9ABA-F18595CCE15F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39:H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
+        <f t="shared" ref="F9:I9" si="0">+F10+F21+F28</f>
+        <v>348167.25</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>211868</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>258650</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="0"/>
+        <v>818685.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:I10" si="1">+F11+F16+F19</f>
+        <v>305431</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
+        <v>192290</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>221793</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>719514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9">
+        <v>234819</v>
+      </c>
+      <c r="G11" s="9">
+        <v>129378</v>
+      </c>
+      <c r="H11" s="9">
+        <v>140962</v>
+      </c>
+      <c r="I11" s="9">
+        <f>SUM(F11+G11+H11)</f>
+        <v>505159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>646</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2704</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" ref="I13:I14" si="2">SUM(F13+G13+H13)</f>
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9">
+        <v>723</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="2"/>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="38">
+        <v>70591</v>
+      </c>
+      <c r="G16" s="9">
+        <v>62895</v>
+      </c>
+      <c r="H16" s="9">
+        <v>80343</v>
+      </c>
+      <c r="I16" s="9">
+        <f>SUM(F16+G16+H16)</f>
+        <v>213829</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>132</v>
+      </c>
+      <c r="H18" s="9">
+        <v>46</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" ref="I18:I19" si="3">SUM(F18+G18+H18)</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="38">
+        <v>21</v>
+      </c>
+      <c r="G19" s="9">
+        <v>17</v>
+      </c>
+      <c r="H19" s="9">
+        <v>488</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="3"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" ref="F21:I21" si="4">SUM(F22:F26)</f>
+        <v>42726</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="4"/>
+        <v>19578</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="4"/>
+        <v>36857</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="4"/>
+        <v>99161</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="9">
+        <v>17753</v>
+      </c>
+      <c r="G22" s="9">
+        <v>6398</v>
+      </c>
+      <c r="H22" s="9">
+        <v>14873</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" ref="I22:I26" si="5">SUM(F22+G22+H22)</f>
+        <v>39024</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="39">
+        <f>939-939+1409+701</f>
+        <v>2110</v>
+      </c>
+      <c r="G23" s="39">
+        <f>574+654</f>
+        <v>1228</v>
+      </c>
+      <c r="H23" s="39">
+        <v>531</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="5"/>
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>22</v>
+      </c>
+      <c r="H24" s="9">
+        <v>6</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="38">
+        <v>10514</v>
+      </c>
+      <c r="G25" s="9">
+        <v>2077</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1653</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="5"/>
+        <v>14244</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="9">
+        <v>12349</v>
+      </c>
+      <c r="G26" s="9">
+        <v>9853</v>
+      </c>
+      <c r="H26" s="9">
+        <v>19794</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="5"/>
+        <v>41996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="9">
+        <v>10.25</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <f>SUM(F28+G28+H28)</f>
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8">
+        <f t="shared" ref="F30:I30" si="6">SUM(F31:F37)</f>
+        <v>302418</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="6"/>
+        <v>318241</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="6"/>
+        <v>468911</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="6"/>
+        <v>1089570</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="9">
+        <v>73752</v>
+      </c>
+      <c r="G31" s="9">
+        <v>73834</v>
+      </c>
+      <c r="H31" s="9">
+        <v>83271</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" ref="I31:I37" si="7">SUM(F31+G31+H31)</f>
+        <v>230857</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="9">
+        <v>46970</v>
+      </c>
+      <c r="G32" s="9">
+        <v>34109</v>
+      </c>
+      <c r="H32" s="9">
+        <v>60898</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="7"/>
+        <v>141977</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="9">
+        <f>F13+F14+F18</f>
+        <v>723</v>
+      </c>
+      <c r="G33" s="9">
+        <f>G13+G14+G18</f>
+        <v>783</v>
+      </c>
+      <c r="H33" s="9">
+        <f>H13+H14+H18</f>
+        <v>2790</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="7"/>
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1112</v>
+      </c>
+      <c r="G34" s="9">
+        <v>9401</v>
+      </c>
+      <c r="H34" s="9">
+        <v>10795</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="7"/>
+        <v>21308</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>11</v>
+      </c>
+      <c r="H35" s="9">
+        <v>106</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>12</v>
+      </c>
+      <c r="H36" s="9">
+        <v>628</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="7"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="9">
+        <f>157549+23035-F33</f>
+        <v>179861</v>
+      </c>
+      <c r="G37" s="9">
+        <f>175407+25467-G33</f>
+        <v>200091</v>
+      </c>
+      <c r="H37" s="9">
+        <f>280904+32309-H33</f>
+        <v>310423</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="7"/>
+        <v>690375</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="10">
+        <f>+F9-F30</f>
+        <v>45749.25</v>
+      </c>
+      <c r="G39" s="10">
+        <f>+G9-G30</f>
+        <v>-106373</v>
+      </c>
+      <c r="H39" s="10">
+        <f>+H9-H30</f>
+        <v>-210261</v>
+      </c>
+      <c r="I39" s="10">
+        <f>+I9-I30</f>
+        <v>-270884.75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8">
+        <f t="shared" ref="F41:I41" si="8">+F42+F46</f>
+        <v>366005</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="8"/>
+        <v>305339</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="8"/>
+        <v>229432</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="8"/>
+        <v>900776</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" ref="F42:I42" si="9">+F43-F44</f>
+        <v>186705</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="9"/>
+        <v>-22160</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="9"/>
+        <v>83645</v>
+      </c>
+      <c r="I42" s="11">
+        <f t="shared" si="9"/>
+        <v>248190</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="9">
+        <v>187563</v>
+      </c>
+      <c r="G43" s="9">
+        <v>15984</v>
+      </c>
+      <c r="H43" s="9">
+        <v>91557</v>
+      </c>
+      <c r="I43" s="9">
+        <f>SUM(F43+G43+H43)</f>
+        <v>295104</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="9">
+        <v>858</v>
+      </c>
+      <c r="G44" s="9">
+        <v>38144</v>
+      </c>
+      <c r="H44" s="9">
+        <v>7912</v>
+      </c>
+      <c r="I44" s="9">
+        <f>SUM(F44+G44+H44)</f>
+        <v>46914</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" ref="F46:I46" si="10">+F47-F48</f>
+        <v>179300</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="10"/>
+        <v>327499</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="10"/>
+        <v>145787</v>
+      </c>
+      <c r="I46" s="8">
+        <f t="shared" si="10"/>
+        <v>652586</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="9">
+        <v>179300</v>
+      </c>
+      <c r="G47" s="9">
+        <v>359313</v>
+      </c>
+      <c r="H47" s="9">
+        <v>146045</v>
+      </c>
+      <c r="I47" s="9">
+        <f>SUM(F47+G47+H47)</f>
+        <v>684658</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="40">
+        <f t="shared" ref="F48:H48" si="11">F49-F50</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="40">
+        <f t="shared" si="11"/>
+        <v>31814</v>
+      </c>
+      <c r="H48" s="40">
+        <f t="shared" si="11"/>
+        <v>258</v>
+      </c>
+      <c r="I48" s="40">
+        <f>I49-I50</f>
+        <v>32072</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="9">
+        <v>3</v>
+      </c>
+      <c r="G49" s="9">
+        <v>303461</v>
+      </c>
+      <c r="H49" s="9">
+        <v>73361</v>
+      </c>
+      <c r="I49" s="9">
+        <f>SUM(F49+G49+H49)</f>
+        <v>376825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E50" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="9">
+        <v>3</v>
+      </c>
+      <c r="G50" s="9">
+        <v>271647</v>
+      </c>
+      <c r="H50" s="9">
+        <v>73103</v>
+      </c>
+      <c r="I50" s="9">
+        <f>SUM(F50+G50+H50)</f>
+        <v>344753</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:12" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="10">
+        <v>590732</v>
+      </c>
+      <c r="G52" s="10">
+        <v>-161942</v>
+      </c>
+      <c r="H52" s="10">
+        <v>492513</v>
+      </c>
+      <c r="I52" s="10">
+        <f>SUM(F52+G52+H52)</f>
+        <v>921303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:12" s="15" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="14"/>
+    </row>
+    <row r="55" spans="1:12" s="15" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+    </row>
+    <row r="56" spans="1:12" s="15" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+    </row>
+    <row r="57" spans="1:12" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="46"/>
+    </row>
+    <row r="58" spans="1:12" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="47"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+    </row>
+    <row r="59" spans="1:12" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="L60" s="23"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="24"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="vUKvUja6pFu/OeiT7bIoyFlIazUQbO3iZpEN9Y+L85D/s/y/nSJtNjq9gm06KH9dj2J9A3yCKHMcC7fQ2qGV5Q==" saltValue="DGGXUDuiN0lrqnYxoP5s0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;10BUREAU OF THE TREASURY&amp;11
+&amp;"-,Italic"&amp;9 Statistical Data Analysis Division</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>

--- a/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
+++ b/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
@@ -12,8 +12,8 @@
     <sheet name="2022 v2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'2023'!$A$1:$L$59</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'2022 v2'!$A$1:$R$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'2023'!$A$1:$P$58</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
-  <si>
-    <t xml:space="preserve">National Government Cash Operation Report</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+  <si>
+    <t xml:space="preserve">National Government Cash Operations Report</t>
   </si>
   <si>
     <t xml:space="preserve">CY 2023</t>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">(In Million Pesos)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Version 2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Particulars</t>
   </si>
   <si>
@@ -58,6 +55,18 @@
   </si>
   <si>
     <t xml:space="preserve">Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -200,7 +209,7 @@
     <r>
       <rPr>
         <i val="true"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -211,7 +220,7 @@
       <rPr>
         <i val="true"/>
         <vertAlign val="superscript"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -262,28 +271,19 @@
     <t xml:space="preserve">1/</t>
   </si>
   <si>
-    <t xml:space="preserve">Excludes actual disbursement from MDS Trust Accounts amounting to P17,370 Million. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The amount was sourced from the Bond Sinking Fund.</t>
   </si>
   <si>
     <t xml:space="preserve">Source: COR(FPAD-RS)</t>
   </si>
   <si>
+    <t xml:space="preserve">National Government Cash Operation Report</t>
+  </si>
+  <si>
     <t xml:space="preserve">CY 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Jul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct</t>
+    <t xml:space="preserve">(Version 2)</t>
   </si>
   <si>
     <t xml:space="preserve">Nov</t>
@@ -316,6 +316,32 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">of which: Redemption from BSF</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  1/</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Excludes actual disbursement from MDS Trust Accounts amounting to P17,370 Million. </t>
+  </si>
+  <si>
     <t xml:space="preserve">2/</t>
   </si>
   <si>
@@ -326,20 +352,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="mmm/yy"/>
     <numFmt numFmtId="167" formatCode="#,##0_ ;[RED]\-#,##0\ "/>
     <numFmt numFmtId="168" formatCode="#,##0_);\(#,##0\)"/>
     <numFmt numFmtId="169" formatCode="d/mmm/yy"/>
-    <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="170" formatCode="#,##0_);\(#,##0\)"/>
+    <numFmt numFmtId="171" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -355,12 +383,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -437,6 +459,14 @@
     </font>
     <font>
       <i val="true"/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -456,6 +486,12 @@
       <b val="true"/>
       <i val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -536,110 +572,100 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -647,11 +673,11 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -663,59 +689,59 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -723,11 +749,11 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -739,19 +765,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -763,8 +797,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
-    <cellStyle name="Comma 2 2" xfId="21"/>
+    <cellStyle name="Comma 2 2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="21"/>
     <cellStyle name="Normal 8" xfId="22"/>
   </cellStyles>
   <colors>
@@ -835,10 +869,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,13 +881,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="1.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="2.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -885,46 +920,56 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" s="6" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -955,45 +1000,77 @@
       </c>
       <c r="L9" s="8" t="n">
         <f aca="false">+L10+L21+L28</f>
-        <v>1860134.06</v>
+        <v>411729</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <f aca="false">+M10+M21+M28</f>
+        <v>310553</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <f aca="false">+N10+N21+N28</f>
+        <v>255408</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <f aca="false">+O10+O21+O28</f>
+        <v>385808</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <f aca="false">+P10+P21+P28</f>
+        <v>3223632.06</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" s="8" t="n">
         <f aca="false">+F11+F16+F19</f>
-        <v>306973</v>
+        <v>308125</v>
       </c>
       <c r="G10" s="8" t="n">
         <f aca="false">+G11+G16+G19</f>
-        <v>194051</v>
+        <v>194636</v>
       </c>
       <c r="H10" s="8" t="n">
         <f aca="false">+H11+H16+H19</f>
-        <v>221793</v>
+        <v>224380</v>
       </c>
       <c r="I10" s="8" t="n">
         <f aca="false">+I11+I16+I19</f>
-        <v>403589</v>
+        <v>405371</v>
       </c>
       <c r="J10" s="8" t="n">
         <f aca="false">+J11+J16+J19</f>
-        <v>291711</v>
+        <v>294039</v>
       </c>
       <c r="K10" s="8" t="n">
         <f aca="false">+K11+K16+K19</f>
-        <v>238870</v>
+        <v>241043</v>
       </c>
       <c r="L10" s="8" t="n">
         <f aca="false">+L11+L16+L19</f>
-        <v>1656987</v>
+        <v>348507</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <f aca="false">+M11+M16+M19</f>
+        <v>291720</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <f aca="false">+N11+N16+N19</f>
+        <v>233499</v>
+      </c>
+      <c r="O10" s="8" t="n">
+        <f aca="false">+O11+O16+O19</f>
+        <v>354737</v>
+      </c>
+      <c r="P10" s="8" t="n">
+        <f aca="false">+P11+P16+P19</f>
+        <v>2896057</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11" s="9" t="n">
         <v>234819</v>
@@ -1014,13 +1091,25 @@
         <v>164736</v>
       </c>
       <c r="L11" s="9" t="n">
-        <f aca="false">SUM(F11+G11+H11+I11+J11+K11)</f>
-        <v>1219188</v>
+        <v>273134</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>213536</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>152171</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>274429</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <f aca="false">SUM(F11+G11+H11+I11+J11+K11+L11+M11+N11+O11)</f>
+        <v>2132458</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1029,10 +1118,14 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>0</v>
@@ -1053,13 +1146,25 @@
         <v>1033</v>
       </c>
       <c r="L13" s="9" t="n">
-        <f aca="false">SUM(F13+G13+H13+I13+J13+K13)</f>
-        <v>8999</v>
+        <v>1182</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>1338</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>2447</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <f aca="false">SUM(F13+G13+H13+I13+J13+K13+L13+M13+N13+O13)</f>
+        <v>13979</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F14" s="9" t="n">
         <v>723</v>
@@ -1080,8 +1185,20 @@
         <v>2463</v>
       </c>
       <c r="L14" s="9" t="n">
-        <f aca="false">SUM(F14+G14+H14+I14+J14+K14)</f>
-        <v>3307</v>
+        <v>76</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>150</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>571</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>537</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <f aca="false">SUM(F14+G14+H14+I14+J14+K14+L14+M14+N14+O14)</f>
+        <v>4641</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1092,10 +1209,14 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F16" s="11" t="n">
         <v>70591</v>
@@ -1116,13 +1237,25 @@
         <v>74125</v>
       </c>
       <c r="L16" s="9" t="n">
-        <f aca="false">SUM(F16+G16+H16+I16+J16+K16)</f>
-        <v>433433</v>
+        <v>73058</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>78897</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <v>77926</v>
+      </c>
+      <c r="P16" s="9" t="n">
+        <f aca="false">SUM(F16+G16+H16+I16+J16+K16+L16+M16+N16+O16)</f>
+        <v>738314</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -1131,10 +1264,14 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F18" s="10" t="n">
         <v>0</v>
@@ -1155,35 +1292,59 @@
         <v>325</v>
       </c>
       <c r="L18" s="9" t="n">
-        <f aca="false">SUM(F18+G18+H18+I18+J18+K18)</f>
-        <v>820</v>
+        <v>256</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>638</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>537</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>1782</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <f aca="false">SUM(F18+G18+H18+I18+J18+K18+L18+M18+N18+O18)</f>
+        <v>4033</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F19" s="11" t="n">
-        <v>1563</v>
+        <v>2715</v>
       </c>
       <c r="G19" s="9" t="n">
-        <v>1778</v>
+        <v>2363</v>
       </c>
       <c r="H19" s="9" t="n">
-        <v>488</v>
+        <v>3075</v>
       </c>
       <c r="I19" s="9" t="n">
-        <v>16</v>
+        <v>1798</v>
       </c>
       <c r="J19" s="9" t="n">
-        <v>512</v>
+        <v>2840</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>9</v>
+        <v>2182</v>
       </c>
       <c r="L19" s="9" t="n">
-        <f aca="false">SUM(F19+G19+H19+I19+J19+K19)</f>
-        <v>4366</v>
+        <v>2315</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>3184</v>
+      </c>
+      <c r="N19" s="9" t="n">
+        <v>2431</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>2382</v>
+      </c>
+      <c r="P19" s="9" t="n">
+        <f aca="false">SUM(F19+G19+H19+I19+J19+K19+L19+M19+N19+O19)</f>
+        <v>25285</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,43 +1355,63 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F21" s="8" t="n">
         <f aca="false">SUM(F22:F26)</f>
-        <v>41184</v>
+        <v>40032</v>
       </c>
       <c r="G21" s="8" t="n">
         <f aca="false">SUM(G22:G26)</f>
-        <v>17817</v>
+        <v>17232</v>
       </c>
       <c r="H21" s="8" t="n">
         <f aca="false">SUM(H22:H26)</f>
-        <v>36857</v>
+        <v>34270</v>
       </c>
       <c r="I21" s="8" t="n">
         <f aca="false">SUM(I22:I26)</f>
-        <v>37086.81</v>
+        <v>35304.81</v>
       </c>
       <c r="J21" s="8" t="n">
         <f aca="false">SUM(J22:J26)</f>
-        <v>41710</v>
+        <v>39382</v>
       </c>
       <c r="K21" s="8" t="n">
         <f aca="false">SUM(K22:K26)</f>
-        <v>28287</v>
+        <v>26114</v>
       </c>
       <c r="L21" s="8" t="n">
         <f aca="false">SUM(L22:L26)</f>
-        <v>202941.81</v>
+        <v>63143</v>
+      </c>
+      <c r="M21" s="8" t="n">
+        <f aca="false">SUM(M22:M26)</f>
+        <v>18799</v>
+      </c>
+      <c r="N21" s="8" t="n">
+        <f aca="false">SUM(N22:N26)</f>
+        <v>21666</v>
+      </c>
+      <c r="O21" s="8" t="n">
+        <f aca="false">SUM(O22:O26)</f>
+        <v>31071</v>
+      </c>
+      <c r="P21" s="8" t="n">
+        <f aca="false">SUM(P22:P26)</f>
+        <v>327013.81</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F22" s="9" t="n">
         <v>17753</v>
@@ -1251,40 +1432,64 @@
         <v>10753</v>
       </c>
       <c r="L22" s="9" t="n">
-        <f aca="false">SUM(F22+G22+H22+I22+J22+K22)</f>
-        <v>92990</v>
+        <v>50829</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>6271</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>7946</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>16786</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <f aca="false">SUM(F22+G22+H22+I22+J22+K22+L22+M22+N22+O22)</f>
+        <v>174822</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="12" t="n">
-        <v>2254</v>
-      </c>
-      <c r="G23" s="12" t="n">
-        <v>1391</v>
-      </c>
-      <c r="H23" s="12" t="n">
-        <v>1454</v>
-      </c>
-      <c r="I23" s="12" t="n">
-        <v>1015</v>
-      </c>
-      <c r="J23" s="12" t="n">
-        <v>390</v>
-      </c>
-      <c r="K23" s="12" t="n">
-        <v>481</v>
-      </c>
-      <c r="L23" s="9" t="n">
-        <f aca="false">SUM(F23+G23+H23+I23+J23+K23)</f>
-        <v>6985</v>
+        <v>25</v>
+      </c>
+      <c r="F23" s="11" t="n">
+        <v>3131</v>
+      </c>
+      <c r="G23" s="11" t="n">
+        <v>1708</v>
+      </c>
+      <c r="H23" s="11" t="n">
+        <v>2172</v>
+      </c>
+      <c r="I23" s="11" t="n">
+        <v>1511</v>
+      </c>
+      <c r="J23" s="11" t="n">
+        <v>1359</v>
+      </c>
+      <c r="K23" s="11" t="n">
+        <v>1123</v>
+      </c>
+      <c r="L23" s="11" t="n">
+        <v>1159</v>
+      </c>
+      <c r="M23" s="11" t="n">
+        <v>1009</v>
+      </c>
+      <c r="N23" s="11" t="n">
+        <v>713</v>
+      </c>
+      <c r="O23" s="11" t="n">
+        <v>325</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <f aca="false">SUM(F23+G23+H23+I23+J23+K23+L23+M23+N23+O23)</f>
+        <v>14210</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F24" s="9" t="n">
         <v>0</v>
@@ -1305,13 +1510,25 @@
         <v>3</v>
       </c>
       <c r="L24" s="9" t="n">
-        <f aca="false">SUM(F24+G24+H24+I24+J24+K24)</f>
-        <v>51.81</v>
+        <v>11</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>459</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>146</v>
+      </c>
+      <c r="P24" s="9" t="n">
+        <f aca="false">SUM(F24+G24+H24+I24+J24+K24+L24+M24+N24+O24)</f>
+        <v>689.81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F25" s="11" t="n">
         <v>10514</v>
@@ -1332,35 +1549,59 @@
         <v>1316</v>
       </c>
       <c r="L25" s="9" t="n">
-        <f aca="false">SUM(F25+G25+H25+I25+J25+K25)</f>
-        <v>17112</v>
+        <v>1941</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>2125</v>
+      </c>
+      <c r="N25" s="9" t="n">
+        <v>1375</v>
+      </c>
+      <c r="O25" s="9" t="n">
+        <v>1735</v>
+      </c>
+      <c r="P25" s="9" t="n">
+        <f aca="false">SUM(F25+G25+H25+I25+J25+K25+L25+M25+N25+O25)</f>
+        <v>24288</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F26" s="9" t="n">
-        <v>10663</v>
+        <v>8634</v>
       </c>
       <c r="G26" s="9" t="n">
-        <v>7929</v>
+        <v>7027</v>
       </c>
       <c r="H26" s="9" t="n">
-        <v>18871</v>
+        <v>15566</v>
       </c>
       <c r="I26" s="9" t="n">
-        <v>17422</v>
+        <v>15144</v>
       </c>
       <c r="J26" s="9" t="n">
-        <v>15184</v>
+        <v>11887</v>
       </c>
       <c r="K26" s="9" t="n">
-        <v>15734</v>
+        <v>12919</v>
       </c>
       <c r="L26" s="9" t="n">
-        <f aca="false">SUM(F26+G26+H26+I26+J26+K26)</f>
-        <v>85803</v>
+        <v>9203</v>
+      </c>
+      <c r="M26" s="9" t="n">
+        <v>9372</v>
+      </c>
+      <c r="N26" s="9" t="n">
+        <v>11173</v>
+      </c>
+      <c r="O26" s="9" t="n">
+        <v>12079</v>
+      </c>
+      <c r="P26" s="9" t="n">
+        <f aca="false">SUM(F26+G26+H26+I26+J26+K26+L26+M26+N26+O26)</f>
+        <v>113004</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,10 +1612,14 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F28" s="9" t="n">
         <v>10.25</v>
@@ -1395,8 +1640,20 @@
         <v>158</v>
       </c>
       <c r="L28" s="9" t="n">
-        <f aca="false">SUM(F28+G28+H28+I28+J28+K28)</f>
-        <v>205.25</v>
+        <v>79</v>
+      </c>
+      <c r="M28" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="N28" s="9" t="n">
+        <v>243</v>
+      </c>
+      <c r="O28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9" t="n">
+        <f aca="false">SUM(F28+G28+H28+I28+J28+K28+L28+M28+N28+O28)</f>
+        <v>561.25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,10 +1664,14 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1441,15 +1702,31 @@
       </c>
       <c r="L30" s="8" t="n">
         <f aca="false">SUM(L31:L37)</f>
-        <v>2411850</v>
+        <v>459543</v>
+      </c>
+      <c r="M30" s="8" t="n">
+        <f aca="false">SUM(M31:M37)</f>
+        <v>443556</v>
+      </c>
+      <c r="N30" s="8" t="n">
+        <f aca="false">SUM(N31:N37)</f>
+        <v>506349</v>
+      </c>
+      <c r="O30" s="8" t="n">
+        <f aca="false">SUM(O31:O37)</f>
+        <v>420210</v>
+      </c>
+      <c r="P30" s="8" t="n">
+        <f aca="false">SUM(P31:P37)</f>
+        <v>4241508</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F31" s="9" t="n">
-        <v>73752</v>
+        <v>73754</v>
       </c>
       <c r="G31" s="9" t="n">
         <v>73834</v>
@@ -1467,13 +1744,25 @@
         <v>81485</v>
       </c>
       <c r="L31" s="9" t="n">
-        <f aca="false">SUM(F31+G31+H31+I31+J31+K31)</f>
-        <v>461392</v>
+        <v>76795</v>
+      </c>
+      <c r="M31" s="9" t="n">
+        <v>75469</v>
+      </c>
+      <c r="N31" s="9" t="n">
+        <v>80922</v>
+      </c>
+      <c r="O31" s="9" t="n">
+        <v>75358</v>
+      </c>
+      <c r="P31" s="9" t="n">
+        <f aca="false">SUM(F31+G31+H31+I31+J31+K31+L31+M31+N31+O31)</f>
+        <v>769938</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F32" s="9" t="n">
         <v>46970</v>
@@ -1494,13 +1783,25 @@
         <v>52884</v>
       </c>
       <c r="L32" s="9" t="n">
-        <f aca="false">SUM(F32+G32+H32+I32+J32+K32)</f>
-        <v>282458</v>
+        <v>63550</v>
+      </c>
+      <c r="M32" s="9" t="n">
+        <v>42668</v>
+      </c>
+      <c r="N32" s="9" t="n">
+        <v>71448</v>
+      </c>
+      <c r="O32" s="9" t="n">
+        <v>58983</v>
+      </c>
+      <c r="P32" s="9" t="n">
+        <f aca="false">SUM(F32+G32+H32+I32+J32+K32+L32+M32+N32+O32)</f>
+        <v>519107</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F33" s="9" t="n">
         <f aca="false">F13+F14+F18</f>
@@ -1527,13 +1828,29 @@
         <v>3821</v>
       </c>
       <c r="L33" s="9" t="n">
-        <f aca="false">SUM(F33+G33+H33+I33+J33+K33)</f>
-        <v>13126</v>
+        <f aca="false">L13+L14+L18</f>
+        <v>1514</v>
+      </c>
+      <c r="M33" s="9" t="n">
+        <f aca="false">M13+M14+M18</f>
+        <v>2126</v>
+      </c>
+      <c r="N33" s="9" t="n">
+        <f aca="false">N13+N14+N18</f>
+        <v>3555</v>
+      </c>
+      <c r="O33" s="9" t="n">
+        <f aca="false">O13+O14+O18</f>
+        <v>2332</v>
+      </c>
+      <c r="P33" s="9" t="n">
+        <f aca="false">SUM(F33+G33+H33+I33+J33+K33+L33+M33+N33+O33)</f>
+        <v>22653</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F34" s="9" t="n">
         <v>1112</v>
@@ -1545,7 +1862,7 @@
         <v>10795</v>
       </c>
       <c r="I34" s="9" t="n">
-        <v>8962</v>
+        <v>8957</v>
       </c>
       <c r="J34" s="9" t="n">
         <v>7376</v>
@@ -1554,13 +1871,25 @@
         <v>26055</v>
       </c>
       <c r="L34" s="9" t="n">
-        <f aca="false">SUM(F34+G34+H34+I34+J34+K34)</f>
-        <v>63701</v>
+        <v>33238</v>
+      </c>
+      <c r="M34" s="9" t="n">
+        <v>18929</v>
+      </c>
+      <c r="N34" s="9" t="n">
+        <v>21264</v>
+      </c>
+      <c r="O34" s="9" t="n">
+        <v>9189</v>
+      </c>
+      <c r="P34" s="9" t="n">
+        <f aca="false">SUM(F34+G34+H34+I34+J34+K34+L34+M34+N34+O34)</f>
+        <v>146316</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F35" s="9" t="n">
         <v>0</v>
@@ -1581,13 +1910,25 @@
         <v>12</v>
       </c>
       <c r="L35" s="9" t="n">
-        <f aca="false">SUM(F35+G35+H35+I35+J35+K35)</f>
-        <v>179</v>
+        <v>12</v>
+      </c>
+      <c r="M35" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="O35" s="9" t="n">
+        <v>97</v>
+      </c>
+      <c r="P35" s="9" t="n">
+        <f aca="false">SUM(F35+G35+H35+I35+J35+K35+L35+M35+N35+O35)</f>
+        <v>376</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F36" s="9" t="n">
         <v>0</v>
@@ -1608,17 +1949,29 @@
         <v>6440</v>
       </c>
       <c r="L36" s="9" t="n">
-        <f aca="false">SUM(F36+G36+H36+I36+J36+K36)</f>
-        <v>12193</v>
+        <v>4246</v>
+      </c>
+      <c r="M36" s="9" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="N36" s="9" t="n">
+        <v>2212</v>
+      </c>
+      <c r="O36" s="9" t="n">
+        <v>1994</v>
+      </c>
+      <c r="P36" s="9" t="n">
+        <f aca="false">SUM(F36+G36+H36+I36+J36+K36+L36+M36+N36+O36)</f>
+        <v>19645</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F37" s="9" t="n">
-        <f aca="false">157549+23035-F33</f>
-        <v>179861</v>
+        <f aca="false">157547+23035-F33</f>
+        <v>179859</v>
       </c>
       <c r="G37" s="9" t="n">
         <f aca="false">175407+25467-G33</f>
@@ -1629,8 +1982,8 @@
         <v>310423</v>
       </c>
       <c r="I37" s="9" t="n">
-        <f aca="false">216088+23406-I33</f>
-        <v>236321</v>
+        <f aca="false">216093+23406-I33</f>
+        <v>236326</v>
       </c>
       <c r="J37" s="9" t="n">
         <f aca="false">313342+18583-J33</f>
@@ -1641,9 +1994,26 @@
         <v>322016</v>
       </c>
       <c r="L37" s="9" t="n">
-        <f aca="false">SUM(F37+G37+H37+I37+J37+K37)</f>
-        <v>1578801</v>
-      </c>
+        <f aca="false">245000+36702-L33</f>
+        <v>280188</v>
+      </c>
+      <c r="M37" s="9" t="n">
+        <f aca="false">282218+25269-M33</f>
+        <v>305361</v>
+      </c>
+      <c r="N37" s="9" t="n">
+        <f aca="false">304726+25692-N33</f>
+        <v>326863</v>
+      </c>
+      <c r="O37" s="9" t="n">
+        <f aca="false">253581+21008-O33</f>
+        <v>272257</v>
+      </c>
+      <c r="P37" s="9" t="n">
+        <f aca="false">SUM(F37+G37+H37+I37+J37+K37+L37+M37+N37+O37)</f>
+        <v>2763473</v>
+      </c>
+      <c r="Q37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="9"/>
@@ -1653,41 +2023,61 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="13" t="n">
+      <c r="F39" s="12" t="n">
         <f aca="false">+F9-F30</f>
         <v>45749.25</v>
       </c>
-      <c r="G39" s="13" t="n">
+      <c r="G39" s="12" t="n">
         <f aca="false">+G9-G30</f>
         <v>-106373</v>
       </c>
-      <c r="H39" s="13" t="n">
+      <c r="H39" s="12" t="n">
         <f aca="false">+H9-H30</f>
         <v>-210261</v>
       </c>
-      <c r="I39" s="13" t="n">
+      <c r="I39" s="12" t="n">
         <f aca="false">+I9-I30</f>
         <v>66797.81</v>
       </c>
-      <c r="J39" s="13" t="n">
+      <c r="J39" s="12" t="n">
         <f aca="false">+J9-J30</f>
         <v>-122231</v>
       </c>
-      <c r="K39" s="13" t="n">
+      <c r="K39" s="12" t="n">
         <f aca="false">+K9-K30</f>
         <v>-225398</v>
       </c>
-      <c r="L39" s="13" t="n">
+      <c r="L39" s="12" t="n">
         <f aca="false">+L9-L30</f>
-        <v>-551715.94</v>
+        <v>-47814</v>
+      </c>
+      <c r="M39" s="12" t="n">
+        <f aca="false">+M9-M30</f>
+        <v>-133003</v>
+      </c>
+      <c r="N39" s="12" t="n">
+        <f aca="false">+N9-N30</f>
+        <v>-250941</v>
+      </c>
+      <c r="O39" s="12" t="n">
+        <f aca="false">+O9-O30</f>
+        <v>-34402</v>
+      </c>
+      <c r="P39" s="12" t="n">
+        <f aca="false">+P9-P30</f>
+        <v>-1017875.94</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,10 +2088,14 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1732,45 +2126,77 @@
       </c>
       <c r="L41" s="8" t="n">
         <f aca="false">+L42+L46</f>
-        <v>1326628</v>
+        <v>131129</v>
+      </c>
+      <c r="M41" s="8" t="n">
+        <f aca="false">+M42+M46</f>
+        <v>119120</v>
+      </c>
+      <c r="N41" s="8" t="n">
+        <f aca="false">+N42+N46</f>
+        <v>84578</v>
+      </c>
+      <c r="O41" s="8" t="n">
+        <f aca="false">+O42+O46</f>
+        <v>208153</v>
+      </c>
+      <c r="P41" s="8" t="n">
+        <f aca="false">+P42+P46</f>
+        <v>1869608</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="F42" s="13" t="n">
         <f aca="false">+F43-F44</f>
         <v>186705</v>
       </c>
-      <c r="G42" s="14" t="n">
+      <c r="G42" s="13" t="n">
         <f aca="false">+G43-G44</f>
         <v>-22160</v>
       </c>
-      <c r="H42" s="14" t="n">
+      <c r="H42" s="13" t="n">
         <f aca="false">+H43-H44</f>
         <v>83645</v>
       </c>
-      <c r="I42" s="14" t="n">
+      <c r="I42" s="13" t="n">
         <f aca="false">+I43-I44</f>
         <v>29228</v>
       </c>
-      <c r="J42" s="14" t="n">
+      <c r="J42" s="13" t="n">
         <f aca="false">+J43-J44</f>
         <v>9944</v>
       </c>
-      <c r="K42" s="14" t="n">
+      <c r="K42" s="13" t="n">
         <f aca="false">+K43-K44</f>
         <v>15031</v>
       </c>
-      <c r="L42" s="14" t="n">
+      <c r="L42" s="13" t="n">
         <f aca="false">+L43-L44</f>
-        <v>302393</v>
+        <v>20710</v>
+      </c>
+      <c r="M42" s="13" t="n">
+        <f aca="false">+M43-M44</f>
+        <v>1941</v>
+      </c>
+      <c r="N42" s="13" t="n">
+        <f aca="false">+N43-N44</f>
+        <v>-7489</v>
+      </c>
+      <c r="O42" s="13" t="n">
+        <f aca="false">+O43-O44</f>
+        <v>33735</v>
+      </c>
+      <c r="P42" s="13" t="n">
+        <f aca="false">+P43-P44</f>
+        <v>351290</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F43" s="9" t="n">
         <v>187563</v>
@@ -1791,13 +2217,25 @@
         <v>22567</v>
       </c>
       <c r="L43" s="9" t="n">
-        <f aca="false">SUM(F43+G43+H43+I43+J43+K43)</f>
-        <v>366441</v>
+        <v>21439</v>
+      </c>
+      <c r="M43" s="9" t="n">
+        <v>6682</v>
+      </c>
+      <c r="N43" s="9" t="n">
+        <v>11179</v>
+      </c>
+      <c r="O43" s="9" t="n">
+        <v>50570</v>
+      </c>
+      <c r="P43" s="9" t="n">
+        <f aca="false">SUM(F43+G43+H43+I43+J43+K43+L43+M43+N43+O43)</f>
+        <v>456311</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F44" s="9" t="n">
         <v>858</v>
@@ -1818,8 +2256,20 @@
         <v>7536</v>
       </c>
       <c r="L44" s="9" t="n">
-        <f aca="false">SUM(F44+G44+H44+I44+J44+K44)</f>
-        <v>64048</v>
+        <v>729</v>
+      </c>
+      <c r="M44" s="9" t="n">
+        <v>4741</v>
+      </c>
+      <c r="N44" s="9" t="n">
+        <v>18668</v>
+      </c>
+      <c r="O44" s="9" t="n">
+        <v>16835</v>
+      </c>
+      <c r="P44" s="9" t="n">
+        <f aca="false">SUM(F44+G44+H44+I44+J44+K44+L44+M44+N44+O44)</f>
+        <v>105021</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,10 +2280,14 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F46" s="8" t="n">
         <f aca="false">+F47-F48</f>
@@ -1861,18 +2315,34 @@
       </c>
       <c r="L46" s="8" t="n">
         <f aca="false">+L47-L48</f>
-        <v>1024235</v>
+        <v>110419</v>
+      </c>
+      <c r="M46" s="8" t="n">
+        <f aca="false">+M47-M48</f>
+        <v>117179</v>
+      </c>
+      <c r="N46" s="8" t="n">
+        <f aca="false">+N47-N48</f>
+        <v>92067</v>
+      </c>
+      <c r="O46" s="8" t="n">
+        <f aca="false">+O47-O48</f>
+        <v>174418</v>
+      </c>
+      <c r="P46" s="8" t="n">
+        <f aca="false">+P47-P48</f>
+        <v>1518318</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F47" s="9" t="n">
         <v>179300</v>
       </c>
       <c r="G47" s="9" t="n">
-        <v>359313</v>
+        <v>327641</v>
       </c>
       <c r="H47" s="9" t="n">
         <v>146045</v>
@@ -1887,52 +2357,80 @@
         <v>143920</v>
       </c>
       <c r="L47" s="9" t="n">
-        <f aca="false">SUM(F47+G47+H47+I47+J47+K47)</f>
-        <v>1056497</v>
+        <v>110498</v>
+      </c>
+      <c r="M47" s="9" t="n">
+        <v>117374</v>
+      </c>
+      <c r="N47" s="9" t="n">
+        <v>92067</v>
+      </c>
+      <c r="O47" s="9" t="n">
+        <v>174632</v>
+      </c>
+      <c r="P47" s="9" t="n">
+        <f aca="false">SUM(F47+G47+H47+I47+J47+K47+L47+M47+N47+O47)</f>
+        <v>1519396</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="15" t="n">
+        <v>45</v>
+      </c>
+      <c r="F48" s="14" t="n">
         <f aca="false">F49-F50</f>
         <v>0</v>
       </c>
-      <c r="G48" s="15" t="n">
+      <c r="G48" s="14" t="n">
         <f aca="false">G49-G50</f>
-        <v>31814</v>
-      </c>
-      <c r="H48" s="15" t="n">
+        <v>142</v>
+      </c>
+      <c r="H48" s="14" t="n">
         <f aca="false">H49-H50</f>
         <v>258</v>
       </c>
-      <c r="I48" s="15" t="n">
+      <c r="I48" s="14" t="n">
         <f aca="false">I49-I50</f>
         <v>125</v>
       </c>
-      <c r="J48" s="15" t="n">
+      <c r="J48" s="14" t="n">
         <f aca="false">J49-J50</f>
         <v>65</v>
       </c>
-      <c r="K48" s="15" t="n">
+      <c r="K48" s="14" t="n">
         <f aca="false">K49-K50</f>
         <v>0</v>
       </c>
-      <c r="L48" s="15" t="n">
+      <c r="L48" s="14" t="n">
         <f aca="false">L49-L50</f>
-        <v>32262</v>
+        <v>79</v>
+      </c>
+      <c r="M48" s="14" t="n">
+        <f aca="false">M49-M50</f>
+        <v>195</v>
+      </c>
+      <c r="N48" s="14" t="n">
+        <f aca="false">N49-N50</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="14" t="n">
+        <f aca="false">O49-O50</f>
+        <v>214</v>
+      </c>
+      <c r="P48" s="14" t="n">
+        <f aca="false">P49-P50</f>
+        <v>1078</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F49" s="9" t="n">
         <v>3</v>
       </c>
       <c r="G49" s="9" t="n">
-        <v>303461</v>
+        <v>271789</v>
       </c>
       <c r="H49" s="9" t="n">
         <v>73361</v>
@@ -1947,13 +2445,25 @@
         <v>27981</v>
       </c>
       <c r="L49" s="9" t="n">
-        <f aca="false">SUM(F49+G49+H49+I49+J49+K49)</f>
-        <v>561421</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="16" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="M49" s="9" t="n">
+        <v>141618</v>
+      </c>
+      <c r="N49" s="9" t="n">
+        <v>148883</v>
+      </c>
+      <c r="O49" s="9" t="n">
+        <v>1942</v>
+      </c>
+      <c r="P49" s="9" t="n">
+        <f aca="false">SUM(F49+G49+H49+I49+J49+K49+L49+M49+N49+O49)</f>
+        <v>822271</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F50" s="9" t="n">
         <v>3</v>
@@ -1974,8 +2484,20 @@
         <v>27981</v>
       </c>
       <c r="L50" s="9" t="n">
-        <f aca="false">SUM(F50+G50+H50+I50+J50+K50)</f>
-        <v>529159</v>
+        <v>0</v>
+      </c>
+      <c r="M50" s="9" t="n">
+        <v>141423</v>
+      </c>
+      <c r="N50" s="9" t="n">
+        <v>148883</v>
+      </c>
+      <c r="O50" s="9" t="n">
+        <v>1728</v>
+      </c>
+      <c r="P50" s="9" t="n">
+        <f aca="false">SUM(F50+G50+H50+I50+J50+K50+L50+M50+N50+O50)</f>
+        <v>821193</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1986,115 +2508,122 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
     </row>
     <row r="52" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="13" t="n">
+        <v>48</v>
+      </c>
+      <c r="F52" s="12" t="n">
         <v>583384</v>
       </c>
-      <c r="G52" s="13" t="n">
+      <c r="G52" s="12" t="n">
         <v>-171251</v>
       </c>
-      <c r="H52" s="13" t="n">
+      <c r="H52" s="12" t="n">
         <v>497279.48</v>
       </c>
-      <c r="I52" s="13" t="n">
+      <c r="I52" s="12" t="n">
         <v>44649.52</v>
       </c>
-      <c r="J52" s="13" t="n">
+      <c r="J52" s="12" t="n">
         <v>-61957</v>
       </c>
-      <c r="K52" s="13" t="n">
+      <c r="K52" s="12" t="n">
         <v>-115141</v>
       </c>
-      <c r="L52" s="13" t="n">
-        <f aca="false">SUM(F52+G52+H52+I52+J52+K52)</f>
-        <v>776964</v>
+      <c r="L52" s="12" t="n">
+        <v>-39866</v>
+      </c>
+      <c r="M52" s="12" t="n">
+        <v>-227460</v>
+      </c>
+      <c r="N52" s="12" t="n">
+        <v>-308441</v>
+      </c>
+      <c r="O52" s="12" t="n">
+        <v>82823</v>
+      </c>
+      <c r="P52" s="12" t="n">
+        <f aca="false">SUM(F52:O52)</f>
+        <v>284020</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" s="20" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="19"/>
-    </row>
-    <row r="55" s="20" customFormat="true" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" s="20" customFormat="true" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="23" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" s="19" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="18" t="s">
         <v>49</v>
+      </c>
+      <c r="B54" s="18"/>
+    </row>
+    <row r="55" s="19" customFormat="true" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+    </row>
+    <row r="56" s="19" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" s="20" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>50</v>
-      </c>
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
-      <c r="E57" s="27"/>
-    </row>
-    <row r="58" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-    </row>
-    <row r="59" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="30"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="33"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+    </row>
+    <row r="58" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="27" t="n">
+        <f aca="true">TODAY()</f>
+        <v>45261</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="A59:E59"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2113,30 +2642,30 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="1.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2145,7 +2674,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2163,48 +2692,48 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" s="6" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="M7" s="5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>57</v>
@@ -2213,1704 +2742,1704 @@
         <v>58</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="34" t="n">
+      <c r="F9" s="29" t="n">
         <f aca="false">+F10+F21+F28</f>
         <v>278075</v>
       </c>
-      <c r="G9" s="34" t="n">
+      <c r="G9" s="29" t="n">
         <f aca="false">+G10+G21+G28</f>
         <v>212402</v>
       </c>
-      <c r="H9" s="34" t="n">
+      <c r="H9" s="29" t="n">
         <f aca="false">+H10+H21+H28</f>
         <v>293883</v>
       </c>
-      <c r="I9" s="34" t="n">
+      <c r="I9" s="29" t="n">
         <f aca="false">+I10+I21+I28</f>
         <v>347949</v>
       </c>
-      <c r="J9" s="34" t="n">
+      <c r="J9" s="29" t="n">
         <f aca="false">+J10+J21+J28</f>
         <v>304915</v>
       </c>
-      <c r="K9" s="34" t="n">
+      <c r="K9" s="29" t="n">
         <f aca="false">+K10+K21+K28</f>
         <v>290268</v>
       </c>
-      <c r="L9" s="34" t="n">
+      <c r="L9" s="29" t="n">
         <f aca="false">+L10+L21+L28</f>
         <v>308632</v>
       </c>
-      <c r="M9" s="34" t="n">
+      <c r="M9" s="29" t="n">
         <f aca="false">+M10+M21+M28</f>
         <v>332440</v>
       </c>
-      <c r="N9" s="34" t="n">
+      <c r="N9" s="29" t="n">
         <f aca="false">+N10+N21+N28</f>
         <v>288814</v>
       </c>
-      <c r="O9" s="34" t="n">
+      <c r="O9" s="29" t="n">
         <f aca="false">+O10+O21+O28</f>
         <v>288873</v>
       </c>
-      <c r="P9" s="34" t="n">
+      <c r="P9" s="29" t="n">
         <f aca="false">+P10+P21+P28</f>
         <v>331061</v>
       </c>
-      <c r="Q9" s="34" t="n">
+      <c r="Q9" s="29" t="n">
         <f aca="false">+Q10+Q21+Q28</f>
         <v>268193</v>
       </c>
-      <c r="R9" s="34" t="n">
+      <c r="R9" s="29" t="n">
         <f aca="false">+R10+R21+R28</f>
         <v>3545505</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="34" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" s="29" t="n">
         <f aca="false">+F11+F16+F19</f>
         <v>255626</v>
       </c>
-      <c r="G10" s="34" t="n">
+      <c r="G10" s="29" t="n">
         <f aca="false">+G11+G16+G19</f>
         <v>198253</v>
       </c>
-      <c r="H10" s="34" t="n">
+      <c r="H10" s="29" t="n">
         <f aca="false">+H11+H16+H19</f>
         <v>243819</v>
       </c>
-      <c r="I10" s="34" t="n">
+      <c r="I10" s="29" t="n">
         <f aca="false">+I11+I16+I19</f>
         <v>307083</v>
       </c>
-      <c r="J10" s="34" t="n">
+      <c r="J10" s="29" t="n">
         <f aca="false">+J11+J16+J19</f>
         <v>284792</v>
       </c>
-      <c r="K10" s="34" t="n">
+      <c r="K10" s="29" t="n">
         <f aca="false">+K11+K16+K19</f>
         <v>251760</v>
       </c>
-      <c r="L10" s="34" t="n">
+      <c r="L10" s="29" t="n">
         <f aca="false">+L11+L16+L19</f>
         <v>282919</v>
       </c>
-      <c r="M10" s="34" t="n">
+      <c r="M10" s="29" t="n">
         <f aca="false">+M11+M16+M19</f>
         <v>309735</v>
       </c>
-      <c r="N10" s="34" t="n">
+      <c r="N10" s="29" t="n">
         <f aca="false">+N11+N16+N19</f>
         <v>254993</v>
       </c>
-      <c r="O10" s="34" t="n">
+      <c r="O10" s="29" t="n">
         <f aca="false">+O11+O16+O19</f>
         <v>263472</v>
       </c>
-      <c r="P10" s="34" t="n">
+      <c r="P10" s="29" t="n">
         <f aca="false">+P11+P16+P19</f>
         <v>313974</v>
       </c>
-      <c r="Q10" s="34" t="n">
+      <c r="Q10" s="29" t="n">
         <f aca="false">+Q11+Q16+Q19</f>
         <v>253889</v>
       </c>
-      <c r="R10" s="34" t="n">
+      <c r="R10" s="29" t="n">
         <f aca="false">+R11+R16+R19</f>
         <v>3220315</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="18" t="n">
+        <v>17</v>
+      </c>
+      <c r="F11" s="30" t="n">
         <v>195775</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G11" s="30" t="n">
         <v>136607</v>
       </c>
-      <c r="H11" s="18" t="n">
+      <c r="H11" s="30" t="n">
         <v>170384</v>
       </c>
-      <c r="I11" s="18" t="n">
+      <c r="I11" s="30" t="n">
         <v>239604</v>
       </c>
-      <c r="J11" s="18" t="n">
+      <c r="J11" s="30" t="n">
         <v>216618</v>
       </c>
-      <c r="K11" s="18" t="n">
+      <c r="K11" s="30" t="n">
         <v>173540</v>
       </c>
-      <c r="L11" s="18" t="n">
+      <c r="L11" s="30" t="n">
         <v>197390</v>
       </c>
-      <c r="M11" s="18" t="n">
+      <c r="M11" s="30" t="n">
         <v>228938</v>
       </c>
-      <c r="N11" s="18" t="n">
+      <c r="N11" s="30" t="n">
         <v>173629</v>
       </c>
-      <c r="O11" s="18" t="n">
+      <c r="O11" s="30" t="n">
         <v>186759</v>
       </c>
-      <c r="P11" s="18" t="n">
+      <c r="P11" s="30" t="n">
         <v>237143</v>
       </c>
-      <c r="Q11" s="18" t="n">
+      <c r="Q11" s="30" t="n">
         <v>179287</v>
       </c>
-      <c r="R11" s="18" t="n">
+      <c r="R11" s="30" t="n">
         <f aca="false">SUM(F11:Q11)</f>
         <v>2335674</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
+        <v>18</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="35" t="n">
+        <v>19</v>
+      </c>
+      <c r="F13" s="31" t="n">
         <v>3018</v>
       </c>
-      <c r="G13" s="35" t="n">
+      <c r="G13" s="31" t="n">
         <v>1583</v>
       </c>
-      <c r="H13" s="35" t="n">
+      <c r="H13" s="31" t="n">
         <v>1182</v>
       </c>
-      <c r="I13" s="35" t="n">
+      <c r="I13" s="31" t="n">
         <v>5190</v>
       </c>
-      <c r="J13" s="35" t="n">
+      <c r="J13" s="31" t="n">
         <v>1792</v>
       </c>
-      <c r="K13" s="35" t="n">
+      <c r="K13" s="31" t="n">
         <v>1101</v>
       </c>
-      <c r="L13" s="35" t="n">
+      <c r="L13" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="35" t="n">
+      <c r="M13" s="31" t="n">
         <v>2802</v>
       </c>
-      <c r="N13" s="35" t="n">
+      <c r="N13" s="31" t="n">
         <v>1659</v>
       </c>
-      <c r="O13" s="35" t="n">
+      <c r="O13" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="P13" s="35" t="n">
+      <c r="P13" s="31" t="n">
         <v>5774</v>
       </c>
-      <c r="Q13" s="35" t="n">
+      <c r="Q13" s="31" t="n">
         <v>921</v>
       </c>
-      <c r="R13" s="18" t="n">
+      <c r="R13" s="30" t="n">
         <f aca="false">SUM(F13:Q13)</f>
         <v>25047</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" s="30" t="n">
         <v>34</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="G14" s="30" t="n">
         <v>32</v>
       </c>
-      <c r="H14" s="18" t="n">
+      <c r="H14" s="30" t="n">
         <v>35</v>
       </c>
-      <c r="I14" s="18" t="n">
+      <c r="I14" s="30" t="n">
         <v>38</v>
       </c>
-      <c r="J14" s="18" t="n">
+      <c r="J14" s="30" t="n">
         <v>2622</v>
       </c>
-      <c r="K14" s="18" t="n">
+      <c r="K14" s="30" t="n">
         <v>678</v>
       </c>
-      <c r="L14" s="18" t="n">
+      <c r="L14" s="30" t="n">
         <v>213</v>
       </c>
-      <c r="M14" s="18" t="n">
+      <c r="M14" s="30" t="n">
         <v>132</v>
       </c>
-      <c r="N14" s="18" t="n">
+      <c r="N14" s="30" t="n">
         <v>2619</v>
       </c>
-      <c r="O14" s="18" t="n">
+      <c r="O14" s="30" t="n">
         <v>190</v>
       </c>
-      <c r="P14" s="18" t="n">
+      <c r="P14" s="30" t="n">
         <v>37</v>
       </c>
-      <c r="Q14" s="18" t="n">
+      <c r="Q14" s="30" t="n">
         <v>272</v>
       </c>
-      <c r="R14" s="18" t="n">
+      <c r="R14" s="30" t="n">
         <f aca="false">SUM(F14:Q14)</f>
         <v>6902</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="36" t="n">
+        <v>21</v>
+      </c>
+      <c r="F16" s="32" t="n">
         <v>58346</v>
       </c>
-      <c r="G16" s="36" t="n">
+      <c r="G16" s="32" t="n">
         <v>59433</v>
       </c>
-      <c r="H16" s="36" t="n">
+      <c r="H16" s="32" t="n">
         <v>70778</v>
       </c>
-      <c r="I16" s="36" t="n">
+      <c r="I16" s="32" t="n">
         <v>65669</v>
       </c>
-      <c r="J16" s="36" t="n">
+      <c r="J16" s="32" t="n">
         <v>66288</v>
       </c>
-      <c r="K16" s="36" t="n">
+      <c r="K16" s="32" t="n">
         <v>76201</v>
       </c>
-      <c r="L16" s="36" t="n">
+      <c r="L16" s="32" t="n">
         <v>83596</v>
       </c>
-      <c r="M16" s="36" t="n">
+      <c r="M16" s="32" t="n">
         <v>78884</v>
       </c>
-      <c r="N16" s="36" t="n">
+      <c r="N16" s="32" t="n">
         <v>79273</v>
       </c>
-      <c r="O16" s="36" t="n">
+      <c r="O16" s="32" t="n">
         <v>75055</v>
       </c>
-      <c r="P16" s="36" t="n">
+      <c r="P16" s="32" t="n">
         <v>75724</v>
       </c>
-      <c r="Q16" s="18" t="n">
+      <c r="Q16" s="30" t="n">
         <v>73173</v>
       </c>
-      <c r="R16" s="18" t="n">
+      <c r="R16" s="30" t="n">
         <f aca="false">SUM(F16:Q16)</f>
         <v>862420</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="35" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" s="31" t="n">
         <v>330</v>
       </c>
-      <c r="G18" s="35" t="n">
+      <c r="G18" s="31" t="n">
         <v>321</v>
       </c>
-      <c r="H18" s="35" t="n">
+      <c r="H18" s="31" t="n">
         <v>93</v>
       </c>
-      <c r="I18" s="35" t="n">
+      <c r="I18" s="31" t="n">
         <v>384</v>
       </c>
-      <c r="J18" s="35" t="n">
+      <c r="J18" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="K18" s="35" t="n">
+      <c r="K18" s="31" t="n">
         <v>301</v>
       </c>
-      <c r="L18" s="35" t="n">
+      <c r="L18" s="31" t="n">
         <v>1128</v>
       </c>
-      <c r="M18" s="35" t="n">
+      <c r="M18" s="31" t="n">
         <v>677</v>
       </c>
-      <c r="N18" s="35" t="n">
+      <c r="N18" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="O18" s="35" t="n">
+      <c r="O18" s="31" t="n">
         <v>1062</v>
       </c>
-      <c r="P18" s="35" t="n">
+      <c r="P18" s="31" t="n">
         <v>1274</v>
       </c>
-      <c r="Q18" s="35" t="n">
+      <c r="Q18" s="31" t="n">
         <v>2255</v>
       </c>
-      <c r="R18" s="18" t="n">
+      <c r="R18" s="30" t="n">
         <f aca="false">SUM(F18:Q18)</f>
         <v>7835</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="36" t="n">
+        <v>22</v>
+      </c>
+      <c r="F19" s="32" t="n">
         <v>1505</v>
       </c>
-      <c r="G19" s="36" t="n">
+      <c r="G19" s="32" t="n">
         <v>2213</v>
       </c>
-      <c r="H19" s="36" t="n">
+      <c r="H19" s="32" t="n">
         <v>2657</v>
       </c>
-      <c r="I19" s="36" t="n">
+      <c r="I19" s="32" t="n">
         <v>1810</v>
       </c>
-      <c r="J19" s="36" t="n">
+      <c r="J19" s="32" t="n">
         <v>1886</v>
       </c>
-      <c r="K19" s="36" t="n">
+      <c r="K19" s="32" t="n">
         <v>2019</v>
       </c>
-      <c r="L19" s="36" t="n">
+      <c r="L19" s="32" t="n">
         <v>1933</v>
       </c>
-      <c r="M19" s="36" t="n">
+      <c r="M19" s="32" t="n">
         <v>1913</v>
       </c>
-      <c r="N19" s="36" t="n">
+      <c r="N19" s="32" t="n">
         <v>2091</v>
       </c>
-      <c r="O19" s="36" t="n">
+      <c r="O19" s="32" t="n">
         <v>1658</v>
       </c>
-      <c r="P19" s="36" t="n">
+      <c r="P19" s="32" t="n">
         <v>1107</v>
       </c>
-      <c r="Q19" s="36" t="n">
+      <c r="Q19" s="32" t="n">
         <v>1429</v>
       </c>
-      <c r="R19" s="18" t="n">
+      <c r="R19" s="30" t="n">
         <f aca="false">SUM(F19:Q19)</f>
         <v>22221</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="34" t="n">
+        <v>23</v>
+      </c>
+      <c r="F21" s="29" t="n">
         <f aca="false">SUM(F22:F26)</f>
         <v>22447</v>
       </c>
-      <c r="G21" s="34" t="n">
+      <c r="G21" s="29" t="n">
         <f aca="false">SUM(G22:G26)</f>
         <v>14090</v>
       </c>
-      <c r="H21" s="34" t="n">
+      <c r="H21" s="29" t="n">
         <f aca="false">SUM(H22:H26)</f>
         <v>50059</v>
       </c>
-      <c r="I21" s="34" t="n">
+      <c r="I21" s="29" t="n">
         <f aca="false">SUM(I22:I26)</f>
         <v>40751</v>
       </c>
-      <c r="J21" s="34" t="n">
+      <c r="J21" s="29" t="n">
         <f aca="false">SUM(J22:J26)</f>
         <v>19780</v>
       </c>
-      <c r="K21" s="34" t="n">
+      <c r="K21" s="29" t="n">
         <f aca="false">SUM(K22:K26)</f>
         <v>38427</v>
       </c>
-      <c r="L21" s="34" t="n">
+      <c r="L21" s="29" t="n">
         <f aca="false">SUM(L22:L26)</f>
         <v>25397</v>
       </c>
-      <c r="M21" s="34" t="n">
+      <c r="M21" s="29" t="n">
         <f aca="false">SUM(M22:M26)</f>
         <v>22691</v>
       </c>
-      <c r="N21" s="34" t="n">
+      <c r="N21" s="29" t="n">
         <f aca="false">SUM(N22:N26)</f>
         <v>33820</v>
       </c>
-      <c r="O21" s="34" t="n">
+      <c r="O21" s="29" t="n">
         <f aca="false">SUM(O22:O26)</f>
         <v>25396</v>
       </c>
-      <c r="P21" s="34" t="n">
+      <c r="P21" s="29" t="n">
         <f aca="false">SUM(P22:P26)</f>
         <v>16975</v>
       </c>
-      <c r="Q21" s="34" t="n">
+      <c r="Q21" s="29" t="n">
         <f aca="false">SUM(Q22:Q26)</f>
         <v>14249</v>
       </c>
-      <c r="R21" s="34" t="n">
+      <c r="R21" s="29" t="n">
         <f aca="false">SUM(R22:R26)</f>
         <v>324082</v>
       </c>
-      <c r="S21" s="34"/>
+      <c r="S21" s="29"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="F22" s="30" t="n">
         <v>11117</v>
       </c>
-      <c r="G22" s="18" t="n">
+      <c r="G22" s="30" t="n">
         <v>4224</v>
       </c>
-      <c r="H22" s="18" t="n">
+      <c r="H22" s="30" t="n">
         <v>33403</v>
       </c>
-      <c r="I22" s="18" t="n">
+      <c r="I22" s="30" t="n">
         <v>25695</v>
       </c>
-      <c r="J22" s="18" t="n">
+      <c r="J22" s="30" t="n">
         <v>8917</v>
       </c>
-      <c r="K22" s="18" t="n">
+      <c r="K22" s="30" t="n">
         <v>20755</v>
       </c>
-      <c r="L22" s="18" t="n">
+      <c r="L22" s="30" t="n">
         <v>13389</v>
       </c>
-      <c r="M22" s="18" t="n">
+      <c r="M22" s="30" t="n">
         <v>4907</v>
       </c>
-      <c r="N22" s="18" t="n">
+      <c r="N22" s="30" t="n">
         <v>7304</v>
       </c>
-      <c r="O22" s="18" t="n">
+      <c r="O22" s="30" t="n">
         <v>13218</v>
       </c>
-      <c r="P22" s="18" t="n">
+      <c r="P22" s="30" t="n">
         <v>5279</v>
       </c>
-      <c r="Q22" s="18" t="n">
+      <c r="Q22" s="30" t="n">
         <v>6556</v>
       </c>
-      <c r="R22" s="18" t="n">
+      <c r="R22" s="30" t="n">
         <f aca="false">SUM(F22:Q22)</f>
         <v>154764</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="18" t="n">
+        <v>25</v>
+      </c>
+      <c r="F23" s="30" t="n">
         <v>6785</v>
       </c>
-      <c r="G23" s="18" t="n">
+      <c r="G23" s="30" t="n">
         <v>4928</v>
       </c>
-      <c r="H23" s="18" t="n">
+      <c r="H23" s="30" t="n">
         <v>8267</v>
       </c>
-      <c r="I23" s="18" t="n">
+      <c r="I23" s="30" t="n">
         <v>5072</v>
       </c>
-      <c r="J23" s="18" t="n">
+      <c r="J23" s="30" t="n">
         <v>5990</v>
       </c>
-      <c r="K23" s="18" t="n">
+      <c r="K23" s="30" t="n">
         <v>13230</v>
       </c>
-      <c r="L23" s="18" t="n">
+      <c r="L23" s="30" t="n">
         <v>7486</v>
       </c>
-      <c r="M23" s="18" t="n">
+      <c r="M23" s="30" t="n">
         <v>11153</v>
       </c>
-      <c r="N23" s="18" t="n">
+      <c r="N23" s="30" t="n">
         <v>11045</v>
       </c>
-      <c r="O23" s="18" t="n">
+      <c r="O23" s="30" t="n">
         <v>7069</v>
       </c>
-      <c r="P23" s="18" t="n">
+      <c r="P23" s="30" t="n">
         <v>8729</v>
       </c>
-      <c r="Q23" s="18" t="n">
+      <c r="Q23" s="30" t="n">
         <v>11243</v>
       </c>
-      <c r="R23" s="18" t="n">
+      <c r="R23" s="30" t="n">
         <f aca="false">SUM(F23:Q23)</f>
         <v>100997</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="18" t="n">
+        <v>26</v>
+      </c>
+      <c r="F24" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="G24" s="18" t="n">
+      <c r="G24" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="H24" s="18" t="n">
+      <c r="H24" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="I24" s="18" t="n">
+      <c r="I24" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="J24" s="18" t="n">
+      <c r="J24" s="30" t="n">
         <v>45</v>
       </c>
-      <c r="K24" s="18" t="n">
+      <c r="K24" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="L24" s="18" t="n">
+      <c r="L24" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="M24" s="18" t="n">
+      <c r="M24" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="N24" s="18" t="n">
+      <c r="N24" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="O24" s="18" t="n">
+      <c r="O24" s="30" t="n">
         <v>33</v>
       </c>
-      <c r="P24" s="18" t="n">
+      <c r="P24" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="Q24" s="18" t="n">
+      <c r="Q24" s="30" t="n">
         <v>1513</v>
       </c>
-      <c r="R24" s="18" t="n">
+      <c r="R24" s="30" t="n">
         <f aca="false">SUM(F24:Q24)</f>
         <v>1646</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="36" t="n">
+        <v>27</v>
+      </c>
+      <c r="F25" s="32" t="n">
         <v>1199</v>
       </c>
-      <c r="G25" s="36" t="n">
+      <c r="G25" s="32" t="n">
         <v>2370</v>
       </c>
-      <c r="H25" s="36" t="n">
+      <c r="H25" s="32" t="n">
         <v>2191</v>
       </c>
-      <c r="I25" s="36" t="n">
+      <c r="I25" s="32" t="n">
         <v>1551</v>
       </c>
-      <c r="J25" s="18" t="n">
+      <c r="J25" s="30" t="n">
         <v>2255</v>
       </c>
-      <c r="K25" s="18" t="n">
+      <c r="K25" s="30" t="n">
         <v>2410</v>
       </c>
-      <c r="L25" s="18" t="n">
+      <c r="L25" s="30" t="n">
         <v>2616</v>
       </c>
-      <c r="M25" s="18" t="n">
+      <c r="M25" s="30" t="n">
         <v>2347</v>
       </c>
-      <c r="N25" s="18" t="n">
+      <c r="N25" s="30" t="n">
         <v>2664</v>
       </c>
-      <c r="O25" s="18" t="n">
+      <c r="O25" s="30" t="n">
         <v>1838</v>
       </c>
-      <c r="P25" s="18" t="n">
+      <c r="P25" s="30" t="n">
         <v>2716</v>
       </c>
-      <c r="Q25" s="18" t="n">
+      <c r="Q25" s="30" t="n">
         <v>1745</v>
       </c>
-      <c r="R25" s="18" t="n">
+      <c r="R25" s="30" t="n">
         <f aca="false">SUM(F25:Q25)</f>
         <v>25902</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="F26" s="30" t="n">
         <v>3346</v>
       </c>
-      <c r="G26" s="18" t="n">
+      <c r="G26" s="30" t="n">
         <v>2564</v>
       </c>
-      <c r="H26" s="18" t="n">
+      <c r="H26" s="30" t="n">
         <v>6194</v>
       </c>
-      <c r="I26" s="18" t="n">
+      <c r="I26" s="30" t="n">
         <v>8421</v>
       </c>
-      <c r="J26" s="18" t="n">
+      <c r="J26" s="30" t="n">
         <v>2573</v>
       </c>
-      <c r="K26" s="18" t="n">
+      <c r="K26" s="30" t="n">
         <v>2024</v>
       </c>
-      <c r="L26" s="18" t="n">
+      <c r="L26" s="30" t="n">
         <v>1898</v>
       </c>
-      <c r="M26" s="18" t="n">
+      <c r="M26" s="30" t="n">
         <v>4284</v>
       </c>
-      <c r="N26" s="18" t="n">
+      <c r="N26" s="30" t="n">
         <v>12799</v>
       </c>
-      <c r="O26" s="18" t="n">
+      <c r="O26" s="30" t="n">
         <v>3238</v>
       </c>
-      <c r="P26" s="18" t="n">
+      <c r="P26" s="30" t="n">
         <v>240</v>
       </c>
-      <c r="Q26" s="18" t="n">
+      <c r="Q26" s="30" t="n">
         <v>-6808</v>
       </c>
-      <c r="R26" s="18" t="n">
+      <c r="R26" s="30" t="n">
         <f aca="false">SUM(F26:Q26)</f>
         <v>40773</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="18" t="n">
+        <v>29</v>
+      </c>
+      <c r="F28" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="G28" s="18" t="n">
+      <c r="G28" s="30" t="n">
         <v>59</v>
       </c>
-      <c r="H28" s="18" t="n">
+      <c r="H28" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="I28" s="18" t="n">
+      <c r="I28" s="30" t="n">
         <v>115</v>
       </c>
-      <c r="J28" s="18" t="n">
+      <c r="J28" s="30" t="n">
         <v>343</v>
       </c>
-      <c r="K28" s="18" t="n">
+      <c r="K28" s="30" t="n">
         <v>81</v>
       </c>
-      <c r="L28" s="18" t="n">
+      <c r="L28" s="30" t="n">
         <v>316</v>
       </c>
-      <c r="M28" s="18" t="n">
+      <c r="M28" s="30" t="n">
         <v>14</v>
       </c>
-      <c r="N28" s="18" t="n">
+      <c r="N28" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="O28" s="18" t="n">
+      <c r="O28" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="P28" s="18" t="n">
+      <c r="P28" s="30" t="n">
         <v>112</v>
       </c>
-      <c r="Q28" s="18" t="n">
+      <c r="Q28" s="30" t="n">
         <v>55</v>
       </c>
-      <c r="R28" s="18" t="n">
+      <c r="R28" s="30" t="n">
         <f aca="false">SUM(F28:Q28)</f>
         <v>1108</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="34" t="n">
+      <c r="F30" s="29" t="n">
         <f aca="false">SUM(F32:F38)</f>
         <v>301457</v>
       </c>
-      <c r="G30" s="34" t="n">
+      <c r="G30" s="29" t="n">
         <f aca="false">SUM(G32:G38)</f>
         <v>318202</v>
       </c>
-      <c r="H30" s="34" t="n">
+      <c r="H30" s="29" t="n">
         <f aca="false">SUM(H32:H38)</f>
         <v>481549</v>
       </c>
-      <c r="I30" s="34" t="n">
+      <c r="I30" s="29" t="n">
         <f aca="false">SUM(I32:I38)</f>
         <v>343013</v>
       </c>
-      <c r="J30" s="34" t="n">
+      <c r="J30" s="29" t="n">
         <f aca="false">SUM(J32:J38)</f>
         <v>451700</v>
       </c>
-      <c r="K30" s="34" t="n">
+      <c r="K30" s="29" t="n">
         <f aca="false">SUM(K32:K38)</f>
         <v>505791</v>
       </c>
-      <c r="L30" s="34" t="n">
+      <c r="L30" s="29" t="n">
         <f aca="false">SUM(L32:L38)</f>
         <v>395395</v>
       </c>
-      <c r="M30" s="34" t="n">
+      <c r="M30" s="29" t="n">
         <f aca="false">SUM(M32:M38)</f>
         <v>404476</v>
       </c>
-      <c r="N30" s="34" t="n">
+      <c r="N30" s="29" t="n">
         <f aca="false">SUM(N32:N38)</f>
         <v>468574</v>
       </c>
-      <c r="O30" s="34" t="n">
+      <c r="O30" s="29" t="n">
         <f aca="false">SUM(O32:O38)</f>
         <v>387934</v>
       </c>
-      <c r="P30" s="34" t="n">
+      <c r="P30" s="29" t="n">
         <f aca="false">SUM(P32:P38)</f>
         <v>454990</v>
       </c>
-      <c r="Q30" s="34" t="n">
+      <c r="Q30" s="29" t="n">
         <f aca="false">SUM(Q32:Q38)</f>
         <v>646559</v>
       </c>
-      <c r="R30" s="34" t="n">
+      <c r="R30" s="29" t="n">
         <f aca="false">SUM(R32:R38)</f>
         <v>5159640</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="18" t="n">
+        <v>31</v>
+      </c>
+      <c r="F32" s="30" t="n">
         <v>79922</v>
       </c>
-      <c r="G32" s="18" t="n">
+      <c r="G32" s="30" t="n">
         <v>93367</v>
       </c>
-      <c r="H32" s="18" t="n">
+      <c r="H32" s="30" t="n">
         <v>94067</v>
       </c>
-      <c r="I32" s="18" t="n">
+      <c r="I32" s="30" t="n">
         <v>85507</v>
       </c>
-      <c r="J32" s="18" t="n">
+      <c r="J32" s="30" t="n">
         <v>88982</v>
       </c>
-      <c r="K32" s="18" t="n">
+      <c r="K32" s="30" t="n">
         <v>89478</v>
       </c>
-      <c r="L32" s="18" t="n">
+      <c r="L32" s="30" t="n">
         <v>86406</v>
       </c>
-      <c r="M32" s="18" t="n">
+      <c r="M32" s="30" t="n">
         <v>109491</v>
       </c>
-      <c r="N32" s="18" t="n">
+      <c r="N32" s="30" t="n">
         <v>95830</v>
       </c>
-      <c r="O32" s="18" t="n">
+      <c r="O32" s="30" t="n">
         <v>86490</v>
       </c>
-      <c r="P32" s="18" t="n">
+      <c r="P32" s="30" t="n">
         <v>86233</v>
       </c>
-      <c r="Q32" s="18" t="n">
+      <c r="Q32" s="30" t="n">
         <v>107511</v>
       </c>
-      <c r="R32" s="18" t="n">
+      <c r="R32" s="30" t="n">
         <f aca="false">SUM(F32:Q32)</f>
         <v>1103284</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="18" t="n">
+        <v>32</v>
+      </c>
+      <c r="F33" s="30" t="n">
         <v>65551</v>
       </c>
-      <c r="G33" s="18" t="n">
+      <c r="G33" s="30" t="n">
         <v>28230</v>
       </c>
-      <c r="H33" s="18" t="n">
+      <c r="H33" s="30" t="n">
         <v>55548</v>
       </c>
-      <c r="I33" s="18" t="n">
+      <c r="I33" s="30" t="n">
         <v>37303</v>
       </c>
-      <c r="J33" s="18" t="n">
+      <c r="J33" s="30" t="n">
         <v>33831</v>
       </c>
-      <c r="K33" s="18" t="n">
+      <c r="K33" s="30" t="n">
         <v>36752</v>
       </c>
-      <c r="L33" s="18" t="n">
+      <c r="L33" s="30" t="n">
         <v>52091</v>
       </c>
-      <c r="M33" s="18" t="n">
+      <c r="M33" s="30" t="n">
         <v>30773</v>
       </c>
-      <c r="N33" s="18" t="n">
+      <c r="N33" s="30" t="n">
         <v>59897</v>
       </c>
-      <c r="O33" s="18" t="n">
+      <c r="O33" s="30" t="n">
         <v>33185</v>
       </c>
-      <c r="P33" s="18" t="n">
+      <c r="P33" s="30" t="n">
         <v>26092</v>
       </c>
-      <c r="Q33" s="18" t="n">
+      <c r="Q33" s="30" t="n">
         <v>43605</v>
       </c>
-      <c r="R33" s="18" t="n">
+      <c r="R33" s="30" t="n">
         <f aca="false">SUM(F33:Q33)</f>
         <v>502858</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="18" t="n">
+        <v>33</v>
+      </c>
+      <c r="F34" s="30" t="n">
         <f aca="false">F13+F14+F18</f>
         <v>3382</v>
       </c>
-      <c r="G34" s="18" t="n">
+      <c r="G34" s="30" t="n">
         <f aca="false">G13+G14+G18</f>
         <v>1936</v>
       </c>
-      <c r="H34" s="18" t="n">
+      <c r="H34" s="30" t="n">
         <f aca="false">H13+H14+H18</f>
         <v>1310</v>
       </c>
-      <c r="I34" s="18" t="n">
+      <c r="I34" s="30" t="n">
         <f aca="false">I13+I14+I18</f>
         <v>5612</v>
       </c>
-      <c r="J34" s="18" t="n">
+      <c r="J34" s="30" t="n">
         <f aca="false">J13+J14+J18</f>
         <v>4421</v>
       </c>
-      <c r="K34" s="18" t="n">
+      <c r="K34" s="30" t="n">
         <f aca="false">K13+K14+K18</f>
         <v>2080</v>
       </c>
-      <c r="L34" s="18" t="n">
+      <c r="L34" s="30" t="n">
         <f aca="false">L13+L14+L18</f>
         <v>1341</v>
       </c>
-      <c r="M34" s="18" t="n">
+      <c r="M34" s="30" t="n">
         <f aca="false">M13+M14+M18</f>
         <v>3611</v>
       </c>
-      <c r="N34" s="18" t="n">
+      <c r="N34" s="30" t="n">
         <f aca="false">N13+N14+N18</f>
         <v>4281</v>
       </c>
-      <c r="O34" s="18" t="n">
+      <c r="O34" s="30" t="n">
         <f aca="false">O13+O14+O18</f>
         <v>1277</v>
       </c>
-      <c r="P34" s="18" t="n">
+      <c r="P34" s="30" t="n">
         <f aca="false">P13+P14+P18</f>
         <v>7085</v>
       </c>
-      <c r="Q34" s="18" t="n">
+      <c r="Q34" s="30" t="n">
         <f aca="false">Q13+Q14+Q18</f>
         <v>3448</v>
       </c>
-      <c r="R34" s="18" t="n">
+      <c r="R34" s="30" t="n">
         <f aca="false">SUM(F34:Q34)</f>
         <v>39784</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="18" t="n">
+        <v>34</v>
+      </c>
+      <c r="F35" s="30" t="n">
         <v>2869</v>
       </c>
-      <c r="G35" s="18" t="n">
+      <c r="G35" s="30" t="n">
         <v>12688</v>
       </c>
-      <c r="H35" s="18" t="n">
+      <c r="H35" s="30" t="n">
         <v>10717</v>
       </c>
-      <c r="I35" s="18" t="n">
+      <c r="I35" s="30" t="n">
         <v>5117</v>
       </c>
-      <c r="J35" s="18" t="n">
+      <c r="J35" s="30" t="n">
         <v>7968</v>
       </c>
-      <c r="K35" s="18" t="n">
+      <c r="K35" s="30" t="n">
         <v>13386</v>
       </c>
-      <c r="L35" s="18" t="n">
+      <c r="L35" s="30" t="n">
         <v>30321</v>
       </c>
-      <c r="M35" s="18" t="n">
+      <c r="M35" s="30" t="n">
         <v>15536</v>
       </c>
-      <c r="N35" s="18" t="n">
+      <c r="N35" s="30" t="n">
         <v>23652</v>
       </c>
-      <c r="O35" s="18" t="n">
+      <c r="O35" s="30" t="n">
         <v>39917</v>
       </c>
-      <c r="P35" s="18" t="n">
+      <c r="P35" s="30" t="n">
         <v>6169</v>
       </c>
-      <c r="Q35" s="18" t="n">
+      <c r="Q35" s="30" t="n">
         <v>32070</v>
       </c>
-      <c r="R35" s="18" t="n">
+      <c r="R35" s="30" t="n">
         <f aca="false">SUM(F35:Q35)</f>
         <v>200410</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="18" t="n">
+        <v>35</v>
+      </c>
+      <c r="F36" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="30" t="n">
         <v>47</v>
       </c>
-      <c r="H36" s="18" t="n">
+      <c r="H36" s="30" t="n">
         <v>449</v>
       </c>
-      <c r="I36" s="18" t="n">
+      <c r="I36" s="30" t="n">
         <v>47</v>
       </c>
-      <c r="J36" s="18" t="n">
+      <c r="J36" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="K36" s="18" t="n">
+      <c r="K36" s="30" t="n">
         <v>143</v>
       </c>
-      <c r="L36" s="18" t="n">
+      <c r="L36" s="30" t="n">
         <v>40</v>
       </c>
-      <c r="M36" s="18" t="n">
+      <c r="M36" s="30" t="n">
         <v>106</v>
       </c>
-      <c r="N36" s="18" t="n">
+      <c r="N36" s="30" t="n">
         <v>81</v>
       </c>
-      <c r="O36" s="18" t="n">
+      <c r="O36" s="30" t="n">
         <v>28</v>
       </c>
-      <c r="P36" s="18" t="n">
+      <c r="P36" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="Q36" s="18" t="n">
+      <c r="Q36" s="30" t="n">
         <v>10199</v>
       </c>
-      <c r="R36" s="18" t="n">
+      <c r="R36" s="30" t="n">
         <f aca="false">SUM(F36:Q36)</f>
         <v>11158</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="18" t="n">
+        <v>36</v>
+      </c>
+      <c r="F37" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="G37" s="18" t="n">
+      <c r="G37" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="H37" s="18" t="n">
+      <c r="H37" s="30" t="n">
         <v>724</v>
       </c>
-      <c r="I37" s="18" t="n">
+      <c r="I37" s="30" t="n">
         <v>1437</v>
       </c>
-      <c r="J37" s="18" t="n">
+      <c r="J37" s="30" t="n">
         <v>5292</v>
       </c>
-      <c r="K37" s="18" t="n">
+      <c r="K37" s="30" t="n">
         <v>4100</v>
       </c>
-      <c r="L37" s="18" t="n">
+      <c r="L37" s="30" t="n">
         <v>7850</v>
       </c>
-      <c r="M37" s="18" t="n">
+      <c r="M37" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="N37" s="18" t="n">
+      <c r="N37" s="30" t="n">
         <v>613</v>
       </c>
-      <c r="O37" s="18" t="n">
+      <c r="O37" s="30" t="n">
         <v>6461</v>
       </c>
-      <c r="P37" s="18" t="n">
+      <c r="P37" s="30" t="n">
         <v>553</v>
       </c>
-      <c r="Q37" s="18" t="n">
+      <c r="Q37" s="30" t="n">
         <v>148</v>
       </c>
-      <c r="R37" s="18" t="n">
+      <c r="R37" s="30" t="n">
         <f aca="false">SUM(F37:Q37)</f>
         <v>27205</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="18" t="n">
+        <v>37</v>
+      </c>
+      <c r="F38" s="30" t="n">
         <f aca="false">134494+18620-F34</f>
         <v>149732</v>
       </c>
-      <c r="G38" s="18" t="n">
+      <c r="G38" s="30" t="n">
         <f aca="false">165644+18213-G34</f>
         <v>181921</v>
       </c>
-      <c r="H38" s="18" t="n">
+      <c r="H38" s="30" t="n">
         <f aca="false">294173+25871-H34</f>
         <v>318734</v>
       </c>
-      <c r="I38" s="18" t="n">
+      <c r="I38" s="30" t="n">
         <f aca="false">193612+19990-I34</f>
         <v>207990</v>
       </c>
-      <c r="J38" s="18" t="n">
+      <c r="J38" s="30" t="n">
         <f aca="false">286379+29239-J34</f>
         <v>311197</v>
       </c>
-      <c r="K38" s="18" t="n">
+      <c r="K38" s="30" t="n">
         <f aca="false">341183+20749-K34</f>
         <v>359852</v>
       </c>
-      <c r="L38" s="18" t="n">
+      <c r="L38" s="30" t="n">
         <f aca="false">197577+21110-L34</f>
         <v>217346</v>
       </c>
-      <c r="M38" s="18" t="n">
+      <c r="M38" s="30" t="n">
         <f aca="false">234149+14408-M34</f>
         <v>244946</v>
       </c>
-      <c r="N38" s="18" t="n">
+      <c r="N38" s="30" t="n">
         <f aca="false">266820+21681-N34</f>
         <v>284220</v>
       </c>
-      <c r="O38" s="18" t="n">
+      <c r="O38" s="30" t="n">
         <f aca="false">198773+23080-O34</f>
         <v>220576</v>
       </c>
-      <c r="P38" s="18" t="n">
+      <c r="P38" s="30" t="n">
         <f aca="false">306051+29883-P34</f>
         <v>328849</v>
       </c>
-      <c r="Q38" s="18" t="n">
+      <c r="Q38" s="30" t="n">
         <f aca="false">409770+43256-Q34</f>
         <v>449578</v>
       </c>
-      <c r="R38" s="18" t="n">
+      <c r="R38" s="30" t="n">
         <f aca="false">SUM(F38:Q38)</f>
         <v>3274941</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="37" t="n">
+      <c r="F40" s="33" t="n">
         <f aca="false">+F9-F30</f>
         <v>-23382</v>
       </c>
-      <c r="G40" s="37" t="n">
+      <c r="G40" s="33" t="n">
         <f aca="false">+G9-G30</f>
         <v>-105800</v>
       </c>
-      <c r="H40" s="37" t="n">
+      <c r="H40" s="33" t="n">
         <f aca="false">+H9-H30</f>
         <v>-187666</v>
       </c>
-      <c r="I40" s="37" t="n">
+      <c r="I40" s="33" t="n">
         <f aca="false">+I9-I30</f>
         <v>4936</v>
       </c>
-      <c r="J40" s="37" t="n">
+      <c r="J40" s="33" t="n">
         <f aca="false">+J9-J30</f>
         <v>-146785</v>
       </c>
-      <c r="K40" s="37" t="n">
+      <c r="K40" s="33" t="n">
         <f aca="false">+K9-K30</f>
         <v>-215523</v>
       </c>
-      <c r="L40" s="37" t="n">
+      <c r="L40" s="33" t="n">
         <f aca="false">+L9-L30</f>
         <v>-86763</v>
       </c>
-      <c r="M40" s="37" t="n">
+      <c r="M40" s="33" t="n">
         <f aca="false">+M9-M30</f>
         <v>-72036</v>
       </c>
-      <c r="N40" s="37" t="n">
+      <c r="N40" s="33" t="n">
         <f aca="false">+N9-N30</f>
         <v>-179760</v>
       </c>
-      <c r="O40" s="37" t="n">
+      <c r="O40" s="33" t="n">
         <f aca="false">+O9-O30</f>
         <v>-99061</v>
       </c>
-      <c r="P40" s="37" t="n">
+      <c r="P40" s="33" t="n">
         <f aca="false">+P9-P30</f>
         <v>-123929</v>
       </c>
-      <c r="Q40" s="37" t="n">
+      <c r="Q40" s="33" t="n">
         <f aca="false">+Q9-Q30</f>
         <v>-378366</v>
       </c>
-      <c r="R40" s="37" t="n">
+      <c r="R40" s="33" t="n">
         <f aca="false">+R9-R30</f>
         <v>-1614135</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="34" t="n">
+      <c r="F42" s="29" t="n">
         <f aca="false">+F43+F47</f>
         <v>437212</v>
       </c>
-      <c r="G42" s="34" t="n">
+      <c r="G42" s="29" t="n">
         <f aca="false">+G43+G47</f>
         <v>50928</v>
       </c>
-      <c r="H42" s="34" t="n">
+      <c r="H42" s="29" t="n">
         <f aca="false">+H43+H47</f>
         <v>581967</v>
       </c>
-      <c r="I42" s="34" t="n">
+      <c r="I42" s="29" t="n">
         <f aca="false">+I43+I47</f>
         <v>95588</v>
       </c>
-      <c r="J42" s="34" t="n">
+      <c r="J42" s="29" t="n">
         <f aca="false">+J43+J47</f>
         <v>-282583</v>
       </c>
-      <c r="K42" s="34" t="n">
+      <c r="K42" s="29" t="n">
         <f aca="false">+K43+K47</f>
         <v>138636</v>
       </c>
-      <c r="L42" s="34" t="n">
+      <c r="L42" s="29" t="n">
         <f aca="false">+L43+L47</f>
         <v>174212</v>
       </c>
-      <c r="M42" s="34" t="n">
+      <c r="M42" s="29" t="n">
         <f aca="false">+M43+M47</f>
         <v>118368</v>
       </c>
-      <c r="N42" s="34" t="n">
+      <c r="N42" s="29" t="n">
         <f aca="false">+N43+N47</f>
         <v>361354</v>
       </c>
-      <c r="O42" s="34" t="n">
+      <c r="O42" s="29" t="n">
         <f aca="false">+O43+O47</f>
         <v>176557</v>
       </c>
-      <c r="P42" s="34" t="n">
+      <c r="P42" s="29" t="n">
         <f aca="false">+P43+P47</f>
         <v>62564</v>
       </c>
-      <c r="Q42" s="34" t="n">
+      <c r="Q42" s="29" t="n">
         <f aca="false">+Q43+Q47</f>
         <v>51601</v>
       </c>
-      <c r="R42" s="34" t="n">
+      <c r="R42" s="29" t="n">
         <f aca="false">+R43+R47</f>
         <v>1966404</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="38" t="n">
+        <v>40</v>
+      </c>
+      <c r="F43" s="34" t="n">
         <f aca="false">+F44-F45</f>
         <v>91661</v>
       </c>
-      <c r="G43" s="38" t="n">
+      <c r="G43" s="34" t="n">
         <f aca="false">+G44-G45</f>
         <v>6262</v>
       </c>
-      <c r="H43" s="38" t="n">
+      <c r="H43" s="34" t="n">
         <f aca="false">+H44-H45</f>
         <v>123793</v>
       </c>
-      <c r="I43" s="38" t="n">
+      <c r="I43" s="34" t="n">
         <f aca="false">+I44-I45</f>
         <v>29211</v>
       </c>
-      <c r="J43" s="38" t="n">
+      <c r="J43" s="34" t="n">
         <f aca="false">+J44-J45</f>
         <v>-11904</v>
       </c>
-      <c r="K43" s="38" t="n">
+      <c r="K43" s="34" t="n">
         <f aca="false">+K44-K45</f>
         <v>42550</v>
       </c>
-      <c r="L43" s="38" t="n">
+      <c r="L43" s="34" t="n">
         <f aca="false">+L44-L45</f>
         <v>6494</v>
       </c>
-      <c r="M43" s="38" t="n">
+      <c r="M43" s="34" t="n">
         <f aca="false">+M44-M45</f>
         <v>-13432</v>
       </c>
-      <c r="N43" s="38" t="n">
+      <c r="N43" s="34" t="n">
         <f aca="false">+N44-N45</f>
         <v>-10607</v>
       </c>
-      <c r="O43" s="38" t="n">
+      <c r="O43" s="34" t="n">
         <f aca="false">+O44-O45</f>
         <v>119958</v>
       </c>
-      <c r="P43" s="38" t="n">
+      <c r="P43" s="34" t="n">
         <f aca="false">+P44-P45</f>
         <v>-13135</v>
       </c>
-      <c r="Q43" s="38" t="n">
+      <c r="Q43" s="34" t="n">
         <f aca="false">+Q44-Q45</f>
         <v>18751</v>
       </c>
-      <c r="R43" s="38" t="n">
+      <c r="R43" s="34" t="n">
         <f aca="false">+R44-R45</f>
         <v>389602</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="18" t="n">
+        <v>41</v>
+      </c>
+      <c r="F44" s="30" t="n">
         <v>93579</v>
       </c>
-      <c r="G44" s="18" t="n">
+      <c r="G44" s="30" t="n">
         <v>8121</v>
       </c>
-      <c r="H44" s="18" t="n">
+      <c r="H44" s="30" t="n">
         <v>131322</v>
       </c>
-      <c r="I44" s="18" t="n">
+      <c r="I44" s="30" t="n">
         <v>34883</v>
       </c>
-      <c r="J44" s="18" t="n">
+      <c r="J44" s="30" t="n">
         <v>11709</v>
       </c>
-      <c r="K44" s="18" t="n">
+      <c r="K44" s="30" t="n">
         <v>49722</v>
       </c>
-      <c r="L44" s="18" t="n">
+      <c r="L44" s="30" t="n">
         <v>7141</v>
       </c>
-      <c r="M44" s="18" t="n">
+      <c r="M44" s="30" t="n">
         <v>1317</v>
       </c>
-      <c r="N44" s="18" t="n">
+      <c r="N44" s="30" t="n">
         <v>8165</v>
       </c>
-      <c r="O44" s="18" t="n">
+      <c r="O44" s="30" t="n">
         <v>125696</v>
       </c>
-      <c r="P44" s="18" t="n">
+      <c r="P44" s="30" t="n">
         <v>21958</v>
       </c>
-      <c r="Q44" s="18" t="n">
+      <c r="Q44" s="30" t="n">
         <v>26478</v>
       </c>
-      <c r="R44" s="18" t="n">
+      <c r="R44" s="30" t="n">
         <f aca="false">SUM(F44:Q44)</f>
         <v>520091</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45" s="18" t="n">
+        <v>42</v>
+      </c>
+      <c r="F45" s="30" t="n">
         <v>1918</v>
       </c>
-      <c r="G45" s="18" t="n">
+      <c r="G45" s="30" t="n">
         <v>1859</v>
       </c>
-      <c r="H45" s="18" t="n">
+      <c r="H45" s="30" t="n">
         <v>7529</v>
       </c>
-      <c r="I45" s="18" t="n">
+      <c r="I45" s="30" t="n">
         <v>5672</v>
       </c>
-      <c r="J45" s="18" t="n">
+      <c r="J45" s="30" t="n">
         <v>23613</v>
       </c>
-      <c r="K45" s="18" t="n">
+      <c r="K45" s="30" t="n">
         <v>7172</v>
       </c>
-      <c r="L45" s="18" t="n">
+      <c r="L45" s="30" t="n">
         <v>647</v>
       </c>
-      <c r="M45" s="18" t="n">
+      <c r="M45" s="30" t="n">
         <v>14749</v>
       </c>
-      <c r="N45" s="18" t="n">
+      <c r="N45" s="30" t="n">
         <v>18772</v>
       </c>
-      <c r="O45" s="18" t="n">
+      <c r="O45" s="30" t="n">
         <v>5738</v>
       </c>
-      <c r="P45" s="18" t="n">
+      <c r="P45" s="30" t="n">
         <v>35093</v>
       </c>
-      <c r="Q45" s="18" t="n">
+      <c r="Q45" s="30" t="n">
         <v>7727</v>
       </c>
-      <c r="R45" s="18" t="n">
+      <c r="R45" s="30" t="n">
         <f aca="false">SUM(F45:Q45)</f>
         <v>130489</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="34" t="n">
+        <v>43</v>
+      </c>
+      <c r="F47" s="29" t="n">
         <f aca="false">+F48-F49</f>
         <v>345551</v>
       </c>
-      <c r="G47" s="34" t="n">
+      <c r="G47" s="29" t="n">
         <f aca="false">+G48-G49</f>
         <v>44666</v>
       </c>
-      <c r="H47" s="34" t="n">
+      <c r="H47" s="29" t="n">
         <f aca="false">+H48-H49</f>
         <v>458174</v>
       </c>
-      <c r="I47" s="34" t="n">
+      <c r="I47" s="29" t="n">
         <f aca="false">+I48-I49</f>
         <v>66377</v>
       </c>
-      <c r="J47" s="34" t="n">
+      <c r="J47" s="29" t="n">
         <f aca="false">+J48-J49</f>
         <v>-270679</v>
       </c>
-      <c r="K47" s="34" t="n">
+      <c r="K47" s="29" t="n">
         <f aca="false">+K48-K49</f>
         <v>96086</v>
       </c>
-      <c r="L47" s="34" t="n">
+      <c r="L47" s="29" t="n">
         <f aca="false">+L48-L49</f>
         <v>167718</v>
       </c>
-      <c r="M47" s="34" t="n">
+      <c r="M47" s="29" t="n">
         <f aca="false">+M48-M49</f>
         <v>131800</v>
       </c>
-      <c r="N47" s="34" t="n">
+      <c r="N47" s="29" t="n">
         <f aca="false">+N48-N49</f>
         <v>371961</v>
       </c>
-      <c r="O47" s="34" t="n">
+      <c r="O47" s="29" t="n">
         <f aca="false">+O48-O49</f>
         <v>56599</v>
       </c>
-      <c r="P47" s="34" t="n">
+      <c r="P47" s="29" t="n">
         <f aca="false">+P48-P49</f>
         <v>75699</v>
       </c>
-      <c r="Q47" s="34" t="n">
+      <c r="Q47" s="29" t="n">
         <f aca="false">+Q48-Q49</f>
         <v>32850</v>
       </c>
-      <c r="R47" s="34" t="n">
+      <c r="R47" s="29" t="n">
         <f aca="false">+R48-R49</f>
         <v>1576802</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="18" t="n">
+        <v>44</v>
+      </c>
+      <c r="F48" s="30" t="n">
         <v>345551</v>
       </c>
-      <c r="G48" s="18" t="n">
+      <c r="G48" s="30" t="n">
         <v>45000</v>
       </c>
-      <c r="H48" s="18" t="n">
+      <c r="H48" s="30" t="n">
         <v>458566</v>
       </c>
-      <c r="I48" s="18" t="n">
+      <c r="I48" s="30" t="n">
         <v>66377</v>
       </c>
-      <c r="J48" s="18" t="n">
+      <c r="J48" s="30" t="n">
         <v>-270679</v>
       </c>
-      <c r="K48" s="18" t="n">
+      <c r="K48" s="30" t="n">
         <v>96448</v>
       </c>
-      <c r="L48" s="18" t="n">
+      <c r="L48" s="30" t="n">
         <v>167810</v>
       </c>
-      <c r="M48" s="18" t="n">
+      <c r="M48" s="30" t="n">
         <v>132021</v>
       </c>
-      <c r="N48" s="18" t="n">
+      <c r="N48" s="30" t="n">
         <v>436709</v>
       </c>
-      <c r="O48" s="18" t="n">
+      <c r="O48" s="30" t="n">
         <v>56733</v>
       </c>
-      <c r="P48" s="18" t="n">
+      <c r="P48" s="30" t="n">
         <v>75907</v>
       </c>
-      <c r="Q48" s="18" t="n">
+      <c r="Q48" s="30" t="n">
         <v>32956</v>
       </c>
-      <c r="R48" s="18" t="n">
+      <c r="R48" s="30" t="n">
         <f aca="false">SUM(F48:Q48)</f>
         <v>1643399</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="35" t="n">
+        <v>45</v>
+      </c>
+      <c r="F49" s="31" t="n">
         <f aca="false">F50-F51</f>
         <v>0</v>
       </c>
-      <c r="G49" s="35" t="n">
+      <c r="G49" s="31" t="n">
         <f aca="false">G50-G51</f>
         <v>334</v>
       </c>
-      <c r="H49" s="35" t="n">
+      <c r="H49" s="31" t="n">
         <f aca="false">H50-H51</f>
         <v>392</v>
       </c>
-      <c r="I49" s="35" t="n">
+      <c r="I49" s="31" t="n">
         <f aca="false">I50-I51</f>
         <v>0</v>
       </c>
-      <c r="J49" s="35" t="n">
+      <c r="J49" s="31" t="n">
         <f aca="false">J50-J51</f>
         <v>0</v>
       </c>
-      <c r="K49" s="35" t="n">
+      <c r="K49" s="31" t="n">
         <f aca="false">K50-K51</f>
         <v>362</v>
       </c>
-      <c r="L49" s="35" t="n">
+      <c r="L49" s="31" t="n">
         <f aca="false">L50-L51</f>
         <v>92</v>
       </c>
-      <c r="M49" s="35" t="n">
+      <c r="M49" s="31" t="n">
         <f aca="false">M50-M51</f>
         <v>221</v>
       </c>
-      <c r="N49" s="35" t="n">
+      <c r="N49" s="31" t="n">
         <f aca="false">N50-N51</f>
         <v>64748</v>
       </c>
-      <c r="O49" s="35" t="n">
+      <c r="O49" s="31" t="n">
         <f aca="false">O50-O51</f>
         <v>134</v>
       </c>
-      <c r="P49" s="35" t="n">
+      <c r="P49" s="31" t="n">
         <f aca="false">P50-P51</f>
         <v>208</v>
       </c>
-      <c r="Q49" s="35" t="n">
+      <c r="Q49" s="31" t="n">
         <f aca="false">Q50-Q51</f>
         <v>106</v>
       </c>
-      <c r="R49" s="35" t="n">
+      <c r="R49" s="31" t="n">
         <f aca="false">R50-R51</f>
         <v>66597</v>
       </c>
@@ -3919,255 +4448,255 @@
       <c r="E50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="18" t="n">
+      <c r="F50" s="30" t="n">
         <v>148369</v>
       </c>
-      <c r="G50" s="18" t="n">
+      <c r="G50" s="30" t="n">
         <v>334</v>
       </c>
-      <c r="H50" s="18" t="n">
+      <c r="H50" s="30" t="n">
         <v>4312</v>
       </c>
-      <c r="I50" s="18" t="n">
+      <c r="I50" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="J50" s="18" t="n">
+      <c r="J50" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="K50" s="18" t="n">
+      <c r="K50" s="30" t="n">
         <v>362</v>
       </c>
-      <c r="L50" s="18" t="n">
+      <c r="L50" s="30" t="n">
         <v>103460</v>
       </c>
-      <c r="M50" s="18" t="n">
+      <c r="M50" s="30" t="n">
         <v>22775</v>
       </c>
-      <c r="N50" s="18" t="n">
+      <c r="N50" s="30" t="n">
         <v>84558</v>
       </c>
-      <c r="O50" s="18" t="n">
+      <c r="O50" s="30" t="n">
         <v>894</v>
       </c>
-      <c r="P50" s="18" t="n">
+      <c r="P50" s="30" t="n">
         <v>208</v>
       </c>
-      <c r="Q50" s="18" t="n">
+      <c r="Q50" s="30" t="n">
         <v>250793</v>
       </c>
-      <c r="R50" s="18" t="n">
+      <c r="R50" s="30" t="n">
         <f aca="false">SUM(F50:Q50)</f>
         <v>616065</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="18" t="n">
+      <c r="E51" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="30" t="n">
         <v>148369</v>
       </c>
-      <c r="G51" s="18" t="n">
+      <c r="G51" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="H51" s="18" t="n">
+      <c r="H51" s="30" t="n">
         <v>3920</v>
       </c>
-      <c r="I51" s="18" t="n">
+      <c r="I51" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="J51" s="18" t="n">
+      <c r="J51" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="K51" s="18" t="n">
+      <c r="K51" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="L51" s="18" t="n">
+      <c r="L51" s="30" t="n">
         <v>103368</v>
       </c>
-      <c r="M51" s="18" t="n">
+      <c r="M51" s="30" t="n">
         <v>22554</v>
       </c>
-      <c r="N51" s="18" t="n">
+      <c r="N51" s="30" t="n">
         <v>19810</v>
       </c>
-      <c r="O51" s="18" t="n">
+      <c r="O51" s="30" t="n">
         <v>760</v>
       </c>
-      <c r="P51" s="18" t="n">
+      <c r="P51" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="Q51" s="18" t="n">
+      <c r="Q51" s="30" t="n">
         <v>250687</v>
       </c>
-      <c r="R51" s="18" t="n">
+      <c r="R51" s="30" t="n">
         <f aca="false">SUM(F51:Q51)</f>
         <v>549468</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
     </row>
     <row r="53" s="7" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="37" t="n">
+        <v>48</v>
+      </c>
+      <c r="F53" s="33" t="n">
         <v>468678</v>
       </c>
-      <c r="G53" s="37" t="n">
+      <c r="G53" s="33" t="n">
         <v>-139054</v>
       </c>
-      <c r="H53" s="37" t="n">
+      <c r="H53" s="33" t="n">
         <v>320585</v>
       </c>
-      <c r="I53" s="37" t="n">
+      <c r="I53" s="33" t="n">
         <v>801216</v>
       </c>
-      <c r="J53" s="37" t="n">
+      <c r="J53" s="33" t="n">
         <v>-512579</v>
       </c>
-      <c r="K53" s="37" t="n">
+      <c r="K53" s="33" t="n">
         <v>-96158</v>
       </c>
-      <c r="L53" s="37" t="n">
+      <c r="L53" s="33" t="n">
         <v>-88389</v>
       </c>
-      <c r="M53" s="37" t="n">
+      <c r="M53" s="33" t="n">
         <v>-81546</v>
       </c>
-      <c r="N53" s="37" t="n">
+      <c r="N53" s="33" t="n">
         <v>45198</v>
       </c>
-      <c r="O53" s="37" t="n">
+      <c r="O53" s="33" t="n">
         <v>-11468</v>
       </c>
-      <c r="P53" s="37" t="n">
+      <c r="P53" s="33" t="n">
         <v>-160495</v>
       </c>
-      <c r="Q53" s="37" t="n">
+      <c r="Q53" s="33" t="n">
         <v>-665136</v>
       </c>
-      <c r="R53" s="37" t="n">
+      <c r="R53" s="33" t="n">
         <f aca="false">SUM(F53:Q53)</f>
         <v>-119148</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="18"/>
-      <c r="K54" s="18" t="s">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="30"/>
+      <c r="K54" s="30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" s="40" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="39"/>
-    </row>
-    <row r="56" s="40" customFormat="true" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" s="40" customFormat="true" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="42" t="s">
+    <row r="55" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-    </row>
-    <row r="58" s="40" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="44" t="s">
+      <c r="B55" s="36"/>
+    </row>
+    <row r="56" s="37" customFormat="true" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="46"/>
-    </row>
-    <row r="59" s="40" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="48" t="s">
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" s="37" customFormat="true" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-    </row>
-    <row r="60" s="40" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="47"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-    </row>
-    <row r="61" s="40" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="40" t="s">
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+    </row>
+    <row r="58" s="37" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="40" t="s">
         <v>51</v>
       </c>
+      <c r="B58" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="43"/>
+    </row>
+    <row r="59" s="37" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+    </row>
+    <row r="60" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="44"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+    </row>
+    <row r="61" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="37" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="30"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="51" t="n">
+      <c r="A64" s="50" t="n">
         <f aca="true">TODAY()</f>
-        <v>45167</v>
-      </c>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
+        <v>45261</v>
+      </c>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
+++ b/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ED8B5B-38F0-4B30-A9D3-6C5797D5D752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697400D7-C620-4BF8-9FC1-C9F421DD1F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="4290" windowWidth="11145" windowHeight="10185" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6810" yWindow="2715" windowWidth="11145" windowHeight="9525" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024" sheetId="4" r:id="rId1"/>
+    <sheet name="2024" sheetId="5" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2023'!$A$1:$R$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024'!$A$1:$R$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024'!$A$1:$R$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
   <si>
     <t>National Government Cash Operations Report</t>
   </si>
@@ -295,7 +295,28 @@
     </r>
   </si>
   <si>
-    <t>last update: 07May2024</t>
+    <t>Fees and Charges*</t>
+  </si>
+  <si>
+    <t>Other non-tax**</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>For updating based on the submission  of NGAs. Fees and Charges collections not yet identfied are recorded under Other non-tax</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Includes the transfer of outstanding balance of DOH for the cancelled LCs and remittances of fund balances of GOCCs in accordance with</t>
+  </si>
+  <si>
+    <t>FY 2024 GAA Unprogrammed Appropriation special provision 1(d) and DOF Circular No. 003-2024, previously classified under BTr income.</t>
+  </si>
+  <si>
+    <t>last update: 23July2024</t>
   </si>
 </sst>
 </file>
@@ -303,14 +324,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="mm/dd/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -518,91 +546,108 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Comma 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Comma 2 2 2" xfId="6" xr:uid="{316EF1F3-87B8-4212-B42E-91E40F9601CC}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +655,9 @@
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{CC40DCED-81E4-45E1-B541-BC41D891AD51}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{4F275485-B963-4E72-8BE5-86E1800D47D3}"/>
     <cellStyle name="Normal 4" xfId="7" xr:uid="{75E7C744-4043-4B95-AE73-33B193975405}"/>
+    <cellStyle name="Normal 5" xfId="8" xr:uid="{AA72682D-3057-4B91-83A3-DCBCB24B7F18}"/>
     <cellStyle name="Normal 8" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Percent 2" xfId="9" xr:uid="{D6161192-6F76-4FE6-B8A2-4B4E2125C43B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1009,35 +1056,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765D6498-0A47-42C1-AE66-D6BA096489FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B9B5BF-E981-42EC-9EFE-B11BA8B1DC9B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
-    <col min="6" max="8" width="13.7109375" style="1" customWidth="1"/>
-    <col min="9" max="17" width="13.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="17" width="13.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="26" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="30" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="6" customHeight="1"/>
+    <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1095,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -1055,23 +1104,27 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:19" ht="6" customHeight="1"/>
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1111,10 +1164,10 @@
       <c r="R7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S7" s="26"/>
-    </row>
-    <row r="8" spans="1:19" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S7" s="30"/>
+    </row>
+    <row r="8" spans="1:19" ht="6.75" customHeight="1" thickTop="1"/>
+    <row r="9" spans="1:19">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1122,90 +1175,116 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="7">
+        <f t="shared" ref="F9:Q9" si="0">+F10+F21+F28</f>
         <v>421801</v>
       </c>
       <c r="G9" s="7">
+        <f t="shared" si="0"/>
         <v>224016</v>
       </c>
       <c r="H9" s="7">
+        <f t="shared" si="0"/>
         <v>287923</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>537196</v>
       </c>
       <c r="J9" s="7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>382089</v>
       </c>
       <c r="K9" s="7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>296524</v>
       </c>
       <c r="L9" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O9" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P9" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q9" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="7">
-        <v>933740</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <f>+R10+R21+R28</f>
+        <v>2149549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="7">
+        <f t="shared" ref="F10:Q10" si="1">+F11+F16+F19</f>
         <v>385159</v>
       </c>
       <c r="G10" s="7">
+        <f t="shared" si="1"/>
         <v>211305</v>
       </c>
       <c r="H10" s="7">
+        <f t="shared" si="1"/>
         <v>223871</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>461768</v>
       </c>
       <c r="J10" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>303891</v>
       </c>
       <c r="K10" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>249309</v>
       </c>
       <c r="L10" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O10" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P10" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q10" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R10" s="7">
-        <v>820335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <f>+R11+R16+R19</f>
+        <v>1835303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1218,16 +1297,30 @@
       <c r="H11" s="1">
         <v>145346</v>
       </c>
+      <c r="I11" s="1">
+        <v>378521</v>
+      </c>
+      <c r="J11" s="1">
+        <v>219228</v>
+      </c>
+      <c r="K11" s="1">
+        <v>172503</v>
+      </c>
       <c r="R11" s="1">
-        <v>591769</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <f>SUM(F11:Q11)</f>
+        <v>1362021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1240,9 +1333,15 @@
       <c r="H13" s="8">
         <v>1592</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="I13" s="8">
+        <v>6858</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1857</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -1250,10 +1349,11 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="1">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <f>SUM(F13:Q13)</f>
+        <v>11228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1266,43 +1366,60 @@
       <c r="H14" s="1">
         <v>159</v>
       </c>
+      <c r="I14" s="1">
+        <v>53</v>
+      </c>
+      <c r="J14" s="1">
+        <v>36</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2580</v>
+      </c>
       <c r="R14" s="1">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <f>SUM(F14:Q14)</f>
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="6" customHeight="1"/>
+    <row r="16" spans="1:19">
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="32">
         <v>73397</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="32">
         <v>70560</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="32">
         <v>74895</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
+      <c r="I16" s="32">
+        <v>80742</v>
+      </c>
+      <c r="J16" s="32">
+        <v>81301</v>
+      </c>
+      <c r="K16" s="32">
+        <v>74623</v>
+      </c>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
       <c r="R16" s="1">
-        <v>218852</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SUM(F16:Q16)</f>
+        <v>455518</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18">
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,9 +1432,15 @@
       <c r="H18" s="8">
         <v>3060</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>979</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1661</v>
+      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -1325,80 +1448,101 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="1">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SUM(F18:Q18)</f>
+        <v>5706</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="32">
         <v>3327</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="32">
         <v>2757</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="32">
         <v>3630</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+      <c r="I19" s="32">
+        <v>2505</v>
+      </c>
+      <c r="J19" s="32">
+        <v>3362</v>
+      </c>
+      <c r="K19" s="32">
+        <v>2183</v>
+      </c>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
       <c r="R19" s="1">
-        <v>9714</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SUM(F19:Q19)</f>
+        <v>17764</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7">
+        <f t="shared" ref="F21:R21" si="2">SUM(F22:F26)</f>
         <v>36641</v>
       </c>
       <c r="G21" s="7">
+        <f t="shared" si="2"/>
         <v>12711</v>
       </c>
       <c r="H21" s="7">
+        <f t="shared" si="2"/>
         <v>64052</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>75428</v>
       </c>
       <c r="J21" s="7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>77987</v>
       </c>
       <c r="K21" s="7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>47127</v>
       </c>
       <c r="L21" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M21" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N21" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O21" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P21" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q21" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="7">
-        <v>113404</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>313946</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
       <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1409,39 +1553,56 @@
         <v>6498</v>
       </c>
       <c r="H22" s="1">
-        <v>49064</v>
+        <v>49080</v>
+      </c>
+      <c r="I22" s="1">
+        <v>64010</v>
+      </c>
+      <c r="J22" s="1">
+        <v>20162</v>
+      </c>
+      <c r="K22" s="1">
+        <v>7421</v>
       </c>
       <c r="R22" s="1">
-        <v>72297</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SUM(F22:Q22)</f>
+        <v>163906</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
       <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="27">
-        <v>940</v>
-      </c>
-      <c r="G23" s="27">
-        <v>558</v>
-      </c>
-      <c r="H23" s="27">
-        <v>167</v>
-      </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="1">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5746</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4244</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4341</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5303</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3314</v>
+      </c>
+      <c r="K23" s="33">
+        <v>472</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="22">
+        <f>SUM(F23:Q23)</f>
+        <v>23420</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1454,54 +1615,82 @@
       <c r="H24" s="1">
         <v>3</v>
       </c>
+      <c r="I24" s="1">
+        <v>159</v>
+      </c>
+      <c r="J24" s="1">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1">
+        <v>12</v>
+      </c>
       <c r="R24" s="1">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SUM(F24:Q24)</f>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="32">
         <v>992</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="32">
         <v>674</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="32">
         <v>505</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
+      <c r="I25" s="32">
+        <v>292</v>
+      </c>
+      <c r="J25" s="32">
+        <v>1117</v>
+      </c>
+      <c r="K25" s="32">
+        <v>1460</v>
+      </c>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
       <c r="R25" s="1">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SUM(F25:Q25)</f>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1">
-        <v>17787</v>
+        <v>12981</v>
       </c>
       <c r="G26" s="1">
-        <v>4937</v>
+        <v>1251</v>
       </c>
       <c r="H26" s="1">
-        <v>14313</v>
+        <v>10123</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5664</v>
+      </c>
+      <c r="J26" s="1">
+        <v>53388</v>
+      </c>
+      <c r="K26" s="1">
+        <f>39222-K25</f>
+        <v>37762</v>
       </c>
       <c r="R26" s="1">
-        <v>37037</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SUM(F26:Q26)</f>
+        <v>121169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1514,11 +1703,27 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>211</v>
+      </c>
+      <c r="K28" s="1">
+        <v>88</v>
+      </c>
       <c r="R28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SUM(F28:Q28)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="2:18">
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
@@ -1526,46 +1731,59 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="7">
+        <f>SUM(F31:F37)</f>
         <v>333850</v>
       </c>
       <c r="G30" s="7">
+        <f>SUM(G31:G37)</f>
         <v>388693</v>
       </c>
       <c r="H30" s="7">
+        <f t="shared" ref="H30:Q30" si="3">SUM(H31:H37)</f>
         <v>483841</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <f>SUM(I31:I37)</f>
+        <v>494468</v>
       </c>
       <c r="J30" s="7">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>557000</v>
       </c>
       <c r="K30" s="7">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>505604</v>
       </c>
       <c r="L30" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M30" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N30" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O30" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P30" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q30" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R30" s="7">
-        <v>1206384</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SUM(R31:R37)</f>
+        <v>2763456</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
       <c r="D31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1578,11 +1796,21 @@
       <c r="H31" s="1">
         <v>80025</v>
       </c>
+      <c r="I31" s="1">
+        <v>79054</v>
+      </c>
+      <c r="J31" s="1">
+        <v>81338</v>
+      </c>
+      <c r="K31" s="1">
+        <v>83886</v>
+      </c>
       <c r="R31" s="1">
-        <v>259911</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R31:R37" si="4">SUM(F31:Q31)</f>
+        <v>504189</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
       <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1595,28 +1823,54 @@
       <c r="H32" s="1">
         <v>70944</v>
       </c>
+      <c r="I32" s="1">
+        <v>67496</v>
+      </c>
+      <c r="J32" s="1">
+        <v>61097</v>
+      </c>
+      <c r="K32" s="1">
+        <v>55643</v>
+      </c>
       <c r="R32" s="1">
-        <v>192992</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>377228</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19">
       <c r="D33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F33" s="1">
+        <f t="shared" ref="F33:J33" si="5">F13+F14+F18</f>
         <v>0</v>
       </c>
       <c r="G33" s="1">
+        <f t="shared" si="5"/>
         <v>1587</v>
       </c>
       <c r="H33" s="1">
+        <f t="shared" si="5"/>
         <v>4811</v>
       </c>
+      <c r="I33" s="1">
+        <f t="shared" si="5"/>
+        <v>6911</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="5"/>
+        <v>1015</v>
+      </c>
+      <c r="K33" s="1">
+        <v>6098</v>
+      </c>
       <c r="R33" s="1">
-        <v>6398</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>20422</v>
+      </c>
+      <c r="S33" s="34"/>
+    </row>
+    <row r="34" spans="2:19" ht="17.25" customHeight="1">
       <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
@@ -1629,11 +1883,21 @@
       <c r="H34" s="1">
         <v>6872</v>
       </c>
+      <c r="I34" s="1">
+        <v>27720</v>
+      </c>
+      <c r="J34" s="1">
+        <v>9740</v>
+      </c>
+      <c r="K34" s="1">
+        <v>10159</v>
+      </c>
       <c r="R34" s="1">
-        <v>19587</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>67206</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19">
       <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1646,11 +1910,21 @@
       <c r="H35" s="1">
         <v>224</v>
       </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>20</v>
+      </c>
       <c r="R35" s="1">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19">
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1663,28 +1937,54 @@
       <c r="H36" s="1">
         <v>-451</v>
       </c>
+      <c r="I36" s="1">
+        <v>1558</v>
+      </c>
+      <c r="J36" s="1">
+        <v>45</v>
+      </c>
+      <c r="K36" s="1">
+        <v>85</v>
+      </c>
       <c r="R36" s="1">
-        <v>-451</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" ht="17.25" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" ht="17.25">
       <c r="D37" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F37" s="1">
+        <f>163545+17720-F33</f>
         <v>181265</v>
       </c>
       <c r="G37" s="1">
+        <f>(210211+16409)-G33</f>
         <v>225033</v>
       </c>
       <c r="H37" s="1">
+        <f>300949+25278-H33</f>
         <v>321416</v>
       </c>
+      <c r="I37" s="1">
+        <f>277181+41459-I33</f>
+        <v>311729</v>
+      </c>
+      <c r="J37" s="1">
+        <f>382507+22273-J33</f>
+        <v>403765</v>
+      </c>
+      <c r="K37" s="1">
+        <f>325917+29894-K33</f>
+        <v>349713</v>
+      </c>
       <c r="R37" s="1">
-        <v>727714</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1792921</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
       <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
@@ -1692,46 +1992,65 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3">
+        <f t="shared" ref="F39:R39" si="6">+F9-F30</f>
         <v>87951</v>
       </c>
       <c r="G39" s="3">
+        <f t="shared" si="6"/>
         <v>-164677</v>
       </c>
       <c r="H39" s="3">
+        <f t="shared" si="6"/>
         <v>-195918</v>
       </c>
       <c r="I39" s="3">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>42728</v>
       </c>
       <c r="J39" s="3">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-174911</v>
       </c>
       <c r="K39" s="3">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-209080</v>
       </c>
       <c r="L39" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M39" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N39" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O39" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P39" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q39" s="3">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R39" s="3">
-        <v>-272644</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-613907</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+    </row>
+    <row r="41" spans="2:19">
       <c r="B41" s="3" t="s">
         <v>37</v>
       </c>
@@ -1739,61 +2058,86 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="7">
+        <f t="shared" ref="F41:R41" si="7">+F42+F46</f>
         <v>118474</v>
       </c>
       <c r="G41" s="7">
+        <f t="shared" si="7"/>
         <v>417634</v>
       </c>
       <c r="H41" s="7">
+        <f t="shared" si="7"/>
         <v>200475</v>
       </c>
       <c r="I41" s="7">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>50100</v>
       </c>
       <c r="J41" s="7">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>251451</v>
       </c>
       <c r="K41" s="7">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>140230</v>
       </c>
       <c r="L41" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M41" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N41" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O41" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P41" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q41" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R41" s="7">
-        <v>736583</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1178364</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19">
       <c r="C42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F42" s="10">
+        <f t="shared" ref="F42:R42" si="8">+F43-F44</f>
         <v>-22893</v>
       </c>
       <c r="G42" s="10">
+        <f t="shared" si="8"/>
         <v>2578</v>
       </c>
       <c r="H42" s="10">
+        <f t="shared" si="8"/>
         <v>44201</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
+      <c r="I42" s="10">
+        <f t="shared" si="8"/>
+        <v>-32260</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" si="8"/>
+        <v>119815</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="8"/>
+        <v>7845</v>
+      </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
@@ -1801,10 +2145,11 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10">
-        <v>23886</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>119286</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19">
       <c r="D43" s="1" t="s">
         <v>39</v>
       </c>
@@ -1817,11 +2162,21 @@
       <c r="H43" s="1">
         <v>50870</v>
       </c>
+      <c r="I43" s="1">
+        <v>6842</v>
+      </c>
+      <c r="J43" s="1">
+        <v>127613</v>
+      </c>
+      <c r="K43" s="1">
+        <v>15700</v>
+      </c>
       <c r="R43" s="1">
-        <v>117257</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SUM(F43:Q43)</f>
+        <v>267412</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19">
       <c r="D44" s="1" t="s">
         <v>40</v>
       </c>
@@ -1834,55 +2189,78 @@
       <c r="H44" s="1">
         <v>6669</v>
       </c>
+      <c r="I44" s="1">
+        <v>39102</v>
+      </c>
+      <c r="J44" s="1">
+        <v>7798</v>
+      </c>
+      <c r="K44" s="1">
+        <v>7855</v>
+      </c>
       <c r="R44" s="1">
-        <v>93371</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SUM(F44:Q44)</f>
+        <v>148126</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19">
       <c r="C46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F46" s="7">
+        <f t="shared" ref="F46:R46" si="9">+F47-F48</f>
         <v>141367</v>
       </c>
       <c r="G46" s="7">
+        <f t="shared" si="9"/>
         <v>415056</v>
       </c>
       <c r="H46" s="7">
+        <f t="shared" si="9"/>
         <v>156274</v>
       </c>
       <c r="I46" s="7">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>82360</v>
       </c>
       <c r="J46" s="7">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>131636</v>
       </c>
       <c r="K46" s="7">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>132385</v>
       </c>
       <c r="L46" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M46" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N46" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O46" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P46" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q46" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R46" s="7">
-        <v>712697</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1059078</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19">
       <c r="D47" s="1" t="s">
         <v>42</v>
       </c>
@@ -1895,55 +2273,78 @@
       <c r="H47" s="1">
         <v>156395</v>
       </c>
+      <c r="I47" s="1">
+        <v>82360</v>
+      </c>
+      <c r="J47" s="1">
+        <v>131721</v>
+      </c>
+      <c r="K47" s="1">
+        <v>132476</v>
+      </c>
       <c r="R47" s="1">
-        <v>956581</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SUM(F47:Q47)</f>
+        <v>1303138</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19">
       <c r="D48" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F48" s="11">
+        <f t="shared" ref="F48:R48" si="10">F49-F50</f>
         <v>138</v>
       </c>
       <c r="G48" s="11">
+        <f t="shared" si="10"/>
         <v>243625</v>
       </c>
       <c r="H48" s="11">
+        <f t="shared" si="10"/>
         <v>121</v>
       </c>
       <c r="I48" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J48" s="11">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>85</v>
       </c>
       <c r="K48" s="11">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>91</v>
       </c>
       <c r="L48" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M48" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N48" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O48" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P48" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q48" s="11">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R48" s="11">
-        <v>243884</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>244060</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="E49" s="1" t="s">
         <v>44</v>
       </c>
@@ -1956,11 +2357,21 @@
       <c r="H49" s="1">
         <v>455910</v>
       </c>
+      <c r="I49" s="1">
+        <v>55097</v>
+      </c>
+      <c r="J49" s="1">
+        <v>85</v>
+      </c>
+      <c r="K49" s="1">
+        <v>2578</v>
+      </c>
       <c r="R49" s="1">
-        <v>699673</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R49:R50" si="11">SUM(F49:Q49)</f>
+        <v>757433</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="E50" s="12" t="s">
         <v>54</v>
       </c>
@@ -1973,12 +2384,22 @@
       <c r="H50" s="1">
         <v>455789</v>
       </c>
+      <c r="I50" s="1">
+        <v>55097</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2487</v>
+      </c>
       <c r="R50" s="1">
-        <v>455789</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:21" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>513373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="52" spans="1:21" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="B52" s="3" t="s">
         <v>45</v>
       </c>
@@ -1991,165 +2412,221 @@
       <c r="H52" s="3">
         <v>-491888</v>
       </c>
+      <c r="I52" s="3">
+        <v>-6003</v>
+      </c>
+      <c r="J52" s="3">
+        <v>-29134</v>
+      </c>
+      <c r="K52" s="3">
+        <v>-222639</v>
+      </c>
       <c r="R52" s="3">
-        <v>763906</v>
-      </c>
-      <c r="S52" s="26"/>
-    </row>
-    <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>SUM(F52:Q52)</f>
+        <v>506130</v>
+      </c>
+      <c r="S52" s="30"/>
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="1:21" ht="15.75" thickBot="1">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:21" s="14" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+    <row r="54" spans="1:21" s="14" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A54" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="S54" s="26"/>
-    </row>
-    <row r="55" spans="1:21" s="14" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="S54" s="30"/>
+    </row>
+    <row r="55" spans="1:21" s="14" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A55" s="23"/>
+      <c r="B55" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="S55" s="26"/>
-    </row>
-    <row r="56" spans="1:21" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="S55" s="30"/>
+    </row>
+    <row r="56" spans="1:21" s="14" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A56" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="36"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="S56" s="30"/>
+    </row>
+    <row r="57" spans="1:21" s="39" customFormat="1" ht="12.75">
+      <c r="A57" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" s="39" customFormat="1" ht="12.75">
+      <c r="A58" s="40"/>
+      <c r="B58" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" s="14" customFormat="1">
+      <c r="A59" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B59" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="S56" s="26"/>
-    </row>
-    <row r="57" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="S57" s="26"/>
-    </row>
-    <row r="58" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="S59" s="30"/>
+    </row>
+    <row r="60" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A60" s="45"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="S60" s="30"/>
+    </row>
+    <row r="61" spans="1:21" s="14" customFormat="1">
+      <c r="A61" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="28"/>
-      <c r="S58" s="26"/>
-    </row>
-    <row r="59" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="U59" s="21"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-    </row>
-    <row r="61" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="S61" s="30"/>
+    </row>
+    <row r="62" spans="1:21" ht="11.25" customHeight="1">
+      <c r="A62" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="U62" s="21"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:21" ht="21" customHeight="1">
+      <c r="A64" s="22"/>
+    </row>
+    <row r="70" spans="6:10">
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="B55:F55"/>
-    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A62:E62"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;C&amp;"-,Bold"&amp;10BUREAU OF THE TREASURY&amp;11
 &amp;"-,Italic"&amp;9 Statistical Data Analysis Division</oddHeader>
@@ -2171,7 +2648,7 @@
       <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.5703125" style="1" customWidth="1"/>
@@ -2188,8 +2665,8 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="6" customHeight="1"/>
+    <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2675,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2207,23 +2684,23 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+    <row r="6" spans="1:19" ht="6" customHeight="1"/>
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2265,8 +2742,8 @@
       </c>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="6.75" customHeight="1" thickTop="1"/>
+    <row r="9" spans="1:19">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -2313,7 +2790,7 @@
         <v>3824105.06</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2357,7 +2834,7 @@
         <v>3429292</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2401,12 +2878,12 @@
         <v>2516986</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2450,7 +2927,7 @@
         <v>17273</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2494,8 +2971,8 @@
         <v>7391</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="6" customHeight="1"/>
+    <row r="16" spans="1:19">
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
@@ -2539,12 +3016,12 @@
         <v>883214</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18">
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18">
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2588,7 +3065,7 @@
         <v>7034</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18">
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2632,7 +3109,7 @@
         <v>29092</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18">
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2676,7 +3153,7 @@
         <v>394163.81</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18">
       <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2720,7 +3197,7 @@
         <v>227638</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18">
       <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2765,7 +3242,7 @@
         <v>68555</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18">
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
@@ -2809,7 +3286,7 @@
         <v>864.81</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18">
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2853,7 +3330,7 @@
         <v>17774</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18">
       <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2898,7 +3375,7 @@
         <v>79332</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18">
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -2942,7 +3419,7 @@
         <v>649.25</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18">
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
@@ -2989,7 +3466,7 @@
         <v>5336191</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18">
       <c r="D31" s="1" t="s">
         <v>31</v>
       </c>
@@ -3033,7 +3510,7 @@
         <v>926052</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18">
       <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
@@ -3077,7 +3554,7 @@
         <v>628333</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18">
       <c r="D33" s="1" t="s">
         <v>33</v>
       </c>
@@ -3121,7 +3598,7 @@
         <v>31698</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" ht="17.25" customHeight="1">
       <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
@@ -3165,7 +3642,7 @@
         <v>163535</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18">
       <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3209,7 +3686,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18">
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3253,7 +3730,7 @@
         <v>26809</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" ht="17.25">
       <c r="D37" s="1" t="s">
         <v>53</v>
       </c>
@@ -3297,7 +3774,7 @@
         <v>3559255</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18">
       <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
@@ -3344,7 +3821,7 @@
         <v>-1512085.94</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18">
       <c r="B41" s="3" t="s">
         <v>37</v>
       </c>
@@ -3391,7 +3868,7 @@
         <v>2070852</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18">
       <c r="C42" s="1" t="s">
         <v>38</v>
       </c>
@@ -3435,7 +3912,7 @@
         <v>437922</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18">
       <c r="D43" s="1" t="s">
         <v>39</v>
       </c>
@@ -3479,7 +3956,7 @@
         <v>559035</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18">
       <c r="D44" s="1" t="s">
         <v>40</v>
       </c>
@@ -3523,7 +4000,7 @@
         <v>121113</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18">
       <c r="C46" s="1" t="s">
         <v>41</v>
       </c>
@@ -3567,7 +4044,7 @@
         <v>1632930</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18">
       <c r="D47" s="1" t="s">
         <v>42</v>
       </c>
@@ -3611,7 +4088,7 @@
         <v>1634230</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18">
       <c r="D48" s="1" t="s">
         <v>43</v>
       </c>
@@ -3655,7 +4132,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21">
       <c r="E49" s="1" t="s">
         <v>44</v>
       </c>
@@ -3699,7 +4176,7 @@
         <v>822493</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21">
       <c r="E50" s="12" t="s">
         <v>54</v>
       </c>
@@ -3743,8 +4220,8 @@
         <v>821193</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:21" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="14.25" customHeight="1"/>
+    <row r="52" spans="1:21" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="B52" s="3" t="s">
         <v>45</v>
       </c>
@@ -3789,30 +4266,30 @@
       </c>
       <c r="S52" s="2"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="15.75" thickBot="1">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:21" s="14" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" s="14" customFormat="1" ht="15.75" thickTop="1">
       <c r="A54" s="14" t="s">
         <v>46</v>
       </c>
       <c r="S54" s="2"/>
     </row>
-    <row r="55" spans="1:21" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="24" t="s">
+    <row r="55" spans="1:21" s="14" customFormat="1" ht="72" customHeight="1">
+      <c r="B55" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
       <c r="S55" s="2"/>
     </row>
-    <row r="56" spans="1:21" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" s="14" customFormat="1" ht="18.75" customHeight="1">
       <c r="A56" s="15" t="s">
         <v>47</v>
       </c>
@@ -3824,7 +4301,7 @@
       <c r="E56" s="18"/>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1">
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -3833,26 +4310,26 @@
       <c r="F57" s="20"/>
       <c r="S57" s="2"/>
     </row>
-    <row r="58" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" s="14" customFormat="1">
       <c r="A58" s="14" t="s">
         <v>49</v>
       </c>
       <c r="S58" s="2"/>
     </row>
-    <row r="59" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="25">
+    <row r="59" spans="1:21" ht="17.25">
+      <c r="A59" s="29">
         <v>45351</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
       <c r="U59" s="21"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="21" customHeight="1">
       <c r="A61" s="22"/>
     </row>
   </sheetData>

--- a/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
+++ b/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697400D7-C620-4BF8-9FC1-C9F421DD1F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A206F6E2-4187-4588-8571-5A1D8D165956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="2715" windowWidth="11145" windowHeight="9525" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9075" yWindow="3105" windowWidth="15510" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="5" r:id="rId1"/>
@@ -33,9 +33,6 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -326,12 +323,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -546,108 +550,112 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="Comma 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Comma 2 2 2" xfId="6" xr:uid="{316EF1F3-87B8-4212-B42E-91E40F9601CC}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,8 +664,10 @@
     <cellStyle name="Normal 3" xfId="5" xr:uid="{4F275485-B963-4E72-8BE5-86E1800D47D3}"/>
     <cellStyle name="Normal 4" xfId="7" xr:uid="{75E7C744-4043-4B95-AE73-33B193975405}"/>
     <cellStyle name="Normal 5" xfId="8" xr:uid="{AA72682D-3057-4B91-83A3-DCBCB24B7F18}"/>
+    <cellStyle name="Normal 6" xfId="10" xr:uid="{6498073A-B325-42FE-BCF6-322BDFAC2AE9}"/>
     <cellStyle name="Normal 8" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Percent 2" xfId="9" xr:uid="{D6161192-6F76-4FE6-B8A2-4B4E2125C43B}"/>
+    <cellStyle name="Percent 3" xfId="11" xr:uid="{69EEC053-3F5E-45D9-855B-307A7D12AF2B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1063,10 +1073,10 @@
   <dimension ref="A1:U70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="J29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1078,10 +1088,9 @@
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
     <col min="6" max="8" width="11.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="17" width="13.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="17" width="13.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="30" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="25" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1111,20 +1120,20 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="4"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:19" ht="6" customHeight="1"/>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1173,7 @@
       <c r="R7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S7" s="30"/>
+      <c r="S7" s="25"/>
     </row>
     <row r="8" spans="1:19" ht="6.75" customHeight="1" thickTop="1"/>
     <row r="9" spans="1:19">
@@ -1200,19 +1209,19 @@
       </c>
       <c r="L9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>457374</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>386337</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>299653</v>
       </c>
       <c r="O9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>473124</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
@@ -1224,7 +1233,7 @@
       </c>
       <c r="R9" s="7">
         <f>+R10+R21+R28</f>
-        <v>2149549</v>
+        <v>3766037</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1233,43 +1242,43 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" ref="F10:Q10" si="1">+F11+F16+F19</f>
-        <v>385159</v>
+        <v>385160</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="1"/>
-        <v>211305</v>
+        <v>211310</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
-        <v>223871</v>
+        <v>223876</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="1"/>
-        <v>461768</v>
+        <v>461770</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="1"/>
-        <v>303891</v>
+        <v>303895</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="1"/>
-        <v>249309</v>
+        <v>249312</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>402822</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>320213</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>253459</v>
       </c>
       <c r="O10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>414867</v>
       </c>
       <c r="P10" s="7">
         <f t="shared" si="1"/>
@@ -1281,7 +1290,7 @@
       </c>
       <c r="R10" s="7">
         <f>+R11+R16+R19</f>
-        <v>1835303</v>
+        <v>3226684</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1306,19 +1315,31 @@
       <c r="K11" s="1">
         <v>172503</v>
       </c>
+      <c r="L11" s="1">
+        <v>319814</v>
+      </c>
+      <c r="M11" s="1">
+        <v>238120</v>
+      </c>
+      <c r="N11" s="1">
+        <v>174679</v>
+      </c>
+      <c r="O11" s="1">
+        <v>325536</v>
+      </c>
       <c r="R11" s="1">
         <f>SUM(F11:Q11)</f>
-        <v>1362021</v>
+        <v>2420170</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:19">
       <c r="E13" s="1" t="s">
@@ -1342,15 +1363,23 @@
       <c r="K13" s="8">
         <v>1857</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="L13" s="8">
+        <v>1258</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1272</v>
+      </c>
+      <c r="N13" s="8">
+        <v>3326</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="1">
         <f>SUM(F13:Q13)</f>
-        <v>11228</v>
+        <v>17084</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1375,9 +1404,21 @@
       <c r="K14" s="1">
         <v>2580</v>
       </c>
+      <c r="L14" s="1">
+        <v>380</v>
+      </c>
+      <c r="M14" s="1">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2828</v>
+      </c>
+      <c r="O14" s="1">
+        <v>362</v>
+      </c>
       <c r="R14" s="1">
         <f>SUM(F14:Q14)</f>
-        <v>3488</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="6" customHeight="1"/>
@@ -1385,33 +1426,41 @@
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="27">
         <v>73397</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="27">
         <v>70560</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="27">
         <v>74895</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="27">
         <v>80742</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="27">
         <v>81301</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="27">
         <v>74623</v>
       </c>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
+      <c r="L16" s="27">
+        <v>80355</v>
+      </c>
+      <c r="M16" s="27">
+        <v>78521</v>
+      </c>
+      <c r="N16" s="27">
+        <v>76282</v>
+      </c>
+      <c r="O16" s="27">
+        <v>86885</v>
+      </c>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
       <c r="R16" s="1">
         <f>SUM(F16:Q16)</f>
-        <v>455518</v>
+        <v>777561</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -1441,48 +1490,64 @@
       <c r="K18" s="8">
         <v>1661</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="L18" s="8">
+        <v>2675</v>
+      </c>
+      <c r="M18" s="8">
+        <v>814</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1001</v>
+      </c>
+      <c r="O18" s="8">
+        <v>566</v>
+      </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="1">
         <f>SUM(F18:Q18)</f>
-        <v>5706</v>
+        <v>10762</v>
       </c>
     </row>
     <row r="19" spans="2:18">
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="32">
-        <v>3327</v>
-      </c>
-      <c r="G19" s="32">
-        <v>2757</v>
-      </c>
-      <c r="H19" s="32">
-        <v>3630</v>
-      </c>
-      <c r="I19" s="32">
-        <v>2505</v>
-      </c>
-      <c r="J19" s="32">
-        <v>3362</v>
-      </c>
-      <c r="K19" s="32">
-        <v>2183</v>
-      </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
+      <c r="F19" s="27">
+        <v>3328</v>
+      </c>
+      <c r="G19" s="27">
+        <v>2762</v>
+      </c>
+      <c r="H19" s="27">
+        <v>3635</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2507</v>
+      </c>
+      <c r="J19" s="27">
+        <v>3366</v>
+      </c>
+      <c r="K19" s="27">
+        <v>2186</v>
+      </c>
+      <c r="L19" s="27">
+        <v>2653</v>
+      </c>
+      <c r="M19" s="27">
+        <v>3572</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2498</v>
+      </c>
+      <c r="O19" s="27">
+        <v>2446</v>
+      </c>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
       <c r="R19" s="1">
         <f>SUM(F19:Q19)</f>
-        <v>17764</v>
+        <v>28953</v>
       </c>
     </row>
     <row r="21" spans="2:18">
@@ -1491,43 +1556,43 @@
       </c>
       <c r="F21" s="7">
         <f t="shared" ref="F21:R21" si="2">SUM(F22:F26)</f>
-        <v>36641</v>
+        <v>36640</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
-        <v>12711</v>
+        <v>12706</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="2"/>
-        <v>64052</v>
+        <v>64047</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="2"/>
-        <v>75428</v>
+        <v>75426</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="2"/>
-        <v>77987</v>
+        <v>77983</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="2"/>
-        <v>47127</v>
+        <v>47124</v>
       </c>
       <c r="L21" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>54551</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>65964</v>
       </c>
       <c r="N21" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>46191</v>
       </c>
       <c r="O21" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>58257</v>
       </c>
       <c r="P21" s="7">
         <f t="shared" si="2"/>
@@ -1539,7 +1604,7 @@
       </c>
       <c r="R21" s="7">
         <f t="shared" si="2"/>
-        <v>313946</v>
+        <v>538889</v>
       </c>
     </row>
     <row r="22" spans="2:18">
@@ -1564,9 +1629,21 @@
       <c r="K22" s="1">
         <v>7421</v>
       </c>
+      <c r="L22" s="1">
+        <v>19914</v>
+      </c>
+      <c r="M22" s="1">
+        <v>16485</v>
+      </c>
+      <c r="N22" s="1">
+        <v>9921</v>
+      </c>
+      <c r="O22" s="1">
+        <v>14519</v>
+      </c>
       <c r="R22" s="1">
         <f>SUM(F22:Q22)</f>
-        <v>163906</v>
+        <v>224745</v>
       </c>
     </row>
     <row r="23" spans="2:18">
@@ -1574,32 +1651,40 @@
         <v>58</v>
       </c>
       <c r="F23" s="1">
-        <v>5746</v>
+        <v>4570</v>
       </c>
       <c r="G23" s="1">
-        <v>4244</v>
+        <v>3665</v>
       </c>
       <c r="H23" s="1">
-        <v>4341</v>
+        <v>3871</v>
       </c>
       <c r="I23" s="1">
-        <v>5303</v>
+        <v>4852</v>
       </c>
       <c r="J23" s="1">
-        <v>3314</v>
-      </c>
-      <c r="K23" s="33">
-        <v>472</v>
-      </c>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+        <v>3517</v>
+      </c>
+      <c r="K23" s="28">
+        <v>1417</v>
+      </c>
+      <c r="L23" s="28">
+        <v>1397</v>
+      </c>
+      <c r="M23" s="28">
+        <v>1487</v>
+      </c>
+      <c r="N23" s="28">
+        <v>1421</v>
+      </c>
+      <c r="O23" s="28">
+        <v>877</v>
+      </c>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
       <c r="R23" s="22">
         <f>SUM(F23:Q23)</f>
-        <v>23420</v>
+        <v>27074</v>
       </c>
     </row>
     <row r="24" spans="2:18">
@@ -1624,42 +1709,62 @@
       <c r="K24" s="1">
         <v>12</v>
       </c>
+      <c r="L24" s="1">
+        <v>18</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2684</v>
+      </c>
+      <c r="N24" s="1">
+        <v>6</v>
+      </c>
+      <c r="O24" s="1">
+        <v>146</v>
+      </c>
       <c r="R24" s="1">
         <f>SUM(F24:Q24)</f>
-        <v>411</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="25" spans="2:18">
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="27">
         <v>992</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="27">
         <v>674</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="27">
         <v>505</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="27">
         <v>292</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="27">
         <v>1117</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="27">
         <v>1460</v>
       </c>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
+      <c r="L25" s="27">
+        <v>965</v>
+      </c>
+      <c r="M25" s="27">
+        <v>1104</v>
+      </c>
+      <c r="N25" s="27">
+        <v>785</v>
+      </c>
+      <c r="O25" s="27">
+        <v>1168</v>
+      </c>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
       <c r="R25" s="1">
         <f>SUM(F25:Q25)</f>
-        <v>5040</v>
+        <v>9062</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -1667,27 +1772,38 @@
         <v>59</v>
       </c>
       <c r="F26" s="1">
-        <v>12981</v>
+        <v>14156</v>
       </c>
       <c r="G26" s="1">
-        <v>1251</v>
+        <v>1825</v>
       </c>
       <c r="H26" s="1">
-        <v>10123</v>
+        <v>10588</v>
       </c>
       <c r="I26" s="1">
-        <v>5664</v>
+        <v>6113</v>
       </c>
       <c r="J26" s="1">
-        <v>53388</v>
+        <v>53181</v>
       </c>
       <c r="K26" s="1">
-        <f>39222-K25</f>
-        <v>37762</v>
+        <v>36814</v>
+      </c>
+      <c r="L26" s="1">
+        <v>32257</v>
+      </c>
+      <c r="M26" s="1">
+        <v>44204</v>
+      </c>
+      <c r="N26" s="1">
+        <v>34058</v>
+      </c>
+      <c r="O26" s="1">
+        <v>41547</v>
       </c>
       <c r="R26" s="1">
         <f>SUM(F26:Q26)</f>
-        <v>121169</v>
+        <v>274743</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -1712,16 +1828,28 @@
       <c r="K28" s="1">
         <v>88</v>
       </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>160</v>
+      </c>
+      <c r="N28" s="1">
+        <v>3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
       <c r="R28" s="1">
         <f>SUM(F28:Q28)</f>
-        <v>300</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="2:18">
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="3" t="s">
@@ -1756,19 +1884,19 @@
       </c>
       <c r="L30" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>486219</v>
       </c>
       <c r="M30" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>440543</v>
       </c>
       <c r="N30" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>572919</v>
       </c>
       <c r="O30" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>466784</v>
       </c>
       <c r="P30" s="7">
         <f t="shared" si="3"/>
@@ -1780,7 +1908,7 @@
       </c>
       <c r="R30" s="7">
         <f>SUM(R31:R37)</f>
-        <v>2763456</v>
+        <v>4729921</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -1805,9 +1933,21 @@
       <c r="K31" s="1">
         <v>83886</v>
       </c>
+      <c r="L31" s="1">
+        <v>86190</v>
+      </c>
+      <c r="M31" s="1">
+        <v>82515</v>
+      </c>
+      <c r="N31" s="1">
+        <v>82505</v>
+      </c>
+      <c r="O31" s="1">
+        <v>84378</v>
+      </c>
       <c r="R31" s="1">
         <f t="shared" ref="R31:R37" si="4">SUM(F31:Q31)</f>
-        <v>504189</v>
+        <v>839777</v>
       </c>
     </row>
     <row r="32" spans="2:18">
@@ -1832,9 +1972,21 @@
       <c r="K32" s="1">
         <v>55643</v>
       </c>
+      <c r="L32" s="1">
+        <v>79432</v>
+      </c>
+      <c r="M32" s="1">
+        <v>52781</v>
+      </c>
+      <c r="N32" s="1">
+        <v>73852</v>
+      </c>
+      <c r="O32" s="1">
+        <v>55388</v>
+      </c>
       <c r="R32" s="1">
         <f t="shared" si="4"/>
-        <v>377228</v>
+        <v>638681</v>
       </c>
     </row>
     <row r="33" spans="2:19">
@@ -1842,33 +1994,40 @@
         <v>33</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" ref="F33:J33" si="5">F13+F14+F18</f>
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="5"/>
         <v>1587</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="5"/>
         <v>4811</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="5"/>
         <v>6911</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="5"/>
         <v>1015</v>
       </c>
       <c r="K33" s="1">
         <v>6098</v>
       </c>
+      <c r="L33" s="1">
+        <v>4313</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2098</v>
+      </c>
+      <c r="N33" s="1">
+        <v>7155</v>
+      </c>
+      <c r="O33" s="1">
+        <v>928</v>
+      </c>
       <c r="R33" s="1">
         <f t="shared" si="4"/>
-        <v>20422</v>
-      </c>
-      <c r="S33" s="34"/>
+        <v>34916</v>
+      </c>
+      <c r="S33" s="29"/>
     </row>
     <row r="34" spans="2:19" ht="17.25" customHeight="1">
       <c r="D34" s="1" t="s">
@@ -1892,9 +2051,21 @@
       <c r="K34" s="1">
         <v>10159</v>
       </c>
+      <c r="L34" s="1">
+        <v>10719</v>
+      </c>
+      <c r="M34" s="1">
+        <v>9100</v>
+      </c>
+      <c r="N34" s="1">
+        <v>18217</v>
+      </c>
+      <c r="O34" s="1">
+        <v>11968</v>
+      </c>
       <c r="R34" s="1">
         <f t="shared" si="4"/>
-        <v>67206</v>
+        <v>117210</v>
       </c>
     </row>
     <row r="35" spans="2:19">
@@ -1919,9 +2090,21 @@
       <c r="K35" s="1">
         <v>20</v>
       </c>
+      <c r="L35" s="1">
+        <v>85</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
+        <v>381</v>
+      </c>
+      <c r="O35" s="1">
+        <v>22</v>
+      </c>
       <c r="R35" s="1">
         <f t="shared" si="4"/>
-        <v>253</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -1946,9 +2129,21 @@
       <c r="K36" s="1">
         <v>85</v>
       </c>
+      <c r="L36" s="1">
+        <v>-1143</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>3115</v>
+      </c>
+      <c r="O36" s="1">
+        <v>3053</v>
+      </c>
       <c r="R36" s="1">
         <f t="shared" si="4"/>
-        <v>1237</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="37" spans="2:19" ht="17.25">
@@ -1956,32 +2151,38 @@
         <v>53</v>
       </c>
       <c r="F37" s="1">
-        <f>163545+17720-F33</f>
         <v>181265</v>
       </c>
       <c r="G37" s="1">
-        <f>(210211+16409)-G33</f>
         <v>225033</v>
       </c>
       <c r="H37" s="1">
-        <f>300949+25278-H33</f>
         <v>321416</v>
       </c>
       <c r="I37" s="1">
-        <f>277181+41459-I33</f>
         <v>311729</v>
       </c>
       <c r="J37" s="1">
-        <f>382507+22273-J33</f>
         <v>403765</v>
       </c>
       <c r="K37" s="1">
-        <f>325917+29894-K33</f>
         <v>349713</v>
+      </c>
+      <c r="L37" s="1">
+        <v>306623</v>
+      </c>
+      <c r="M37" s="1">
+        <v>294048</v>
+      </c>
+      <c r="N37" s="1">
+        <v>387694</v>
+      </c>
+      <c r="O37" s="1">
+        <v>311047</v>
       </c>
       <c r="R37" s="1">
         <f t="shared" si="4"/>
-        <v>1792921</v>
+        <v>3092333</v>
       </c>
     </row>
     <row r="39" spans="2:19">
@@ -1992,63 +2193,53 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3">
-        <f t="shared" ref="F39:R39" si="6">+F9-F30</f>
         <v>87951</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="6"/>
         <v>-164677</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="6"/>
         <v>-195918</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="6"/>
         <v>42728</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="6"/>
         <v>-174911</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="6"/>
         <v>-209080</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-28845</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-54206</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-273266</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6340</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F39:R39" si="5">+P9-P30</f>
         <v>0</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R39" s="3">
-        <f t="shared" si="6"/>
-        <v>-613907</v>
+        <f t="shared" si="5"/>
+        <v>-963884</v>
       </c>
     </row>
     <row r="40" spans="2:19">
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="2:19">
       <c r="B41" s="3" t="s">
@@ -2058,95 +2249,97 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="7">
-        <f t="shared" ref="F41:R41" si="7">+F42+F46</f>
+        <f t="shared" ref="F41:R41" si="6">+F42+F46</f>
         <v>118474</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>417634</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>200475</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>50100</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>251451</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>140230</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>186923</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>40597</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>347425</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-32198</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q41" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R41" s="7">
-        <f t="shared" si="7"/>
-        <v>1178364</v>
+        <f t="shared" si="6"/>
+        <v>1721111</v>
       </c>
     </row>
     <row r="42" spans="2:19">
       <c r="C42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="10">
-        <f t="shared" ref="F42:R42" si="8">+F43-F44</f>
+      <c r="F42" s="48">
         <v>-22893</v>
       </c>
-      <c r="G42" s="10">
-        <f t="shared" si="8"/>
+      <c r="G42" s="48">
         <v>2578</v>
       </c>
-      <c r="H42" s="10">
-        <f t="shared" si="8"/>
+      <c r="H42" s="48">
         <v>44201</v>
       </c>
-      <c r="I42" s="10">
-        <f t="shared" si="8"/>
+      <c r="I42" s="48">
         <v>-32260</v>
       </c>
-      <c r="J42" s="10">
-        <f t="shared" si="8"/>
+      <c r="J42" s="48">
         <v>119815</v>
       </c>
-      <c r="K42" s="10">
-        <f t="shared" si="8"/>
+      <c r="K42" s="48">
         <v>7845</v>
       </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+      <c r="L42" s="48">
+        <v>6506</v>
+      </c>
+      <c r="M42" s="48">
+        <v>-4414</v>
+      </c>
+      <c r="N42" s="48">
+        <v>202312</v>
+      </c>
+      <c r="O42" s="48">
+        <v>20338</v>
+      </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10">
-        <f t="shared" si="8"/>
-        <v>119286</v>
+        <f t="shared" ref="F42:R42" si="7">+R43-R44</f>
+        <v>344028</v>
       </c>
     </row>
     <row r="43" spans="2:19">
@@ -2171,9 +2364,21 @@
       <c r="K43" s="1">
         <v>15700</v>
       </c>
+      <c r="L43" s="1">
+        <v>8063</v>
+      </c>
+      <c r="M43" s="1">
+        <v>6989</v>
+      </c>
+      <c r="N43" s="1">
+        <v>221983</v>
+      </c>
+      <c r="O43" s="1">
+        <v>61800</v>
+      </c>
       <c r="R43" s="1">
         <f>SUM(F43:Q43)</f>
-        <v>267412</v>
+        <v>566247</v>
       </c>
     </row>
     <row r="44" spans="2:19">
@@ -2198,9 +2403,21 @@
       <c r="K44" s="1">
         <v>7855</v>
       </c>
+      <c r="L44" s="1">
+        <v>1557</v>
+      </c>
+      <c r="M44" s="1">
+        <v>11403</v>
+      </c>
+      <c r="N44" s="1">
+        <v>19671</v>
+      </c>
+      <c r="O44" s="1">
+        <v>41462</v>
+      </c>
       <c r="R44" s="1">
         <f>SUM(F44:Q44)</f>
-        <v>148126</v>
+        <v>222219</v>
       </c>
     </row>
     <row r="46" spans="2:19">
@@ -2208,83 +2425,95 @@
         <v>41</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" ref="F46:R46" si="9">+F47-F48</f>
+        <f t="shared" ref="F46:R46" si="8">+F47-F48</f>
         <v>141367</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>415056</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>156274</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>82360</v>
       </c>
       <c r="J46" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>131636</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>132385</v>
       </c>
       <c r="L46" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>180417</v>
       </c>
       <c r="M46" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>45011</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>145113</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-52536</v>
       </c>
       <c r="P46" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q46" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R46" s="7">
-        <f t="shared" si="9"/>
-        <v>1059078</v>
+        <f t="shared" si="8"/>
+        <v>1377083</v>
       </c>
     </row>
     <row r="47" spans="2:19">
       <c r="D47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="47">
         <v>141505</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="47">
         <v>658681</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="47">
         <v>156395</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="47">
         <v>82360</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="47">
         <v>131721</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="47">
         <v>132476</v>
+      </c>
+      <c r="L47" s="47">
+        <v>180602</v>
+      </c>
+      <c r="M47" s="47">
+        <v>167045</v>
+      </c>
+      <c r="N47" s="47">
+        <v>145200</v>
+      </c>
+      <c r="O47" s="47">
+        <v>67464</v>
       </c>
       <c r="R47" s="1">
         <f>SUM(F47:Q47)</f>
-        <v>1303138</v>
+        <v>1863449</v>
       </c>
     </row>
     <row r="48" spans="2:19">
@@ -2292,83 +2521,95 @@
         <v>43</v>
       </c>
       <c r="F48" s="11">
-        <f t="shared" ref="F48:R48" si="10">F49-F50</f>
+        <f t="shared" ref="F48:R48" si="9">F49-F50</f>
         <v>138</v>
       </c>
       <c r="G48" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>243625</v>
       </c>
       <c r="H48" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
       <c r="I48" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J48" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="K48" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
       <c r="L48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>185</v>
       </c>
       <c r="M48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>122034</v>
       </c>
       <c r="N48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>87</v>
       </c>
       <c r="O48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>120000</v>
       </c>
       <c r="P48" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q48" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R48" s="11">
-        <f t="shared" si="10"/>
-        <v>244060</v>
+        <f t="shared" si="9"/>
+        <v>486366</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="E49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="47">
         <v>138</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="47">
         <v>243625</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="47">
         <v>455910</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="47">
         <v>55097</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="47">
         <v>85</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="47">
         <v>2578</v>
       </c>
+      <c r="L49" s="47">
+        <v>185</v>
+      </c>
+      <c r="M49" s="47">
+        <v>122034</v>
+      </c>
+      <c r="N49" s="47">
+        <v>87</v>
+      </c>
+      <c r="O49" s="47">
+        <v>120000</v>
+      </c>
       <c r="R49" s="1">
-        <f t="shared" ref="R49:R50" si="11">SUM(F49:Q49)</f>
-        <v>757433</v>
+        <f t="shared" ref="R49:R50" si="10">SUM(F49:Q49)</f>
+        <v>999739</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -2394,7 +2635,7 @@
         <v>2487</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>513373</v>
       </c>
     </row>
@@ -2425,7 +2666,7 @@
         <f>SUM(F52:Q52)</f>
         <v>506130</v>
       </c>
-      <c r="S52" s="30"/>
+      <c r="S52" s="25"/>
       <c r="U52" s="1"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" thickBot="1">
@@ -2455,17 +2696,17 @@
       <c r="O54" s="23"/>
       <c r="P54" s="23"/>
       <c r="Q54" s="23"/>
-      <c r="S54" s="30"/>
+      <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:21" s="14" customFormat="1" ht="57.75" customHeight="1">
       <c r="A55" s="23"/>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
@@ -2477,16 +2718,16 @@
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
       <c r="Q55" s="24"/>
-      <c r="S55" s="30"/>
+      <c r="S55" s="25"/>
     </row>
     <row r="56" spans="1:21" s="14" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="36"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
@@ -2501,32 +2742,32 @@
       <c r="O56" s="24"/>
       <c r="P56" s="24"/>
       <c r="Q56" s="24"/>
-      <c r="S56" s="30"/>
-    </row>
-    <row r="57" spans="1:21" s="39" customFormat="1" ht="12.75">
-      <c r="A57" s="37" t="s">
+      <c r="S56" s="25"/>
+    </row>
+    <row r="57" spans="1:21" s="34" customFormat="1" ht="12.75">
+      <c r="A57" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="39" customFormat="1" ht="12.75">
-      <c r="A58" s="40"/>
-      <c r="B58" s="38" t="s">
+    <row r="58" spans="1:21" s="34" customFormat="1" ht="12.75">
+      <c r="A58" s="35"/>
+      <c r="B58" s="33" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:21" s="14" customFormat="1">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="44"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="39"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
@@ -2539,27 +2780,27 @@
       <c r="O59" s="23"/>
       <c r="P59" s="23"/>
       <c r="Q59" s="23"/>
-      <c r="S59" s="30"/>
+      <c r="S59" s="25"/>
     </row>
     <row r="60" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A60" s="45"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46"/>
-      <c r="O60" s="46"/>
-      <c r="P60" s="46"/>
-      <c r="Q60" s="46"/>
-      <c r="S60" s="30"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="S60" s="25"/>
     </row>
     <row r="61" spans="1:21" s="14" customFormat="1">
       <c r="A61" s="23" t="s">
@@ -2581,16 +2822,16 @@
       <c r="O61" s="23"/>
       <c r="P61" s="23"/>
       <c r="Q61" s="23"/>
-      <c r="S61" s="30"/>
+      <c r="S61" s="25"/>
     </row>
     <row r="62" spans="1:21" ht="11.25" customHeight="1">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
@@ -2694,13 +2935,13 @@
     </row>
     <row r="6" spans="1:19" ht="6" customHeight="1"/>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
@@ -4280,13 +4521,13 @@
       <c r="S54" s="2"/>
     </row>
     <row r="55" spans="1:21" s="14" customFormat="1" ht="72" customHeight="1">
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
       <c r="S55" s="2"/>
     </row>
     <row r="56" spans="1:21" s="14" customFormat="1" ht="18.75" customHeight="1">
@@ -4317,13 +4558,13 @@
       <c r="S58" s="2"/>
     </row>
     <row r="59" spans="1:21" ht="17.25">
-      <c r="A59" s="29">
+      <c r="A59" s="46">
         <v>45351</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
       <c r="U59" s="21"/>
     </row>
     <row r="60" spans="1:21">

--- a/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
+++ b/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A206F6E2-4187-4588-8571-5A1D8D165956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928C3954-1F65-4D77-B745-1C72D58B5354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9075" yWindow="3105" windowWidth="15510" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="5" r:id="rId1"/>
@@ -323,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
@@ -652,8 +652,6 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1073,13 +1071,13 @@
   <dimension ref="A1:U70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="J29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.42578125" style="1" customWidth="1"/>
@@ -1089,13 +1087,13 @@
     <col min="6" max="8" width="11.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
     <col min="10" max="17" width="13.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="1" customWidth="1"/>
     <col min="19" max="19" width="11.85546875" style="25" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="6" customHeight="1"/>
-    <row r="2" spans="1:19">
+    <row r="1" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1102,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -1113,20 +1111,20 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="1:19" ht="6" customHeight="1"/>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
@@ -1175,8 +1173,8 @@
       </c>
       <c r="S7" s="25"/>
     </row>
-    <row r="8" spans="1:19" ht="6.75" customHeight="1" thickTop="1"/>
-    <row r="9" spans="1:19">
+    <row r="8" spans="1:19" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1225,75 +1223,75 @@
       </c>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>338312</v>
       </c>
       <c r="Q9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>314674</v>
       </c>
       <c r="R9" s="7">
         <f>+R10+R21+R28</f>
-        <v>3766037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>4419023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" ref="F10:Q10" si="1">+F11+F16+F19</f>
-        <v>385160</v>
+        <v>385170</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="1"/>
-        <v>211310</v>
+        <v>211311</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
-        <v>223876</v>
+        <v>223885</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="1"/>
-        <v>461770</v>
+        <v>461780</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="1"/>
-        <v>303895</v>
+        <v>303908</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="1"/>
-        <v>249312</v>
+        <v>249316</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="1"/>
-        <v>402822</v>
+        <v>402832</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="1"/>
-        <v>320213</v>
+        <v>320218</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="1"/>
-        <v>253459</v>
+        <v>253449</v>
       </c>
       <c r="O10" s="7">
         <f t="shared" si="1"/>
-        <v>414867</v>
+        <v>414856</v>
       </c>
       <c r="P10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>322381</v>
       </c>
       <c r="Q10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>251587</v>
       </c>
       <c r="R10" s="7">
         <f>+R11+R16+R19</f>
-        <v>3226684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>3800693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1327,12 +1325,18 @@
       <c r="O11" s="1">
         <v>325536</v>
       </c>
+      <c r="P11" s="1">
+        <v>247594</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>183839</v>
+      </c>
       <c r="R11" s="1">
         <f>SUM(F11:Q11)</f>
-        <v>2420170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>2851603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1341,7 +1345,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1375,14 +1379,18 @@
       <c r="O13" s="8">
         <v>0</v>
       </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="P13" s="8">
+        <v>1439</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>1013</v>
+      </c>
       <c r="R13" s="1">
         <f>SUM(F13:Q13)</f>
-        <v>17084</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>19536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1416,13 +1424,19 @@
       <c r="O14" s="1">
         <v>362</v>
       </c>
+      <c r="P14" s="1">
+        <v>4814</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>6287</v>
+      </c>
       <c r="R14" s="1">
         <f>SUM(F14:Q14)</f>
-        <v>7070</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="6" customHeight="1"/>
-    <row r="16" spans="1:19">
+        <v>18171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1456,19 +1470,23 @@
       <c r="O16" s="27">
         <v>86885</v>
       </c>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
+      <c r="P16" s="27">
+        <v>72441</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>66672</v>
+      </c>
       <c r="R16" s="1">
         <f>SUM(F16:Q16)</f>
-        <v>777561</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18">
+        <v>916674</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1502,112 +1520,120 @@
       <c r="O18" s="8">
         <v>566</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="P18" s="8">
+        <v>2065</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>568</v>
+      </c>
       <c r="R18" s="1">
         <f>SUM(F18:Q18)</f>
-        <v>10762</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18">
+        <v>13395</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="27">
-        <v>3328</v>
+        <v>3338</v>
       </c>
       <c r="G19" s="27">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="H19" s="27">
-        <v>3635</v>
+        <v>3644</v>
       </c>
       <c r="I19" s="27">
-        <v>2507</v>
+        <v>2517</v>
       </c>
       <c r="J19" s="27">
-        <v>3366</v>
+        <v>3379</v>
       </c>
       <c r="K19" s="27">
-        <v>2186</v>
+        <v>2190</v>
       </c>
       <c r="L19" s="27">
-        <v>2653</v>
+        <v>2663</v>
       </c>
       <c r="M19" s="27">
-        <v>3572</v>
+        <v>3577</v>
       </c>
       <c r="N19" s="27">
-        <v>2498</v>
+        <v>2488</v>
       </c>
       <c r="O19" s="27">
-        <v>2446</v>
-      </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+        <v>2435</v>
+      </c>
+      <c r="P19" s="27">
+        <v>2346</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>1076</v>
+      </c>
       <c r="R19" s="1">
         <f>SUM(F19:Q19)</f>
-        <v>28953</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18">
+        <v>32416</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" ref="F21:R21" si="2">SUM(F22:F26)</f>
-        <v>36640</v>
+        <v>36630</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
-        <v>12706</v>
+        <v>12705</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="2"/>
-        <v>64047</v>
+        <v>64038</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="2"/>
-        <v>75426</v>
+        <v>75416</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="2"/>
-        <v>77983</v>
+        <v>77970</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="2"/>
-        <v>47124</v>
+        <v>47120</v>
       </c>
       <c r="L21" s="7">
         <f t="shared" si="2"/>
-        <v>54551</v>
+        <v>54541</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" si="2"/>
-        <v>65964</v>
+        <v>65959</v>
       </c>
       <c r="N21" s="7">
         <f t="shared" si="2"/>
-        <v>46191</v>
+        <v>46201</v>
       </c>
       <c r="O21" s="7">
         <f t="shared" si="2"/>
-        <v>58257</v>
+        <v>58268</v>
       </c>
       <c r="P21" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15930</v>
       </c>
       <c r="Q21" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>63086</v>
       </c>
       <c r="R21" s="7">
         <f t="shared" si="2"/>
-        <v>538889</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18">
+        <v>617864</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1641,53 +1667,63 @@
       <c r="O22" s="1">
         <v>14519</v>
       </c>
+      <c r="P22" s="1">
+        <v>7942</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>50668</v>
+      </c>
       <c r="R22" s="1">
         <f>SUM(F22:Q22)</f>
-        <v>224745</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18">
+        <v>283355</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="1">
-        <v>4570</v>
+        <v>5310</v>
       </c>
       <c r="G23" s="1">
-        <v>3665</v>
+        <v>4203</v>
       </c>
       <c r="H23" s="1">
-        <v>3871</v>
+        <v>4433</v>
       </c>
       <c r="I23" s="1">
-        <v>4852</v>
+        <v>5496</v>
       </c>
       <c r="J23" s="1">
-        <v>3517</v>
+        <v>4682</v>
       </c>
       <c r="K23" s="28">
-        <v>1417</v>
+        <v>5305</v>
       </c>
       <c r="L23" s="28">
-        <v>1397</v>
+        <v>5136</v>
       </c>
       <c r="M23" s="28">
-        <v>1487</v>
+        <v>7777</v>
       </c>
       <c r="N23" s="28">
-        <v>1421</v>
+        <v>7930</v>
       </c>
       <c r="O23" s="28">
-        <v>877</v>
-      </c>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
+        <v>4695</v>
+      </c>
+      <c r="P23" s="28">
+        <v>4324</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>5924</v>
+      </c>
       <c r="R23" s="22">
         <f>SUM(F23:Q23)</f>
-        <v>27074</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18">
+        <v>65215</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1721,12 +1757,18 @@
       <c r="O24" s="1">
         <v>146</v>
       </c>
+      <c r="P24" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>10</v>
+      </c>
       <c r="R24" s="1">
         <f>SUM(F24:Q24)</f>
-        <v>3265</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1760,53 +1802,63 @@
       <c r="O25" s="27">
         <v>1168</v>
       </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
+      <c r="P25" s="27">
+        <v>1390</v>
+      </c>
+      <c r="Q25" s="27">
+        <v>247</v>
+      </c>
       <c r="R25" s="1">
         <f>SUM(F25:Q25)</f>
-        <v>9062</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18">
+        <v>10699</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F26" s="1">
-        <v>14156</v>
+        <v>13406</v>
       </c>
       <c r="G26" s="1">
-        <v>1825</v>
+        <v>1286</v>
       </c>
       <c r="H26" s="1">
-        <v>10588</v>
+        <v>10017</v>
       </c>
       <c r="I26" s="1">
-        <v>6113</v>
+        <v>5459</v>
       </c>
       <c r="J26" s="1">
-        <v>53181</v>
+        <v>52003</v>
       </c>
       <c r="K26" s="1">
-        <v>36814</v>
+        <v>32922</v>
       </c>
       <c r="L26" s="1">
-        <v>32257</v>
+        <v>28508</v>
       </c>
       <c r="M26" s="1">
-        <v>44204</v>
+        <v>37909</v>
       </c>
       <c r="N26" s="1">
-        <v>34058</v>
+        <v>27559</v>
       </c>
       <c r="O26" s="1">
-        <v>41547</v>
+        <v>37740</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2256</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>6237</v>
       </c>
       <c r="R26" s="1">
         <f>SUM(F26:Q26)</f>
-        <v>274743</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18">
+        <v>255302</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,18 +1892,24 @@
       <c r="O28" s="1">
         <v>0</v>
       </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
       <c r="R28" s="1">
         <f>SUM(F28:Q28)</f>
-        <v>464</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
@@ -1900,18 +1958,18 @@
       </c>
       <c r="P30" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>551285</v>
       </c>
       <c r="Q30" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>644175</v>
       </c>
       <c r="R30" s="7">
         <f>SUM(R31:R37)</f>
-        <v>4729921</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18">
+        <v>5925381</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1945,12 +2003,18 @@
       <c r="O31" s="1">
         <v>84378</v>
       </c>
+      <c r="P31" s="1">
+        <v>101495</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>82811</v>
+      </c>
       <c r="R31" s="1">
         <f t="shared" ref="R31:R37" si="4">SUM(F31:Q31)</f>
-        <v>839777</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18">
+        <v>1024083</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1984,12 +2048,18 @@
       <c r="O32" s="1">
         <v>55388</v>
       </c>
+      <c r="P32" s="1">
+        <v>66653</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>57979</v>
+      </c>
       <c r="R32" s="1">
         <f t="shared" si="4"/>
-        <v>638681</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19">
+        <v>763313</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>33</v>
       </c>
@@ -2023,13 +2093,19 @@
       <c r="O33" s="1">
         <v>928</v>
       </c>
+      <c r="P33" s="1">
+        <v>8318</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>7868</v>
+      </c>
       <c r="R33" s="1">
         <f t="shared" si="4"/>
-        <v>34916</v>
+        <v>51102</v>
       </c>
       <c r="S33" s="29"/>
     </row>
-    <row r="34" spans="2:19" ht="17.25" customHeight="1">
+    <row r="34" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
@@ -2063,12 +2139,18 @@
       <c r="O34" s="1">
         <v>11968</v>
       </c>
+      <c r="P34" s="1">
+        <v>12232</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>9321</v>
+      </c>
       <c r="R34" s="1">
         <f t="shared" si="4"/>
-        <v>117210</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19">
+        <v>138763</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2102,12 +2184,18 @@
       <c r="O35" s="1">
         <v>22</v>
       </c>
+      <c r="P35" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>251</v>
+      </c>
       <c r="R35" s="1">
         <f t="shared" si="4"/>
-        <v>742</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2141,12 +2229,18 @@
       <c r="O36" s="1">
         <v>3053</v>
       </c>
+      <c r="P36" s="1">
+        <v>44</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>625</v>
+      </c>
       <c r="R36" s="1">
         <f t="shared" si="4"/>
-        <v>6262</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" ht="17.25">
+        <v>6931</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
         <v>53</v>
       </c>
@@ -2180,12 +2274,18 @@
       <c r="O37" s="1">
         <v>311047</v>
       </c>
+      <c r="P37" s="1">
+        <v>362513</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>485320</v>
+      </c>
       <c r="R37" s="1">
         <f t="shared" si="4"/>
-        <v>3092333</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19">
+        <v>3940166</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
@@ -2223,25 +2323,23 @@
         <v>6340</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" ref="F39:R39" si="5">+P9-P30</f>
-        <v>0</v>
+        <v>-212973</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-329501</v>
       </c>
       <c r="R39" s="3">
-        <f t="shared" si="5"/>
-        <v>-963884</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19">
+        <f t="shared" ref="P39:R39" si="5">+R9-R30</f>
+        <v>-1506358</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>37</v>
       </c>
@@ -2258,11 +2356,11 @@
       </c>
       <c r="H41" s="7">
         <f t="shared" si="6"/>
-        <v>200475</v>
+        <v>-255314</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="6"/>
-        <v>50100</v>
+        <v>-4997</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="6"/>
@@ -2270,7 +2368,7 @@
       </c>
       <c r="K41" s="7">
         <f t="shared" si="6"/>
-        <v>140230</v>
+        <v>137743</v>
       </c>
       <c r="L41" s="7">
         <f t="shared" si="6"/>
@@ -2290,59 +2388,63 @@
       </c>
       <c r="P41" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>37994</v>
       </c>
       <c r="Q41" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>61454</v>
       </c>
       <c r="R41" s="7">
         <f t="shared" si="6"/>
-        <v>1721111</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19">
+        <v>1307186</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="48">
+      <c r="F42" s="10">
         <v>-22893</v>
       </c>
-      <c r="G42" s="48">
+      <c r="G42" s="10">
         <v>2578</v>
       </c>
-      <c r="H42" s="48">
+      <c r="H42" s="10">
         <v>44201</v>
       </c>
-      <c r="I42" s="48">
+      <c r="I42" s="10">
         <v>-32260</v>
       </c>
-      <c r="J42" s="48">
+      <c r="J42" s="10">
         <v>119815</v>
       </c>
-      <c r="K42" s="48">
+      <c r="K42" s="10">
         <v>7845</v>
       </c>
-      <c r="L42" s="48">
+      <c r="L42" s="10">
         <v>6506</v>
       </c>
-      <c r="M42" s="48">
+      <c r="M42" s="10">
         <v>-4414</v>
       </c>
-      <c r="N42" s="48">
+      <c r="N42" s="10">
         <v>202312</v>
       </c>
-      <c r="O42" s="48">
+      <c r="O42" s="10">
         <v>20338</v>
       </c>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
+      <c r="P42" s="10">
+        <v>7411</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>50439</v>
+      </c>
       <c r="R42" s="10">
-        <f t="shared" ref="F42:R42" si="7">+R43-R44</f>
-        <v>344028</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19">
+        <f t="shared" ref="R42" si="7">+R43-R44</f>
+        <v>401878</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
         <v>39</v>
       </c>
@@ -2376,12 +2478,18 @@
       <c r="O43" s="1">
         <v>61800</v>
       </c>
+      <c r="P43" s="1">
+        <v>16165</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>58759</v>
+      </c>
       <c r="R43" s="1">
         <f>SUM(F43:Q43)</f>
-        <v>566247</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19">
+        <v>641171</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>40</v>
       </c>
@@ -2415,12 +2523,18 @@
       <c r="O44" s="1">
         <v>41462</v>
       </c>
+      <c r="P44" s="1">
+        <v>8754</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>8320</v>
+      </c>
       <c r="R44" s="1">
         <f>SUM(F44:Q44)</f>
-        <v>222219</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19">
+        <v>239293</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>41</v>
       </c>
@@ -2434,11 +2548,11 @@
       </c>
       <c r="H46" s="7">
         <f t="shared" si="8"/>
-        <v>156274</v>
+        <v>-299515</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="8"/>
-        <v>82360</v>
+        <v>27263</v>
       </c>
       <c r="J46" s="7">
         <f t="shared" si="8"/>
@@ -2446,7 +2560,7 @@
       </c>
       <c r="K46" s="7">
         <f t="shared" si="8"/>
-        <v>132385</v>
+        <v>129898</v>
       </c>
       <c r="L46" s="7">
         <f t="shared" si="8"/>
@@ -2466,57 +2580,63 @@
       </c>
       <c r="P46" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>30583</v>
       </c>
       <c r="Q46" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>11015</v>
       </c>
       <c r="R46" s="7">
         <f t="shared" si="8"/>
-        <v>1377083</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19">
+        <v>905308</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="47">
+      <c r="F47" s="1">
         <v>141505</v>
       </c>
-      <c r="G47" s="47">
+      <c r="G47" s="1">
         <v>658681</v>
       </c>
-      <c r="H47" s="47">
+      <c r="H47" s="1">
         <v>156395</v>
       </c>
-      <c r="I47" s="47">
+      <c r="I47" s="1">
         <v>82360</v>
       </c>
-      <c r="J47" s="47">
+      <c r="J47" s="1">
         <v>131721</v>
       </c>
-      <c r="K47" s="47">
+      <c r="K47" s="1">
         <v>132476</v>
       </c>
-      <c r="L47" s="47">
+      <c r="L47" s="1">
         <v>180602</v>
       </c>
-      <c r="M47" s="47">
+      <c r="M47" s="1">
         <v>167045</v>
       </c>
-      <c r="N47" s="47">
+      <c r="N47" s="1">
         <v>145200</v>
       </c>
-      <c r="O47" s="47">
+      <c r="O47" s="1">
         <v>67464</v>
+      </c>
+      <c r="P47" s="1">
+        <v>48880</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>11015</v>
       </c>
       <c r="R47" s="1">
         <f>SUM(F47:Q47)</f>
-        <v>1863449</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19">
+        <v>1923344</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="s">
         <v>43</v>
       </c>
@@ -2530,11 +2650,11 @@
       </c>
       <c r="H48" s="11">
         <f t="shared" si="9"/>
-        <v>121</v>
+        <v>455910</v>
       </c>
       <c r="I48" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>55097</v>
       </c>
       <c r="J48" s="11">
         <f t="shared" si="9"/>
@@ -2542,7 +2662,7 @@
       </c>
       <c r="K48" s="11">
         <f t="shared" si="9"/>
-        <v>91</v>
+        <v>2578</v>
       </c>
       <c r="L48" s="11">
         <f t="shared" si="9"/>
@@ -2562,7 +2682,7 @@
       </c>
       <c r="P48" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>18297</v>
       </c>
       <c r="Q48" s="11">
         <f t="shared" si="9"/>
@@ -2570,77 +2690,65 @@
       </c>
       <c r="R48" s="11">
         <f t="shared" si="9"/>
-        <v>486366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>1018036</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="47">
+      <c r="F49" s="1">
         <v>138</v>
       </c>
-      <c r="G49" s="47">
+      <c r="G49" s="1">
         <v>243625</v>
       </c>
-      <c r="H49" s="47">
+      <c r="H49" s="1">
         <v>455910</v>
       </c>
-      <c r="I49" s="47">
+      <c r="I49" s="1">
         <v>55097</v>
       </c>
-      <c r="J49" s="47">
+      <c r="J49" s="1">
         <v>85</v>
       </c>
-      <c r="K49" s="47">
+      <c r="K49" s="1">
         <v>2578</v>
       </c>
-      <c r="L49" s="47">
+      <c r="L49" s="1">
         <v>185</v>
       </c>
-      <c r="M49" s="47">
+      <c r="M49" s="1">
         <v>122034</v>
       </c>
-      <c r="N49" s="47">
+      <c r="N49" s="1">
         <v>87</v>
       </c>
-      <c r="O49" s="47">
+      <c r="O49" s="1">
         <v>120000</v>
+      </c>
+      <c r="P49" s="1">
+        <v>18297</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
       </c>
       <c r="R49" s="1">
         <f t="shared" ref="R49:R50" si="10">SUM(F49:Q49)</f>
-        <v>999739</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>1018036</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E50" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <v>455789</v>
-      </c>
-      <c r="I50" s="1">
-        <v>55097</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
-        <v>2487</v>
-      </c>
       <c r="R50" s="1">
         <f t="shared" si="10"/>
-        <v>513373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="14.25" customHeight="1"/>
-    <row r="52" spans="1:21" s="3" customFormat="1" ht="16.5" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:21" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>45</v>
       </c>
@@ -2662,21 +2770,39 @@
       <c r="K52" s="3">
         <v>-222639</v>
       </c>
+      <c r="L52" s="3">
+        <v>72216</v>
+      </c>
+      <c r="M52" s="3">
+        <v>-73644</v>
+      </c>
+      <c r="N52" s="3">
+        <v>806</v>
+      </c>
+      <c r="O52" s="3">
+        <v>-104079</v>
+      </c>
+      <c r="P52" s="3">
+        <v>-261000</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>-370042</v>
+      </c>
       <c r="R52" s="3">
         <f>SUM(F52:Q52)</f>
-        <v>506130</v>
+        <v>-229613</v>
       </c>
       <c r="S52" s="25"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" thickBot="1">
+    <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:21" s="14" customFormat="1" ht="15.75" thickTop="1">
+    <row r="54" spans="1:21" s="14" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>46</v>
       </c>
@@ -2698,7 +2824,7 @@
       <c r="Q54" s="23"/>
       <c r="S54" s="25"/>
     </row>
-    <row r="55" spans="1:21" s="14" customFormat="1" ht="57.75" customHeight="1">
+    <row r="55" spans="1:21" s="14" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="43" t="s">
         <v>57</v>
@@ -2720,7 +2846,7 @@
       <c r="Q55" s="24"/>
       <c r="S55" s="25"/>
     </row>
-    <row r="56" spans="1:21" s="14" customFormat="1" ht="14.25" customHeight="1">
+    <row r="56" spans="1:21" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>60</v>
       </c>
@@ -2744,7 +2870,7 @@
       <c r="Q56" s="24"/>
       <c r="S56" s="25"/>
     </row>
-    <row r="57" spans="1:21" s="34" customFormat="1" ht="12.75">
+    <row r="57" spans="1:21" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
         <v>62</v>
       </c>
@@ -2752,13 +2878,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="34" customFormat="1" ht="12.75">
+    <row r="58" spans="1:21" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="35"/>
       <c r="B58" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="14" customFormat="1">
+    <row r="59" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
         <v>47</v>
       </c>
@@ -2782,7 +2908,7 @@
       <c r="Q59" s="23"/>
       <c r="S59" s="25"/>
     </row>
-    <row r="60" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -2802,7 +2928,7 @@
       <c r="Q60" s="41"/>
       <c r="S60" s="25"/>
     </row>
-    <row r="61" spans="1:21" s="14" customFormat="1">
+    <row r="61" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>49</v>
       </c>
@@ -2824,7 +2950,7 @@
       <c r="Q61" s="23"/>
       <c r="S61" s="25"/>
     </row>
-    <row r="62" spans="1:21" ht="11.25" customHeight="1">
+    <row r="62" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
         <v>65</v>
       </c>
@@ -2846,13 +2972,13 @@
       <c r="Q62" s="23"/>
       <c r="U62" s="21"/>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:21" ht="21" customHeight="1">
+    <row r="64" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
     </row>
-    <row r="70" spans="6:10">
+    <row r="70" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -2889,7 +3015,7 @@
       <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.5703125" style="1" customWidth="1"/>
@@ -2906,8 +3032,8 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="6" customHeight="1"/>
-    <row r="2" spans="1:19">
+    <row r="1" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2916,7 +3042,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2925,16 +3051,16 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="6" customHeight="1"/>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3109,8 @@
       </c>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="6.75" customHeight="1" thickTop="1"/>
-    <row r="9" spans="1:19">
+    <row r="8" spans="1:19" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -3031,7 +3157,7 @@
         <v>3824105.06</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3075,7 +3201,7 @@
         <v>3429292</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
@@ -3119,12 +3245,12 @@
         <v>2516986</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3168,7 +3294,7 @@
         <v>17273</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
@@ -3212,8 +3338,8 @@
         <v>7391</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="6" customHeight="1"/>
-    <row r="16" spans="1:19">
+    <row r="15" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
@@ -3257,12 +3383,12 @@
         <v>883214</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3306,7 +3432,7 @@
         <v>7034</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3350,7 +3476,7 @@
         <v>29092</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3394,7 +3520,7 @@
         <v>394163.81</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3438,7 +3564,7 @@
         <v>227638</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3483,7 +3609,7 @@
         <v>68555</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3527,7 +3653,7 @@
         <v>864.81</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3571,7 +3697,7 @@
         <v>17774</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3616,7 +3742,7 @@
         <v>79332</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -3660,7 +3786,7 @@
         <v>649.25</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
@@ -3707,7 +3833,7 @@
         <v>5336191</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>31</v>
       </c>
@@ -3751,7 +3877,7 @@
         <v>926052</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
@@ -3795,7 +3921,7 @@
         <v>628333</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>33</v>
       </c>
@@ -3839,7 +3965,7 @@
         <v>31698</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="17.25" customHeight="1">
+    <row r="34" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
@@ -3883,7 +4009,7 @@
         <v>163535</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3927,7 +4053,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3971,7 +4097,7 @@
         <v>26809</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="17.25">
+    <row r="37" spans="2:18" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
         <v>53</v>
       </c>
@@ -4015,7 +4141,7 @@
         <v>3559255</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
@@ -4062,7 +4188,7 @@
         <v>-1512085.94</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>37</v>
       </c>
@@ -4109,7 +4235,7 @@
         <v>2070852</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>38</v>
       </c>
@@ -4153,7 +4279,7 @@
         <v>437922</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
         <v>39</v>
       </c>
@@ -4197,7 +4323,7 @@
         <v>559035</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>40</v>
       </c>
@@ -4241,7 +4367,7 @@
         <v>121113</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>41</v>
       </c>
@@ -4285,7 +4411,7 @@
         <v>1632930</v>
       </c>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>42</v>
       </c>
@@ -4329,7 +4455,7 @@
         <v>1634230</v>
       </c>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="s">
         <v>43</v>
       </c>
@@ -4373,7 +4499,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
         <v>44</v>
       </c>
@@ -4417,7 +4543,7 @@
         <v>822493</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E50" s="12" t="s">
         <v>54</v>
       </c>
@@ -4461,8 +4587,8 @@
         <v>821193</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="14.25" customHeight="1"/>
-    <row r="52" spans="1:21" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="51" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:21" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>45</v>
       </c>
@@ -4507,20 +4633,20 @@
       </c>
       <c r="S52" s="2"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" thickBot="1">
+    <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:21" s="14" customFormat="1" ht="15.75" thickTop="1">
+    <row r="54" spans="1:21" s="14" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>46</v>
       </c>
       <c r="S54" s="2"/>
     </row>
-    <row r="55" spans="1:21" s="14" customFormat="1" ht="72" customHeight="1">
+    <row r="55" spans="1:21" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="45" t="s">
         <v>55</v>
       </c>
@@ -4530,7 +4656,7 @@
       <c r="F55" s="45"/>
       <c r="S55" s="2"/>
     </row>
-    <row r="56" spans="1:21" s="14" customFormat="1" ht="18.75" customHeight="1">
+    <row r="56" spans="1:21" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>47</v>
       </c>
@@ -4542,7 +4668,7 @@
       <c r="E56" s="18"/>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1">
+    <row r="57" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -4551,13 +4677,13 @@
       <c r="F57" s="20"/>
       <c r="S57" s="2"/>
     </row>
-    <row r="58" spans="1:21" s="14" customFormat="1">
+    <row r="58" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>49</v>
       </c>
       <c r="S58" s="2"/>
     </row>
-    <row r="59" spans="1:21" ht="17.25">
+    <row r="59" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A59" s="46">
         <v>45351</v>
       </c>
@@ -4567,10 +4693,10 @@
       <c r="E59" s="46"/>
       <c r="U59" s="21"/>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:21" ht="21" customHeight="1">
+    <row r="61" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
     </row>
   </sheetData>

--- a/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
+++ b/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD0E1A8-6343-4724-BFFB-205113BA142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F782E1-78B2-4F28-B16D-2F3F6164322D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1620" windowWidth="15270" windowHeight="11610" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="2640" windowWidth="15270" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="7" r:id="rId1"/>
+    <sheet name="2025" sheetId="8" r:id="rId1"/>
     <sheet name="2024" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024'!$A$1:$R$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$J$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$M$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
     <t>National Government Cash Operations Report</t>
   </si>
@@ -292,9 +292,6 @@
     <t>under Other non-tax</t>
   </si>
   <si>
-    <t>last update: 27May2025</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">National Government Cash Operations Report </t>
     </r>
@@ -333,21 +330,38 @@
   <si>
     <t>/p - preliminary</t>
   </si>
+  <si>
+    <t>r/</t>
+  </si>
+  <si>
+    <t>Amount was adjusted due to trust transactions</t>
+  </si>
+  <si>
+    <t>last update: 24Jul2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -527,6 +541,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -614,138 +634,148 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="15" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="17" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="18">
     <cellStyle name="Comma 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Comma 2 2 2" xfId="6" xr:uid="{316EF1F3-87B8-4212-B42E-91E40F9601CC}"/>
     <cellStyle name="Comma 2 3" xfId="12" xr:uid="{A323E488-C975-424C-8867-3DAD3DC4AF99}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 12" xfId="13" xr:uid="{D9EC683E-DA6E-4EA6-85F5-586C68E560DD}"/>
+    <cellStyle name="Normal 13" xfId="15" xr:uid="{25BFFD84-19E7-4D21-A504-C55E25157922}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{CC40DCED-81E4-45E1-B541-BC41D891AD51}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{4F275485-B963-4E72-8BE5-86E1800D47D3}"/>
     <cellStyle name="Normal 4" xfId="7" xr:uid="{75E7C744-4043-4B95-AE73-33B193975405}"/>
     <cellStyle name="Normal 5" xfId="8" xr:uid="{AA72682D-3057-4B91-83A3-DCBCB24B7F18}"/>
+    <cellStyle name="Normal 5 2 2" xfId="17" xr:uid="{17D907FA-2467-4F2D-ACB6-C3CBC091FD19}"/>
     <cellStyle name="Normal 6" xfId="10" xr:uid="{6498073A-B325-42FE-BCF6-322BDFAC2AE9}"/>
     <cellStyle name="Normal 8" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Percent 2" xfId="9" xr:uid="{D6161192-6F76-4FE6-B8A2-4B4E2125C43B}"/>
     <cellStyle name="Percent 3" xfId="11" xr:uid="{69EEC053-3F5E-45D9-855B-307A7D12AF2B}"/>
     <cellStyle name="Percent 4" xfId="14" xr:uid="{F361EEBA-FB6A-41F4-A6EB-9EE9284D93C2}"/>
+    <cellStyle name="Percent 5" xfId="16" xr:uid="{50A08724-2827-46DD-A4C2-518761174053}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1144,17 +1174,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27914833-A57E-4FB1-8718-7C0F7E4CEDEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31739037-2D3B-4B4D-B276-768FC93CF895}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38:H38"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,68 +1194,79 @@
     <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
-    <col min="6" max="10" width="11.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="39" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="11.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="43" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="35"/>
+      <c r="J6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="K6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="39"/>
-    </row>
-    <row r="7" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N6" s="43"/>
+    </row>
+    <row r="7" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1233,70 +1274,92 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6">
-        <v>467146.65</v>
+        <v>467146.75143367</v>
       </c>
       <c r="G8" s="6">
-        <v>251766.92636559001</v>
+        <v>251767.16418879002</v>
       </c>
       <c r="H8" s="6">
-        <v>279253</v>
-      </c>
-      <c r="I8" s="6">
-        <v>522055.42</v>
-      </c>
+        <v>279252.98155321996</v>
+      </c>
+      <c r="I8" s="6"/>
       <c r="J8" s="6">
-        <v>1520221.99636559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>522055.02111403999</v>
+      </c>
+      <c r="K8" s="6">
+        <v>433090.04751621</v>
+      </c>
+      <c r="L8" s="6">
+        <v>306906</v>
+      </c>
+      <c r="M8" s="6">
+        <v>2260217.9658059301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="6">
-        <v>437534.65</v>
+        <v>437534.75143367</v>
       </c>
       <c r="G9" s="6">
-        <v>234346.92636559001</v>
+        <v>234347.16418879002</v>
       </c>
       <c r="H9" s="6">
-        <v>259630</v>
-      </c>
-      <c r="I9" s="6">
-        <v>497980.42</v>
-      </c>
+        <v>259629.98155321999</v>
+      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="6">
-        <v>1429491.99636559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>497980.02111403999</v>
+      </c>
+      <c r="K9" s="6">
+        <v>322895.33751620998</v>
+      </c>
+      <c r="L9" s="6">
+        <v>280115</v>
+      </c>
+      <c r="M9" s="6">
+        <v>2032502.2558059301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1">
-        <v>355095.65</v>
+        <v>355095.75143367</v>
       </c>
       <c r="G10" s="1">
-        <v>159652.92636559001</v>
+        <v>159653.16418879002</v>
       </c>
       <c r="H10" s="1">
-        <v>175660</v>
-      </c>
-      <c r="I10" s="1">
-        <v>420527.42</v>
+        <v>175659.98155321999</v>
       </c>
       <c r="J10" s="1">
-        <v>1110935.99636559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>420527.02111403999</v>
+      </c>
+      <c r="K10" s="1">
+        <v>242704.33751620998</v>
+      </c>
+      <c r="L10" s="1">
+        <v>200524</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1554164.2558059301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1309,14 +1372,21 @@
       <c r="H12" s="7">
         <v>131</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7">
         <v>5885</v>
       </c>
-      <c r="J12" s="7">
-        <v>7228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="7">
+        <v>1764</v>
+      </c>
+      <c r="L12" s="7">
+        <v>3433</v>
+      </c>
+      <c r="M12" s="7">
+        <v>12425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1329,15 +1399,21 @@
       <c r="H13" s="1">
         <v>157</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>15</v>
       </c>
-      <c r="J13" s="1">
-        <v>8102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <v>63</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2815</v>
+      </c>
+      <c r="M13" s="1">
+        <v>10980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,19 +1426,26 @@
       <c r="H15" s="46">
         <v>80359</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="46"/>
+      <c r="J15" s="46">
         <v>74701</v>
       </c>
-      <c r="J15" s="46">
-        <v>306079</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="46">
+        <v>75657</v>
+      </c>
+      <c r="L15" s="46">
+        <v>77035</v>
+      </c>
+      <c r="M15" s="46">
+        <v>458771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1375,14 +1458,21 @@
       <c r="H17" s="7">
         <v>1800</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7">
         <v>298</v>
       </c>
-      <c r="J17" s="7">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="7">
+        <v>267</v>
+      </c>
+      <c r="L17" s="7">
+        <v>231</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1395,14 +1485,21 @@
       <c r="H18" s="46">
         <v>3611</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="46"/>
+      <c r="J18" s="46">
         <v>2752</v>
       </c>
-      <c r="J18" s="46">
-        <v>12477</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="46">
+        <v>4534</v>
+      </c>
+      <c r="L18" s="46">
+        <v>2556</v>
+      </c>
+      <c r="M18" s="46">
+        <v>19567</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1415,134 +1512,183 @@
       <c r="H20" s="6">
         <v>19623</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
         <v>24075</v>
       </c>
-      <c r="J20" s="6">
-        <v>90730</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="6">
+        <v>110194.71</v>
+      </c>
+      <c r="L20" s="6">
+        <v>26791</v>
+      </c>
+      <c r="M20" s="6">
+        <v>227715.71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="34">
         <v>15744</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="34">
         <v>7921</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="34">
         <v>8676</v>
       </c>
-      <c r="I21" s="37">
-        <v>14453</v>
-      </c>
-      <c r="J21" s="1">
-        <v>46794</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="34"/>
+      <c r="J21" s="34">
+        <v>13837</v>
+      </c>
+      <c r="K21" s="34">
+        <v>83022</v>
+      </c>
+      <c r="L21" s="34">
+        <v>16066</v>
+      </c>
+      <c r="M21" s="1">
+        <v>145266</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="37">
-        <v>1275</v>
-      </c>
-      <c r="G22" s="37">
-        <v>1124</v>
-      </c>
-      <c r="H22" s="37">
-        <v>1212</v>
-      </c>
-      <c r="I22" s="37">
-        <v>1155</v>
-      </c>
-      <c r="J22" s="14">
-        <v>4766</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="34">
+        <v>1979</v>
+      </c>
+      <c r="G22" s="34">
+        <v>1067</v>
+      </c>
+      <c r="H22" s="34">
+        <v>1577</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34">
+        <v>1700</v>
+      </c>
+      <c r="K22" s="34">
+        <v>1188</v>
+      </c>
+      <c r="L22" s="34">
+        <v>664</v>
+      </c>
+      <c r="M22" s="14">
+        <v>8175</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="34">
         <v>0</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="34">
         <v>19</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="34">
         <v>302</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="34"/>
+      <c r="J23" s="34">
         <v>155</v>
       </c>
-      <c r="J23" s="1">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="34">
+        <v>776.71</v>
+      </c>
+      <c r="L23" s="34">
+        <v>13</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1265.71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="34">
         <v>433</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="34">
         <v>593</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="34">
         <v>986</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="34"/>
+      <c r="J24" s="34">
         <v>932</v>
       </c>
-      <c r="J24" s="1">
-        <v>2944</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="34">
+        <v>569</v>
+      </c>
+      <c r="L24" s="34">
+        <v>537</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="37">
-        <v>12160</v>
-      </c>
-      <c r="G25" s="37">
-        <v>7697</v>
-      </c>
-      <c r="H25" s="37">
-        <v>8446</v>
-      </c>
-      <c r="I25" s="37">
-        <v>7204</v>
-      </c>
-      <c r="J25" s="1">
-        <v>35507</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F25" s="34">
+        <v>11456</v>
+      </c>
+      <c r="G25" s="34">
+        <v>7754</v>
+      </c>
+      <c r="H25" s="34">
+        <v>8081</v>
+      </c>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34">
+        <v>7275</v>
+      </c>
+      <c r="K25" s="34">
+        <v>24639</v>
+      </c>
+      <c r="L25" s="34">
+        <v>9503</v>
+      </c>
+      <c r="M25" s="1">
+        <v>68708</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="34">
         <v>0</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="34">
         <v>66</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="34">
         <v>1</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="34"/>
+      <c r="J26" s="34">
         <v>176</v>
       </c>
-      <c r="J26" s="1">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="34">
+        <v>0</v>
+      </c>
+      <c r="L26" s="34">
+        <v>8</v>
+      </c>
+      <c r="M26" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1556,16 +1702,25 @@
         <v>423211</v>
       </c>
       <c r="H29" s="6">
-        <v>654984</v>
-      </c>
-      <c r="I29" s="6">
+        <v>622200</v>
+      </c>
+      <c r="I29" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="6">
         <v>454756</v>
       </c>
-      <c r="J29" s="6">
-        <v>1931736</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="6">
+        <v>578241</v>
+      </c>
+      <c r="L29" s="6">
+        <v>548518</v>
+      </c>
+      <c r="M29" s="6">
+        <v>3025711</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1578,14 +1733,20 @@
       <c r="H30" s="1">
         <v>101127</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>93115</v>
       </c>
-      <c r="J30" s="1">
-        <v>382370</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="1">
+        <v>93409</v>
+      </c>
+      <c r="L30" s="1">
+        <v>95520</v>
+      </c>
+      <c r="M30" s="1">
+        <v>571299</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,14 +1759,20 @@
       <c r="H31" s="1">
         <v>88121</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>46446</v>
       </c>
-      <c r="J31" s="1">
-        <v>287447</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="1">
+        <v>69954</v>
+      </c>
+      <c r="L31" s="1">
+        <v>57420</v>
+      </c>
+      <c r="M31" s="1">
+        <v>414821</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1618,15 +1785,21 @@
       <c r="H32" s="1">
         <v>2088</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>6198</v>
       </c>
-      <c r="J32" s="1">
-        <v>17457</v>
-      </c>
-      <c r="K32" s="47"/>
-    </row>
-    <row r="33" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="1">
+        <v>2094</v>
+      </c>
+      <c r="L32" s="1">
+        <v>6479</v>
+      </c>
+      <c r="M32" s="1">
+        <v>26030</v>
+      </c>
+      <c r="N32" s="48"/>
+    </row>
+    <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>49</v>
       </c>
@@ -1639,14 +1812,20 @@
       <c r="H33" s="1">
         <v>10630</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>14544</v>
       </c>
-      <c r="J33" s="1">
-        <v>37133</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="1">
+        <v>7916</v>
+      </c>
+      <c r="L33" s="1">
+        <v>7449</v>
+      </c>
+      <c r="M33" s="1">
+        <v>52498</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>31</v>
       </c>
@@ -1659,14 +1838,20 @@
       <c r="H34" s="1">
         <v>811</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>31</v>
       </c>
-      <c r="J34" s="1">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="1">
+        <v>74</v>
+      </c>
+      <c r="L34" s="1">
+        <v>69</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1679,14 +1864,20 @@
       <c r="H35" s="1">
         <v>555</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>763</v>
       </c>
-      <c r="J35" s="1">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K35" s="1">
+        <v>549</v>
+      </c>
+      <c r="L35" s="1">
+        <v>406</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
         <v>50</v>
       </c>
@@ -1697,16 +1888,22 @@
         <v>255957</v>
       </c>
       <c r="H36" s="1">
-        <v>451652</v>
-      </c>
-      <c r="I36" s="1">
+        <v>418868</v>
+      </c>
+      <c r="J36" s="1">
         <v>293659</v>
       </c>
-      <c r="J36" s="1">
-        <v>1205121</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="1">
+        <v>404245</v>
+      </c>
+      <c r="L36" s="1">
+        <v>381175</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1957757</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
@@ -1714,27 +1911,38 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2">
-        <v>68361.650000000023</v>
+        <v>68361.751433669997</v>
       </c>
       <c r="G38" s="2">
-        <v>-171444.07363440999</v>
+        <v>-171443.83581120998</v>
       </c>
       <c r="H38" s="2">
-        <v>-375731</v>
-      </c>
-      <c r="I38" s="2">
-        <v>67299.419999999984</v>
+        <v>-342947.01844678004</v>
+      </c>
+      <c r="I38" s="47" t="s">
+        <v>74</v>
       </c>
       <c r="J38" s="2">
-        <v>-411514.00363440998</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+        <v>67299.021114039992</v>
+      </c>
+      <c r="K38" s="2">
+        <v>-145150.95248379</v>
+      </c>
+      <c r="L38" s="2">
+        <v>-241612</v>
+      </c>
+      <c r="M38" s="2">
+        <v>-765493.03419406991</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>34</v>
       </c>
@@ -1750,14 +1958,21 @@
       <c r="H40" s="6">
         <v>97212</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="6"/>
+      <c r="J40" s="6">
         <v>155608</v>
       </c>
-      <c r="J40" s="6">
-        <v>799728</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="6">
+        <v>182212</v>
+      </c>
+      <c r="L40" s="6">
+        <v>256270</v>
+      </c>
+      <c r="M40" s="6">
+        <v>1238210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>35</v>
       </c>
@@ -1770,14 +1985,21 @@
       <c r="H41" s="8">
         <v>-60450</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="8"/>
+      <c r="J41" s="8">
         <v>-59275</v>
       </c>
-      <c r="J41" s="8">
-        <v>134621</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="8">
+        <v>-3846</v>
+      </c>
+      <c r="L41" s="8">
+        <v>88745</v>
+      </c>
+      <c r="M41" s="8">
+        <v>219520</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
         <v>36</v>
       </c>
@@ -1790,14 +2012,20 @@
       <c r="H42" s="1">
         <v>34650</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>5350</v>
       </c>
-      <c r="J42" s="1">
-        <v>299692</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="1">
+        <v>6247</v>
+      </c>
+      <c r="L42" s="1">
+        <v>96412</v>
+      </c>
+      <c r="M42" s="1">
+        <v>402351</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
         <v>37</v>
       </c>
@@ -1810,14 +2038,20 @@
       <c r="H43" s="1">
         <v>95100</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>64625</v>
       </c>
-      <c r="J43" s="1">
-        <v>165071</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="1">
+        <v>10093</v>
+      </c>
+      <c r="L43" s="1">
+        <v>7667</v>
+      </c>
+      <c r="M43" s="1">
+        <v>182831</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1830,14 +2064,21 @@
       <c r="H45" s="6">
         <v>157662</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="6"/>
+      <c r="J45" s="6">
         <v>214883</v>
       </c>
-      <c r="J45" s="6">
-        <v>665107</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="6">
+        <v>186058</v>
+      </c>
+      <c r="L45" s="6">
+        <v>167525</v>
+      </c>
+      <c r="M45" s="6">
+        <v>1018690</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1850,37 +2091,50 @@
       <c r="H46" s="1">
         <v>157800</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <v>384710</v>
       </c>
-      <c r="J46" s="1">
-        <v>835510</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="1">
+        <v>186058</v>
+      </c>
+      <c r="L46" s="1">
+        <v>167579</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1189147</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="37">
+        <v>317</v>
+      </c>
+      <c r="G47" s="37">
+        <v>121</v>
+      </c>
+      <c r="H47" s="37">
+        <v>138</v>
+      </c>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37">
+        <v>169827</v>
+      </c>
+      <c r="K47" s="37">
+        <v>0</v>
+      </c>
+      <c r="L47" s="37">
+        <v>54</v>
+      </c>
+      <c r="M47" s="37">
+        <v>170457</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F47" s="48">
-        <v>317</v>
-      </c>
-      <c r="G47" s="48">
-        <v>121</v>
-      </c>
-      <c r="H47" s="48">
-        <v>138</v>
-      </c>
-      <c r="I47" s="48">
-        <v>169827</v>
-      </c>
-      <c r="J47" s="48">
-        <v>170403</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:13" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F49" s="2">
         <v>1230828</v>
@@ -1891,23 +2145,29 @@
       <c r="H49" s="2">
         <v>-325560</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="2">
         <v>188934</v>
       </c>
-      <c r="J49" s="2">
-        <v>1204950</v>
-      </c>
-      <c r="K49" s="39"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K49" s="2">
+        <v>-23410</v>
+      </c>
+      <c r="L49" s="2">
+        <v>-90087</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1091453</v>
+      </c>
+      <c r="N49" s="43"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
     </row>
-    <row r="51" spans="1:13" s="12" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="12" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>43</v>
       </c>
@@ -1919,58 +2179,70 @@
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
-      <c r="K51" s="39"/>
-    </row>
-    <row r="52" spans="1:13" s="12" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="N51" s="43"/>
+    </row>
+    <row r="52" spans="1:16" s="12" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
+      <c r="B52" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
-      <c r="K52" s="39"/>
-    </row>
-    <row r="53" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="N52" s="43"/>
+    </row>
+    <row r="53" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="49"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
-      <c r="K53" s="39"/>
-    </row>
-    <row r="54" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="N53" s="43"/>
+    </row>
+    <row r="54" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="49"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
-      <c r="K54" s="39"/>
-    </row>
-    <row r="55" spans="1:13" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="N54" s="43"/>
+    </row>
+    <row r="55" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="16"/>
@@ -1979,99 +2251,138 @@
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="K55" s="39"/>
-    </row>
-    <row r="56" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="N55" s="43"/>
+    </row>
+    <row r="56" spans="1:16" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="53"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
-      <c r="K56" s="39"/>
-    </row>
-    <row r="57" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="N56" s="43"/>
+    </row>
+    <row r="57" spans="1:16" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="53"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
-      <c r="K57" s="39"/>
-    </row>
-    <row r="58" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="K58" s="39"/>
-    </row>
-    <row r="59" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="N57" s="43"/>
+    </row>
+    <row r="58" spans="1:16" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="N58" s="43"/>
+    </row>
+    <row r="59" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="N59" s="43"/>
+    </row>
+    <row r="60" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="K59" s="39"/>
-    </row>
-    <row r="60" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
-      <c r="M60" s="13"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-    </row>
-    <row r="62" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-    </row>
-    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="N60" s="43"/>
+    </row>
+    <row r="61" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="P61" s="13"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+    </row>
+    <row r="69" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B52:F52"/>
-    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A61:E61"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;C&amp;"-,Bold"&amp;10BUREAU OF THE TREASURY&amp;11
 &amp;"-,Italic"&amp;9 Statistical Data Analysis Division</oddHeader>
@@ -2141,13 +2452,13 @@
     </row>
     <row r="6" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:19" s="5" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
@@ -3842,13 +4153,13 @@
     </row>
     <row r="55" spans="1:21" s="12" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
@@ -3967,13 +4278,13 @@
       <c r="S61" s="17"/>
     </row>
     <row r="62" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>

--- a/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
+++ b/Data/Fiscal Data/BTr-NG-COR-Latest.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F782E1-78B2-4F28-B16D-2F3F6164322D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EBD880-7A49-4942-A85F-4EFC9522CB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="2640" windowWidth="15270" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="14715" windowHeight="11520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="8" r:id="rId1"/>
+    <sheet name="2025" sheetId="9" r:id="rId1"/>
     <sheet name="2024" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024'!$A$1:$R$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$P$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>National Government Cash Operations Report</t>
   </si>
@@ -313,21 +313,12 @@
     <t>Less: Amortization**</t>
   </si>
   <si>
-    <t>Change-In-Cash***</t>
-  </si>
-  <si>
     <t>This version recognizes the actual domestic amortization including those serviced by the BSF to reflect the actual net borrowings of NG, consistent with BESF format.</t>
   </si>
   <si>
     <t>Domestic amortization includes principal repayments to creditor including those serviced by the BSF</t>
   </si>
   <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>Includes non-budgetary cash transactions</t>
-  </si>
-  <si>
     <t>/p - preliminary</t>
   </si>
   <si>
@@ -337,7 +328,10 @@
     <t>Amount was adjusted due to trust transactions</t>
   </si>
   <si>
-    <t>last update: 24Jul2025</t>
+    <t>Budgetary Change-In-Cash</t>
+  </si>
+  <si>
+    <t>last update: 23Oct2025</t>
   </si>
 </sst>
 </file>
@@ -349,12 +343,19 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -548,7 +549,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +565,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,130 +641,135 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="17" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="15" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="15" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="15" applyFont="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="18"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="18" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="17" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="20">
     <cellStyle name="Comma 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Comma 2 2 2" xfId="6" xr:uid="{316EF1F3-87B8-4212-B42E-91E40F9601CC}"/>
     <cellStyle name="Comma 2 3" xfId="12" xr:uid="{A323E488-C975-424C-8867-3DAD3DC4AF99}"/>
@@ -771,11 +783,13 @@
     <cellStyle name="Normal 5" xfId="8" xr:uid="{AA72682D-3057-4B91-83A3-DCBCB24B7F18}"/>
     <cellStyle name="Normal 5 2 2" xfId="17" xr:uid="{17D907FA-2467-4F2D-ACB6-C3CBC091FD19}"/>
     <cellStyle name="Normal 6" xfId="10" xr:uid="{6498073A-B325-42FE-BCF6-322BDFAC2AE9}"/>
+    <cellStyle name="Normal 7" xfId="18" xr:uid="{34D92176-AF6C-414B-815D-D9936BA17AB4}"/>
     <cellStyle name="Normal 8" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Percent 2" xfId="9" xr:uid="{D6161192-6F76-4FE6-B8A2-4B4E2125C43B}"/>
     <cellStyle name="Percent 3" xfId="11" xr:uid="{69EEC053-3F5E-45D9-855B-307A7D12AF2B}"/>
     <cellStyle name="Percent 4" xfId="14" xr:uid="{F361EEBA-FB6A-41F4-A6EB-9EE9284D93C2}"/>
     <cellStyle name="Percent 5" xfId="16" xr:uid="{50A08724-2827-46DD-A4C2-518761174053}"/>
+    <cellStyle name="Percent 6" xfId="19" xr:uid="{AFA7A03B-4E8B-401C-BB77-F4F6A908A7E1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1174,17 +1188,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31739037-2D3B-4B4D-B276-768FC93CF895}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81529D8-419E-49D8-A37A-99625DD64E40}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,13 +1210,13 @@
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
     <col min="6" max="8" width="11.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.140625" style="1" customWidth="1"/>
-    <col min="10" max="13" width="11.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="43" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="16" width="11.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="45" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
@@ -1211,7 +1225,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
@@ -1220,27 +1234,27 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-    </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+    </row>
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="35" t="s">
         <v>3</v>
       </c>
@@ -1250,7 +1264,7 @@
       <c r="H6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="35" t="s">
         <v>6</v>
       </c>
@@ -1260,13 +1274,22 @@
       <c r="L6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="43"/>
-    </row>
-    <row r="7" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q6" s="45"/>
+    </row>
+    <row r="7" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1274,92 +1297,119 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6">
-        <v>467146.75143367</v>
+        <v>467146.92</v>
       </c>
       <c r="G8" s="6">
-        <v>251767.16418879002</v>
+        <v>251767.44</v>
       </c>
       <c r="H8" s="6">
-        <v>279252.98155321996</v>
+        <v>279252.71999999997</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6">
-        <v>522055.02111403999</v>
+        <v>522055</v>
       </c>
       <c r="K8" s="6">
-        <v>433090.04751621</v>
+        <v>433089.64</v>
       </c>
       <c r="L8" s="6">
-        <v>306906</v>
+        <v>306906.45999999996</v>
       </c>
       <c r="M8" s="6">
-        <v>2260217.9658059301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>472275.61000540009</v>
+      </c>
+      <c r="N8" s="6">
+        <v>352515</v>
+      </c>
+      <c r="O8" s="6">
+        <v>281716</v>
+      </c>
+      <c r="P8" s="6">
+        <v>3366724.7900053998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="6">
-        <v>437534.75143367</v>
+        <v>437534.92</v>
       </c>
       <c r="G9" s="6">
-        <v>234347.16418879002</v>
+        <v>234347.44</v>
       </c>
       <c r="H9" s="6">
-        <v>259629.98155321999</v>
+        <v>259629.72</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6">
-        <v>497980.02111403999</v>
+        <v>497980</v>
       </c>
       <c r="K9" s="6">
-        <v>322895.33751620998</v>
+        <v>322894.93</v>
       </c>
       <c r="L9" s="6">
-        <v>280115</v>
+        <v>280115.45999999996</v>
       </c>
       <c r="M9" s="6">
-        <v>2032502.2558059301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>422994.61000540009</v>
+      </c>
+      <c r="N9" s="6">
+        <v>331233</v>
+      </c>
+      <c r="O9" s="6">
+        <v>265903</v>
+      </c>
+      <c r="P9" s="6">
+        <v>3052633.0800053999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1">
-        <v>355095.75143367</v>
+        <v>355095.92</v>
       </c>
       <c r="G10" s="1">
-        <v>159653.16418879002</v>
+        <v>159653.44</v>
       </c>
       <c r="H10" s="1">
-        <v>175659.98155321999</v>
+        <v>175659.72</v>
       </c>
       <c r="J10" s="1">
-        <v>420527.02111403999</v>
+        <v>420527</v>
       </c>
       <c r="K10" s="1">
-        <v>242704.33751620998</v>
+        <v>242703.93</v>
       </c>
       <c r="L10" s="1">
-        <v>200524</v>
+        <v>200524.46</v>
       </c>
       <c r="M10" s="1">
-        <v>1554164.2558059301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>335253.61000540009</v>
+      </c>
+      <c r="N10" s="1">
+        <v>250112</v>
+      </c>
+      <c r="O10" s="1">
+        <v>182961</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2322491.0800053999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1383,10 +1433,19 @@
         <v>3433</v>
       </c>
       <c r="M12" s="7">
-        <v>12425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1757</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1687</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1624</v>
+      </c>
+      <c r="P12" s="7">
+        <v>17493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,43 +1468,61 @@
         <v>2815</v>
       </c>
       <c r="M13" s="1">
-        <v>10980</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="N13" s="1">
+        <v>19</v>
+      </c>
+      <c r="O13" s="1">
+        <v>44</v>
+      </c>
+      <c r="P13" s="1">
+        <v>11330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="49">
         <v>79254</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="49">
         <v>71765</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="49">
         <v>80359</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46">
+      <c r="I15" s="49"/>
+      <c r="J15" s="49">
         <v>74701</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="49">
         <v>75657</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="49">
         <v>77035</v>
       </c>
-      <c r="M15" s="46">
-        <v>458771</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15" s="49">
+        <v>85180</v>
+      </c>
+      <c r="N15" s="49">
+        <v>77436</v>
+      </c>
+      <c r="O15" s="49">
+        <v>80284</v>
+      </c>
+      <c r="P15" s="49">
+        <v>701671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1469,37 +1546,55 @@
         <v>231</v>
       </c>
       <c r="M17" s="7">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3103</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1842</v>
+      </c>
+      <c r="O17" s="7">
+        <v>507</v>
+      </c>
+      <c r="P17" s="7">
+        <v>8077</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="49">
         <v>3185</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="49">
         <v>2929</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="49">
         <v>3611</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46">
+      <c r="I18" s="49"/>
+      <c r="J18" s="49">
         <v>2752</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="49">
         <v>4534</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="49">
         <v>2556</v>
       </c>
-      <c r="M18" s="46">
-        <v>19567</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M18" s="49">
+        <v>2561</v>
+      </c>
+      <c r="N18" s="49">
+        <v>3685</v>
+      </c>
+      <c r="O18" s="49">
+        <v>2658</v>
+      </c>
+      <c r="P18" s="49">
+        <v>28471</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1523,10 +1618,19 @@
         <v>26791</v>
       </c>
       <c r="M20" s="6">
-        <v>227715.71</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>49281</v>
+      </c>
+      <c r="N20" s="6">
+        <v>21282</v>
+      </c>
+      <c r="O20" s="6">
+        <v>15813</v>
+      </c>
+      <c r="P20" s="6">
+        <v>314091.70999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1549,38 +1653,56 @@
       <c r="L21" s="34">
         <v>16066</v>
       </c>
-      <c r="M21" s="1">
-        <v>145266</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M21" s="34">
+        <v>36328</v>
+      </c>
+      <c r="N21" s="34">
+        <v>7692</v>
+      </c>
+      <c r="O21" s="34">
+        <v>7765</v>
+      </c>
+      <c r="P21" s="1">
+        <v>197051</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="34">
-        <v>1979</v>
+        <v>2281</v>
       </c>
       <c r="G22" s="34">
-        <v>1067</v>
+        <v>1399</v>
       </c>
       <c r="H22" s="34">
-        <v>1577</v>
+        <v>1969</v>
       </c>
       <c r="I22" s="34"/>
       <c r="J22" s="34">
-        <v>1700</v>
+        <v>2034</v>
       </c>
       <c r="K22" s="34">
-        <v>1188</v>
+        <v>1716</v>
       </c>
       <c r="L22" s="34">
-        <v>664</v>
-      </c>
-      <c r="M22" s="14">
-        <v>8175</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2540</v>
+      </c>
+      <c r="M22" s="34">
+        <v>3762</v>
+      </c>
+      <c r="N22" s="34">
+        <v>3439</v>
+      </c>
+      <c r="O22" s="34">
+        <v>5202</v>
+      </c>
+      <c r="P22" s="14">
+        <v>24342</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1603,11 +1725,20 @@
       <c r="L23" s="34">
         <v>13</v>
       </c>
-      <c r="M23" s="1">
-        <v>1265.71</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="34">
+        <v>7</v>
+      </c>
+      <c r="N23" s="34">
+        <v>73</v>
+      </c>
+      <c r="O23" s="34">
+        <v>11</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1356.71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1630,38 +1761,56 @@
       <c r="L24" s="34">
         <v>537</v>
       </c>
-      <c r="M24" s="1">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M24" s="34">
+        <v>1054</v>
+      </c>
+      <c r="N24" s="34">
+        <v>771</v>
+      </c>
+      <c r="O24" s="34">
+        <v>997</v>
+      </c>
+      <c r="P24" s="1">
+        <v>6872</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F25" s="34">
-        <v>11456</v>
+        <v>11154</v>
       </c>
       <c r="G25" s="34">
-        <v>7754</v>
+        <v>7422</v>
       </c>
       <c r="H25" s="34">
-        <v>8081</v>
+        <v>7689</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="34">
-        <v>7275</v>
+        <v>6941</v>
       </c>
       <c r="K25" s="34">
-        <v>24639</v>
+        <v>24111</v>
       </c>
       <c r="L25" s="34">
-        <v>9503</v>
-      </c>
-      <c r="M25" s="1">
-        <v>68708</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7627</v>
+      </c>
+      <c r="M25" s="34">
+        <v>8130</v>
+      </c>
+      <c r="N25" s="34">
+        <v>9305</v>
+      </c>
+      <c r="O25" s="34">
+        <v>1838</v>
+      </c>
+      <c r="P25" s="1">
+        <v>84217</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1684,11 +1833,20 @@
       <c r="L26" s="34">
         <v>8</v>
       </c>
-      <c r="M26" s="1">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="M26" s="34">
+        <v>0</v>
+      </c>
+      <c r="N26" s="34">
+        <v>2</v>
+      </c>
+      <c r="O26" s="34">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="21" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1704,8 +1862,8 @@
       <c r="H29" s="6">
         <v>622200</v>
       </c>
-      <c r="I29" s="47" t="s">
-        <v>74</v>
+      <c r="I29" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="J29" s="6">
         <v>454756</v>
@@ -1717,10 +1875,19 @@
         <v>548518</v>
       </c>
       <c r="M29" s="6">
-        <v>3025711</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>491193</v>
+      </c>
+      <c r="N29" s="6">
+        <v>437283</v>
+      </c>
+      <c r="O29" s="6">
+        <v>529796</v>
+      </c>
+      <c r="P29" s="6">
+        <v>4483983</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1743,10 +1910,19 @@
         <v>95520</v>
       </c>
       <c r="M30" s="1">
-        <v>571299</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>98346</v>
+      </c>
+      <c r="N30" s="1">
+        <v>103085</v>
+      </c>
+      <c r="O30" s="1">
+        <v>95467</v>
+      </c>
+      <c r="P30" s="1">
+        <v>868197</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1769,10 +1945,19 @@
         <v>57420</v>
       </c>
       <c r="M31" s="1">
-        <v>414821</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>106219</v>
+      </c>
+      <c r="N31" s="1">
+        <v>63105</v>
+      </c>
+      <c r="O31" s="1">
+        <v>81704</v>
+      </c>
+      <c r="P31" s="1">
+        <v>665849</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1795,11 +1980,20 @@
         <v>6479</v>
       </c>
       <c r="M32" s="1">
-        <v>26030</v>
-      </c>
-      <c r="N32" s="48"/>
-    </row>
-    <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5147</v>
+      </c>
+      <c r="N32" s="1">
+        <v>3548</v>
+      </c>
+      <c r="O32" s="1">
+        <v>2175</v>
+      </c>
+      <c r="P32" s="1">
+        <v>36900</v>
+      </c>
+      <c r="Q32" s="50"/>
+    </row>
+    <row r="33" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>49</v>
       </c>
@@ -1822,10 +2016,19 @@
         <v>7449</v>
       </c>
       <c r="M33" s="1">
-        <v>52498</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9735</v>
+      </c>
+      <c r="N33" s="1">
+        <v>8018</v>
+      </c>
+      <c r="O33" s="1">
+        <v>9203</v>
+      </c>
+      <c r="P33" s="1">
+        <v>79454</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>31</v>
       </c>
@@ -1848,10 +2051,19 @@
         <v>69</v>
       </c>
       <c r="M34" s="1">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>134</v>
+      </c>
+      <c r="O34" s="1">
+        <v>84</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1874,10 +2086,19 @@
         <v>406</v>
       </c>
       <c r="M35" s="1">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>553</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
         <v>50</v>
       </c>
@@ -1900,10 +2121,19 @@
         <v>381175</v>
       </c>
       <c r="M36" s="1">
-        <v>1957757</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+        <v>271746</v>
+      </c>
+      <c r="N36" s="1">
+        <v>259393</v>
+      </c>
+      <c r="O36" s="1">
+        <v>340610</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2829506</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
@@ -1911,38 +2141,47 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2">
-        <v>68361.751433669997</v>
+        <v>68361.919999999984</v>
       </c>
       <c r="G38" s="2">
-        <v>-171443.83581120998</v>
+        <v>-171443.56</v>
       </c>
       <c r="H38" s="2">
-        <v>-342947.01844678004</v>
-      </c>
-      <c r="I38" s="47" t="s">
-        <v>74</v>
+        <v>-342947.28</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="J38" s="2">
-        <v>67299.021114039992</v>
+        <v>67299</v>
       </c>
       <c r="K38" s="2">
-        <v>-145150.95248379</v>
+        <v>-145151.35999999999</v>
       </c>
       <c r="L38" s="2">
-        <v>-241612</v>
+        <v>-241611.54000000004</v>
       </c>
       <c r="M38" s="2">
-        <v>-765493.03419406991</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-18917.389994599915</v>
+      </c>
+      <c r="N38" s="2">
+        <v>-84768</v>
+      </c>
+      <c r="O38" s="2">
+        <v>-248080</v>
+      </c>
+      <c r="P38" s="2">
+        <v>-1117258.2099946002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>34</v>
       </c>
@@ -1969,10 +2208,19 @@
         <v>256270</v>
       </c>
       <c r="M40" s="6">
-        <v>1238210</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>164271</v>
+      </c>
+      <c r="N40" s="6">
+        <v>-11544</v>
+      </c>
+      <c r="O40" s="6">
+        <v>-117275</v>
+      </c>
+      <c r="P40" s="6">
+        <v>1273662</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>35</v>
       </c>
@@ -1996,10 +2244,19 @@
         <v>88745</v>
       </c>
       <c r="M41" s="8">
-        <v>219520</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>11909</v>
+      </c>
+      <c r="N41" s="8">
+        <v>6584</v>
+      </c>
+      <c r="O41" s="8">
+        <v>102</v>
+      </c>
+      <c r="P41" s="8">
+        <v>238115</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
         <v>36</v>
       </c>
@@ -2022,10 +2279,19 @@
         <v>96412</v>
       </c>
       <c r="M42" s="1">
-        <v>402351</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>13567</v>
+      </c>
+      <c r="N42" s="1">
+        <v>10314</v>
+      </c>
+      <c r="O42" s="1">
+        <v>8365</v>
+      </c>
+      <c r="P42" s="1">
+        <v>434597</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
         <v>37</v>
       </c>
@@ -2048,10 +2314,19 @@
         <v>7667</v>
       </c>
       <c r="M43" s="1">
-        <v>182831</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1658</v>
+      </c>
+      <c r="N43" s="1">
+        <v>3730</v>
+      </c>
+      <c r="O43" s="1">
+        <v>8263</v>
+      </c>
+      <c r="P43" s="1">
+        <v>196482</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2075,10 +2350,19 @@
         <v>167525</v>
       </c>
       <c r="M45" s="6">
-        <v>1018690</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+        <v>152362</v>
+      </c>
+      <c r="N45" s="6">
+        <v>-18128</v>
+      </c>
+      <c r="O45" s="6">
+        <v>-117377</v>
+      </c>
+      <c r="P45" s="6">
+        <v>1035547</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2101,10 +2385,19 @@
         <v>167579</v>
       </c>
       <c r="M46" s="1">
-        <v>1189147</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+        <v>152540</v>
+      </c>
+      <c r="N46" s="1">
+        <v>498213</v>
+      </c>
+      <c r="O46" s="1">
+        <v>120548</v>
+      </c>
+      <c r="P46" s="1">
+        <v>1960448</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>67</v>
       </c>
@@ -2128,46 +2421,64 @@
         <v>54</v>
       </c>
       <c r="M47" s="37">
-        <v>170457</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="N47" s="37">
+        <v>516341</v>
+      </c>
+      <c r="O47" s="37">
+        <v>237925</v>
+      </c>
+      <c r="P47" s="37">
+        <v>924901</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:19" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F49" s="2">
-        <v>1230828</v>
+        <v>279427.92</v>
       </c>
       <c r="G49" s="2">
-        <v>110748</v>
+        <v>164398.44</v>
       </c>
       <c r="H49" s="2">
-        <v>-325560</v>
+        <v>-245735.28000000003</v>
       </c>
       <c r="J49" s="2">
-        <v>188934</v>
+        <v>222907</v>
       </c>
       <c r="K49" s="2">
-        <v>-23410</v>
+        <v>37060.640000000014</v>
       </c>
       <c r="L49" s="2">
-        <v>-90087</v>
+        <v>14658.459999999963</v>
       </c>
       <c r="M49" s="2">
-        <v>1091453</v>
-      </c>
-      <c r="N49" s="43"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>145353.61000540009</v>
+      </c>
+      <c r="N49" s="2">
+        <v>-96312</v>
+      </c>
+      <c r="O49" s="2">
+        <v>-365355</v>
+      </c>
+      <c r="P49" s="2">
+        <v>156403.79000540008</v>
+      </c>
+      <c r="Q49" s="45"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
     </row>
-    <row r="51" spans="1:16" s="12" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="12" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>43</v>
       </c>
@@ -2182,33 +2493,39 @@
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
-      <c r="N51" s="43"/>
-    </row>
-    <row r="52" spans="1:16" s="12" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="Q51" s="45"/>
+    </row>
+    <row r="52" spans="1:19" s="12" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
+      <c r="B52" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
-      <c r="N52" s="43"/>
-    </row>
-    <row r="53" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="Q52" s="45"/>
+    </row>
+    <row r="53" spans="1:19" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="50"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
@@ -2218,14 +2535,17 @@
       <c r="J53" s="16"/>
       <c r="K53" s="16"/>
       <c r="L53" s="16"/>
-      <c r="N53" s="43"/>
-    </row>
-    <row r="54" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="Q53" s="45"/>
+    </row>
+    <row r="54" spans="1:19" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="50"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
@@ -2235,14 +2555,17 @@
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
       <c r="L54" s="16"/>
-      <c r="N54" s="43"/>
-    </row>
-    <row r="55" spans="1:16" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="Q54" s="45"/>
+    </row>
+    <row r="55" spans="1:19" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="16"/>
@@ -2254,18 +2577,21 @@
       <c r="J55" s="16"/>
       <c r="K55" s="16"/>
       <c r="L55" s="16"/>
-      <c r="N55" s="43"/>
-    </row>
-    <row r="56" spans="1:16" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="Q55" s="45"/>
+    </row>
+    <row r="56" spans="1:19" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="53"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="55"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -2273,18 +2599,17 @@
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
-      <c r="N56" s="43"/>
-    </row>
-    <row r="57" spans="1:16" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="53"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="Q56" s="45"/>
+    </row>
+    <row r="57" spans="1:19" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="55"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -2292,48 +2617,59 @@
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
-      <c r="N57" s="43"/>
-    </row>
-    <row r="58" spans="1:16" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="N58" s="43"/>
-    </row>
-    <row r="59" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
-      <c r="N59" s="43"/>
-    </row>
-    <row r="60" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="Q57" s="45"/>
+    </row>
+    <row r="58" spans="1:19" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="Q58" s="45"/>
+    </row>
+    <row r="59" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="Q59" s="45"/>
+    </row>
+    <row r="60" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -2341,48 +2677,34 @@
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
-      <c r="N60" s="43"/>
-    </row>
-    <row r="61" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="P61" s="13"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-    </row>
-    <row r="69" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="S60" s="13"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+    </row>
+    <row r="68" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B52:F52"/>
-    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A60:E60"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;C&amp;"-,Bold"&amp;10BUREAU OF THE TREASURY&amp;11
 &amp;"-,Italic"&amp;9 Statistical Data Analysis Division</oddHeader>
@@ -2452,13 +2774,13 @@
     </row>
     <row r="6" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:19" s="5" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
@@ -4153,13 +4475,13 @@
     </row>
     <row r="55" spans="1:21" s="12" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
@@ -4278,13 +4600,13 @@
       <c r="S61" s="17"/>
     </row>
     <row r="62" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
